--- a/Desktop/JOE/Digestion/POW 041224/Borang peluluhan.xlsx
+++ b/Desktop/JOE/Digestion/POW 041224/Borang peluluhan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gunasama\Desktop\JOE\Digestion\POW 041224\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DEF13C6-3BB3-4E3F-B3FB-CFBC8C942EBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAB71F5F-ACED-45D8-A9B4-61ADBF2CF829}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1420,218 +1420,8 @@
     <xf numFmtId="167" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="20" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="20" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="36" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="2" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1681,8 +1471,218 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="36" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="2" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="20" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="20" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2501,8 +2501,8 @@
             <a:xfrm>
               <a:off x="4531683" y="897178"/>
               <a:ext cx="1840542" cy="346787"/>
-              <a:chOff x="5019281" y="923328"/>
-              <a:chExt cx="2078194" cy="229184"/>
+              <a:chOff x="5019280" y="923328"/>
+              <a:chExt cx="2078195" cy="229184"/>
             </a:xfrm>
           </xdr:grpSpPr>
           <xdr:sp macro="" textlink="">
@@ -2568,7 +2568,7 @@
             </xdr:nvSpPr>
             <xdr:spPr bwMode="auto">
               <a:xfrm>
-                <a:off x="5019281" y="923328"/>
+                <a:off x="5019280" y="923328"/>
                 <a:ext cx="304608" cy="229184"/>
               </a:xfrm>
               <a:prstGeom prst="rect">
@@ -6941,8 +6941,8 @@
             <a:xfrm>
               <a:off x="4531683" y="897178"/>
               <a:ext cx="1840542" cy="346787"/>
-              <a:chOff x="5019294" y="923328"/>
-              <a:chExt cx="2078203" cy="229184"/>
+              <a:chOff x="5019295" y="923328"/>
+              <a:chExt cx="2078200" cy="229184"/>
             </a:xfrm>
           </xdr:grpSpPr>
           <xdr:sp macro="" textlink="">
@@ -7008,7 +7008,7 @@
             </xdr:nvSpPr>
             <xdr:spPr bwMode="auto">
               <a:xfrm>
-                <a:off x="5019294" y="923328"/>
+                <a:off x="5019295" y="923328"/>
                 <a:ext cx="304607" cy="229184"/>
               </a:xfrm>
               <a:prstGeom prst="rect">
@@ -7055,7 +7055,7 @@
             </xdr:nvSpPr>
             <xdr:spPr bwMode="auto">
               <a:xfrm>
-                <a:off x="6792694" y="927231"/>
+                <a:off x="6792692" y="927231"/>
                 <a:ext cx="304803" cy="215576"/>
               </a:xfrm>
               <a:prstGeom prst="rect">
@@ -15851,7 +15851,7 @@
   <dimension ref="A1:T36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -16052,8 +16052,8 @@
       </c>
       <c r="I5" s="44"/>
       <c r="J5" s="46" t="str">
-        <f>IF(H5="T1","/ T1",IF(H5="T2","/ T2",IF(H5="T3","/ T3",IF(H5="T4","/ T4",""))))</f>
-        <v>/ T3</v>
+        <f>IF(H5=H4,"",IF(H5="T1","/ T1",IF(H5="T2","/ T2",IF(H5="T3","/ T3",IF(H5="T4","/ T4","")))))</f>
+        <v/>
       </c>
       <c r="K5" s="46"/>
       <c r="L5" s="46"/>
@@ -16070,7 +16070,7 @@
       <c r="A6" s="29" t="s">
         <v>56</v>
       </c>
-      <c r="B6" s="153" t="s">
+      <c r="B6" s="66" t="s">
         <v>91</v>
       </c>
       <c r="C6" s="31">
@@ -16115,7 +16115,7 @@
       <c r="A7" s="29" t="s">
         <v>57</v>
       </c>
-      <c r="B7" s="153" t="s">
+      <c r="B7" s="66" t="s">
         <v>92</v>
       </c>
       <c r="C7" s="31">
@@ -16160,7 +16160,7 @@
       <c r="A8" s="29" t="s">
         <v>58</v>
       </c>
-      <c r="B8" s="153" t="s">
+      <c r="B8" s="66" t="s">
         <v>93</v>
       </c>
       <c r="C8" s="31">
@@ -16205,7 +16205,7 @@
       <c r="A9" s="29" t="s">
         <v>59</v>
       </c>
-      <c r="B9" s="153" t="s">
+      <c r="B9" s="66" t="s">
         <v>94</v>
       </c>
       <c r="C9" s="31">
@@ -16250,7 +16250,7 @@
       <c r="A10" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="B10" s="153" t="s">
+      <c r="B10" s="66" t="s">
         <v>95</v>
       </c>
       <c r="C10" s="31">
@@ -16295,7 +16295,7 @@
       <c r="A11" s="29" t="s">
         <v>61</v>
       </c>
-      <c r="B11" s="153" t="s">
+      <c r="B11" s="66" t="s">
         <v>96</v>
       </c>
       <c r="C11" s="31">
@@ -16340,7 +16340,7 @@
       <c r="A12" s="29" t="s">
         <v>62</v>
       </c>
-      <c r="B12" s="153" t="s">
+      <c r="B12" s="66" t="s">
         <v>97</v>
       </c>
       <c r="C12" s="31">
@@ -16385,7 +16385,7 @@
       <c r="A13" s="29" t="s">
         <v>63</v>
       </c>
-      <c r="B13" s="153" t="s">
+      <c r="B13" s="66" t="s">
         <v>98</v>
       </c>
       <c r="C13" s="31">
@@ -16430,7 +16430,7 @@
       <c r="A14" s="29" t="s">
         <v>64</v>
       </c>
-      <c r="B14" s="153" t="s">
+      <c r="B14" s="66" t="s">
         <v>99</v>
       </c>
       <c r="C14" s="31">
@@ -16475,7 +16475,7 @@
       <c r="A15" s="29" t="s">
         <v>65</v>
       </c>
-      <c r="B15" s="153" t="s">
+      <c r="B15" s="66" t="s">
         <v>100</v>
       </c>
       <c r="C15" s="31">
@@ -16520,7 +16520,7 @@
       <c r="A16" s="29" t="s">
         <v>66</v>
       </c>
-      <c r="B16" s="153"/>
+      <c r="B16" s="66"/>
       <c r="C16" s="31"/>
       <c r="D16" s="31"/>
       <c r="E16" s="31"/>
@@ -16557,7 +16557,7 @@
       <c r="A17" s="29" t="s">
         <v>67</v>
       </c>
-      <c r="B17" s="153"/>
+      <c r="B17" s="66"/>
       <c r="C17" s="31"/>
       <c r="D17" s="31"/>
       <c r="E17" s="31"/>
@@ -17071,46 +17071,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="32.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="139" t="s">
+      <c r="A1" s="69" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="140"/>
-      <c r="C1" s="140"/>
-      <c r="D1" s="140"/>
-      <c r="E1" s="140"/>
-      <c r="F1" s="140"/>
-      <c r="G1" s="140"/>
-      <c r="H1" s="141"/>
+      <c r="B1" s="70"/>
+      <c r="C1" s="70"/>
+      <c r="D1" s="70"/>
+      <c r="E1" s="70"/>
+      <c r="F1" s="70"/>
+      <c r="G1" s="70"/>
+      <c r="H1" s="71"/>
     </row>
     <row r="2" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="142" t="s">
+      <c r="A2" s="72" t="s">
         <v>42</v>
       </c>
-      <c r="B2" s="143"/>
-      <c r="C2" s="144"/>
-      <c r="D2" s="145" t="str">
+      <c r="B2" s="73"/>
+      <c r="C2" s="74"/>
+      <c r="D2" s="75" t="str">
         <f>FormTitan!B14</f>
         <v>2024110137</v>
       </c>
-      <c r="E2" s="145"/>
-      <c r="F2" s="145"/>
-      <c r="G2" s="145"/>
-      <c r="H2" s="146"/>
+      <c r="E2" s="75"/>
+      <c r="F2" s="75"/>
+      <c r="G2" s="75"/>
+      <c r="H2" s="76"/>
     </row>
     <row r="3" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="147" t="s">
+      <c r="A3" s="77" t="s">
         <v>43</v>
       </c>
-      <c r="B3" s="148"/>
-      <c r="C3" s="149"/>
-      <c r="D3" s="150" t="str">
+      <c r="B3" s="78"/>
+      <c r="C3" s="79"/>
+      <c r="D3" s="80" t="str">
         <f>FormTitan!G14</f>
         <v>KAPSUL KERAS</v>
       </c>
-      <c r="E3" s="151"/>
-      <c r="F3" s="151"/>
-      <c r="G3" s="151"/>
-      <c r="H3" s="152"/>
+      <c r="E3" s="81"/>
+      <c r="F3" s="81"/>
+      <c r="G3" s="81"/>
+      <c r="H3" s="82"/>
     </row>
     <row r="4" spans="1:8" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="20" t="s">
@@ -17123,11 +17123,11 @@
         <f>FormTitan!B2</f>
         <v>RB POW 041224</v>
       </c>
-      <c r="F4" s="137" t="s">
+      <c r="F4" s="67" t="s">
         <v>38</v>
       </c>
-      <c r="G4" s="137"/>
-      <c r="H4" s="138"/>
+      <c r="G4" s="67"/>
+      <c r="H4" s="68"/>
     </row>
     <row r="5" spans="1:8" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="34" t="s">
@@ -17136,136 +17136,136 @@
       <c r="B5" s="7"/>
       <c r="C5" s="7"/>
       <c r="D5" s="7"/>
-      <c r="E5" s="131" t="str">
+      <c r="E5" s="83" t="str">
         <f>FormTitan!B21</f>
         <v>IQC POW 041224</v>
       </c>
-      <c r="F5" s="131"/>
-      <c r="G5" s="132" t="s">
+      <c r="F5" s="83"/>
+      <c r="G5" s="84" t="s">
         <v>40</v>
       </c>
-      <c r="H5" s="133"/>
+      <c r="H5" s="85"/>
     </row>
     <row r="6" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="134" t="s">
+      <c r="A6" s="86" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="135"/>
-      <c r="C6" s="135"/>
-      <c r="D6" s="135"/>
-      <c r="E6" s="136"/>
+      <c r="B6" s="87"/>
+      <c r="C6" s="87"/>
+      <c r="D6" s="87"/>
+      <c r="E6" s="88"/>
       <c r="F6" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="G6" s="114" t="s">
+      <c r="G6" s="89" t="s">
         <v>9</v>
       </c>
-      <c r="H6" s="117"/>
+      <c r="H6" s="90"/>
     </row>
     <row r="7" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="121" t="s">
+      <c r="A7" s="91" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="122"/>
-      <c r="C7" s="128"/>
-      <c r="D7" s="129"/>
-      <c r="E7" s="130"/>
+      <c r="B7" s="92"/>
+      <c r="C7" s="93"/>
+      <c r="D7" s="94"/>
+      <c r="E7" s="95"/>
       <c r="F7" s="18">
         <f>FormTitan!C3</f>
         <v>0.504</v>
       </c>
-      <c r="G7" s="126">
+      <c r="G7" s="96">
         <f>FormTitan!F3</f>
         <v>50.138000000000005</v>
       </c>
-      <c r="H7" s="127"/>
+      <c r="H7" s="97"/>
     </row>
     <row r="8" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="121" t="s">
+      <c r="A8" s="91" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="122"/>
-      <c r="C8" s="123" t="str">
+      <c r="B8" s="92"/>
+      <c r="C8" s="98" t="str">
         <f>E5</f>
         <v>IQC POW 041224</v>
       </c>
-      <c r="D8" s="124"/>
-      <c r="E8" s="125"/>
+      <c r="D8" s="99"/>
+      <c r="E8" s="100"/>
       <c r="F8" s="18">
         <f>FormTitan!C4</f>
         <v>0.502</v>
       </c>
-      <c r="G8" s="126">
+      <c r="G8" s="96">
         <f>FormTitan!F4</f>
         <v>50.027000000000001</v>
       </c>
-      <c r="H8" s="127"/>
+      <c r="H8" s="97"/>
     </row>
     <row r="9" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="121" t="s">
+      <c r="A9" s="91" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="122"/>
-      <c r="C9" s="128"/>
-      <c r="D9" s="129"/>
-      <c r="E9" s="130"/>
+      <c r="B9" s="92"/>
+      <c r="C9" s="93"/>
+      <c r="D9" s="94"/>
+      <c r="E9" s="95"/>
       <c r="F9" s="18">
         <f>FormTitan!C5</f>
         <v>0.502</v>
       </c>
-      <c r="G9" s="126">
+      <c r="G9" s="96">
         <f>FormTitan!F5</f>
         <v>50.009</v>
       </c>
-      <c r="H9" s="127"/>
+      <c r="H9" s="97"/>
     </row>
     <row r="10" spans="1:8" ht="48.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="106"/>
-      <c r="B10" s="108" t="s">
+      <c r="A10" s="101"/>
+      <c r="B10" s="103" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="109"/>
-      <c r="D10" s="109"/>
-      <c r="E10" s="110"/>
-      <c r="F10" s="114" t="s">
+      <c r="C10" s="104"/>
+      <c r="D10" s="104"/>
+      <c r="E10" s="105"/>
+      <c r="F10" s="89" t="s">
         <v>39</v>
       </c>
-      <c r="G10" s="115"/>
-      <c r="H10" s="116"/>
+      <c r="G10" s="109"/>
+      <c r="H10" s="110"/>
     </row>
     <row r="11" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="107"/>
-      <c r="B11" s="111"/>
-      <c r="C11" s="112"/>
-      <c r="D11" s="112"/>
-      <c r="E11" s="113"/>
+      <c r="A11" s="102"/>
+      <c r="B11" s="106"/>
+      <c r="C11" s="107"/>
+      <c r="D11" s="107"/>
+      <c r="E11" s="108"/>
       <c r="F11" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="G11" s="114" t="s">
+      <c r="G11" s="89" t="s">
         <v>18</v>
       </c>
-      <c r="H11" s="117"/>
+      <c r="H11" s="90"/>
     </row>
     <row r="12" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="118">
+      <c r="B12" s="111">
         <v>2.5</v>
       </c>
-      <c r="C12" s="119"/>
-      <c r="D12" s="119"/>
-      <c r="E12" s="120"/>
+      <c r="C12" s="112"/>
+      <c r="D12" s="112"/>
+      <c r="E12" s="113"/>
       <c r="F12" s="65">
         <f>IF(ISNUMBER(SEARCH("IQC",$D$2)),"NA",($B12/F$8))</f>
         <v>4.9800796812749004</v>
       </c>
-      <c r="G12" s="101">
+      <c r="G12" s="114">
         <f>IF(ISNUMBER(SEARCH("IQC",$D$2)),"NA",($B12/F$9))</f>
         <v>4.9800796812749004</v>
       </c>
-      <c r="H12" s="102" t="e">
+      <c r="H12" s="115" t="e">
         <f t="shared" ref="H12:H15" si="0">IF(ISNUMBER(SEARCH("IQC",$D$2)),"NA",($B12/H$8))</f>
         <v>#DIV/0!</v>
       </c>
@@ -17274,21 +17274,21 @@
       <c r="A13" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="98">
+      <c r="B13" s="116">
         <v>0.25</v>
       </c>
-      <c r="C13" s="99"/>
-      <c r="D13" s="99"/>
-      <c r="E13" s="100"/>
+      <c r="C13" s="117"/>
+      <c r="D13" s="117"/>
+      <c r="E13" s="118"/>
       <c r="F13" s="65">
         <f t="shared" ref="F13:F15" si="1">IF(ISNUMBER(SEARCH("IQC",$D$2)),"NA",(B13/F$8))</f>
         <v>0.49800796812749004</v>
       </c>
-      <c r="G13" s="101">
+      <c r="G13" s="114">
         <f t="shared" ref="G13:G15" si="2">IF(ISNUMBER(SEARCH("IQC",$D$2)),"NA",($B13/F$9))</f>
         <v>0.49800796812749004</v>
       </c>
-      <c r="H13" s="102" t="e">
+      <c r="H13" s="115" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
@@ -17297,21 +17297,21 @@
       <c r="A14" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="103">
+      <c r="B14" s="119">
         <v>5</v>
       </c>
-      <c r="C14" s="104"/>
-      <c r="D14" s="104"/>
-      <c r="E14" s="105"/>
+      <c r="C14" s="120"/>
+      <c r="D14" s="120"/>
+      <c r="E14" s="121"/>
       <c r="F14" s="65">
         <f t="shared" si="1"/>
         <v>9.9601593625498008</v>
       </c>
-      <c r="G14" s="101">
+      <c r="G14" s="114">
         <f t="shared" si="2"/>
         <v>9.9601593625498008</v>
       </c>
-      <c r="H14" s="102" t="e">
+      <c r="H14" s="115" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
@@ -17320,21 +17320,21 @@
       <c r="A15" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="98">
+      <c r="B15" s="116">
         <v>0.15</v>
       </c>
-      <c r="C15" s="99"/>
-      <c r="D15" s="99"/>
-      <c r="E15" s="100"/>
+      <c r="C15" s="117"/>
+      <c r="D15" s="117"/>
+      <c r="E15" s="118"/>
       <c r="F15" s="65">
         <f t="shared" si="1"/>
         <v>0.29880478087649404</v>
       </c>
-      <c r="G15" s="101">
+      <c r="G15" s="114">
         <f t="shared" si="2"/>
         <v>0.29880478087649404</v>
       </c>
-      <c r="H15" s="102" t="e">
+      <c r="H15" s="115" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
@@ -17346,16 +17346,16 @@
       <c r="H16" s="2"/>
     </row>
     <row r="17" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="94" t="s">
+      <c r="A17" s="122" t="s">
         <v>31</v>
       </c>
-      <c r="B17" s="95"/>
-      <c r="C17" s="95"/>
-      <c r="D17" s="95"/>
-      <c r="E17" s="96" t="s">
+      <c r="B17" s="123"/>
+      <c r="C17" s="123"/>
+      <c r="D17" s="123"/>
+      <c r="E17" s="124" t="s">
         <v>29</v>
       </c>
-      <c r="F17" s="97"/>
+      <c r="F17" s="125"/>
       <c r="G17" s="27" t="s">
         <v>74</v>
       </c>
@@ -17365,70 +17365,70 @@
       </c>
     </row>
     <row r="18" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="87" t="s">
+      <c r="A18" s="126" t="s">
         <v>32</v>
       </c>
-      <c r="B18" s="88"/>
-      <c r="C18" s="88"/>
-      <c r="D18" s="88"/>
-      <c r="E18" s="89" t="s">
+      <c r="B18" s="127"/>
+      <c r="C18" s="127"/>
+      <c r="D18" s="127"/>
+      <c r="E18" s="128" t="s">
         <v>29</v>
       </c>
-      <c r="F18" s="89"/>
+      <c r="F18" s="128"/>
       <c r="G18" s="25"/>
       <c r="H18" s="16"/>
     </row>
     <row r="19" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="87" t="s">
+      <c r="A19" s="126" t="s">
         <v>33</v>
       </c>
-      <c r="B19" s="88"/>
-      <c r="C19" s="88"/>
-      <c r="D19" s="88"/>
-      <c r="E19" s="89" t="s">
+      <c r="B19" s="127"/>
+      <c r="C19" s="127"/>
+      <c r="D19" s="127"/>
+      <c r="E19" s="128" t="s">
         <v>73</v>
       </c>
-      <c r="F19" s="89"/>
+      <c r="F19" s="128"/>
       <c r="G19" s="25"/>
       <c r="H19" s="16"/>
     </row>
     <row r="20" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="87" t="s">
+      <c r="A20" s="126" t="s">
         <v>34</v>
       </c>
-      <c r="B20" s="88"/>
-      <c r="C20" s="88"/>
-      <c r="D20" s="88"/>
-      <c r="E20" s="89" t="s">
+      <c r="B20" s="127"/>
+      <c r="C20" s="127"/>
+      <c r="D20" s="127"/>
+      <c r="E20" s="128" t="s">
         <v>29</v>
       </c>
-      <c r="F20" s="89"/>
+      <c r="F20" s="128"/>
       <c r="G20" s="25"/>
       <c r="H20" s="16"/>
     </row>
     <row r="21" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="87" t="s">
+      <c r="A21" s="126" t="s">
         <v>35</v>
       </c>
-      <c r="B21" s="88"/>
-      <c r="C21" s="88"/>
-      <c r="D21" s="88"/>
-      <c r="E21" s="89"/>
-      <c r="F21" s="89"/>
+      <c r="B21" s="127"/>
+      <c r="C21" s="127"/>
+      <c r="D21" s="127"/>
+      <c r="E21" s="128"/>
+      <c r="F21" s="128"/>
       <c r="G21" s="25"/>
       <c r="H21" s="16"/>
     </row>
     <row r="22" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="90" t="s">
+      <c r="A22" s="129" t="s">
         <v>36</v>
       </c>
-      <c r="B22" s="91"/>
-      <c r="C22" s="91"/>
-      <c r="D22" s="91"/>
-      <c r="E22" s="92" t="s">
+      <c r="B22" s="130"/>
+      <c r="C22" s="130"/>
+      <c r="D22" s="130"/>
+      <c r="E22" s="131" t="s">
         <v>30</v>
       </c>
-      <c r="F22" s="93"/>
+      <c r="F22" s="132"/>
       <c r="G22" s="26"/>
       <c r="H22" s="17"/>
     </row>
@@ -17470,79 +17470,114 @@
       <c r="H25" s="11"/>
     </row>
     <row r="26" spans="1:8" ht="60.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="78" t="s">
+      <c r="A26" s="133" t="s">
         <v>19</v>
       </c>
-      <c r="B26" s="79"/>
-      <c r="C26" s="79"/>
-      <c r="D26" s="80" t="s">
+      <c r="B26" s="134"/>
+      <c r="C26" s="134"/>
+      <c r="D26" s="135" t="s">
         <v>15</v>
       </c>
-      <c r="E26" s="80"/>
+      <c r="E26" s="135"/>
       <c r="F26" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="G26" s="80" t="s">
+      <c r="G26" s="135" t="s">
         <v>15</v>
       </c>
-      <c r="H26" s="81"/>
+      <c r="H26" s="136"/>
     </row>
     <row r="27" spans="1:8" ht="60.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="82" t="s">
+      <c r="A27" s="137" t="s">
         <v>20</v>
       </c>
-      <c r="B27" s="83"/>
-      <c r="C27" s="83"/>
-      <c r="D27" s="84" t="s">
+      <c r="B27" s="138"/>
+      <c r="C27" s="138"/>
+      <c r="D27" s="139" t="s">
         <v>15</v>
       </c>
-      <c r="E27" s="84"/>
+      <c r="E27" s="139"/>
       <c r="F27" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="G27" s="85" t="s">
+      <c r="G27" s="140" t="s">
         <v>37</v>
       </c>
-      <c r="H27" s="86"/>
+      <c r="H27" s="141"/>
     </row>
     <row r="28" spans="1:8" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="66" t="s">
+      <c r="A28" s="142" t="s">
         <v>14</v>
       </c>
-      <c r="B28" s="67"/>
-      <c r="C28" s="67"/>
-      <c r="D28" s="67"/>
-      <c r="E28" s="68"/>
-      <c r="F28" s="69" t="s">
+      <c r="B28" s="143"/>
+      <c r="C28" s="143"/>
+      <c r="D28" s="143"/>
+      <c r="E28" s="144"/>
+      <c r="F28" s="145" t="s">
         <v>7</v>
       </c>
-      <c r="G28" s="70"/>
-      <c r="H28" s="71"/>
+      <c r="G28" s="146"/>
+      <c r="H28" s="147"/>
     </row>
     <row r="29" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="72" t="str">
+      <c r="A29" s="148" t="str">
         <f>FormTitan!B19</f>
         <v>IQBAL NORDIYANA</v>
       </c>
-      <c r="B29" s="73"/>
-      <c r="C29" s="73"/>
-      <c r="D29" s="74">
+      <c r="B29" s="149"/>
+      <c r="C29" s="149"/>
+      <c r="D29" s="150">
         <f>FormTitan!B20</f>
         <v>45630</v>
       </c>
-      <c r="E29" s="75"/>
+      <c r="E29" s="151"/>
       <c r="F29" s="3"/>
-      <c r="G29" s="76"/>
-      <c r="H29" s="77"/>
+      <c r="G29" s="152"/>
+      <c r="H29" s="153"/>
     </row>
   </sheetData>
   <mergeCells count="54">
-    <mergeCell ref="F4:H4"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="D2:H2"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="D3:H3"/>
+    <mergeCell ref="A28:E28"/>
+    <mergeCell ref="F28:H28"/>
+    <mergeCell ref="A29:C29"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="A27:C27"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="A20:D20"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="A22:D22"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="A17:D17"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="A18:D18"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="A19:D19"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="B13:E13"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="B14:E14"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="B15:E15"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:E11"/>
+    <mergeCell ref="F10:H10"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="G9:H9"/>
     <mergeCell ref="E5:F5"/>
     <mergeCell ref="G5:H5"/>
     <mergeCell ref="A6:E6"/>
@@ -17550,47 +17585,12 @@
     <mergeCell ref="A7:B7"/>
     <mergeCell ref="C7:E7"/>
     <mergeCell ref="G7:H7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="B10:E11"/>
-    <mergeCell ref="F10:H10"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="B12:E12"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="B13:E13"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="B14:E14"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="B15:E15"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="A17:D17"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="A18:D18"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="A19:D19"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="A20:D20"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="A21:D21"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="A22:D22"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="A26:C26"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="A27:C27"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="A28:E28"/>
-    <mergeCell ref="F28:H28"/>
-    <mergeCell ref="A29:C29"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="F4:H4"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="D2:H2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="D3:H3"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -17783,46 +17783,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="32.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="139" t="s">
+      <c r="A1" s="69" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="140"/>
-      <c r="C1" s="140"/>
-      <c r="D1" s="140"/>
-      <c r="E1" s="140"/>
-      <c r="F1" s="140"/>
-      <c r="G1" s="140"/>
-      <c r="H1" s="141"/>
+      <c r="B1" s="70"/>
+      <c r="C1" s="70"/>
+      <c r="D1" s="70"/>
+      <c r="E1" s="70"/>
+      <c r="F1" s="70"/>
+      <c r="G1" s="70"/>
+      <c r="H1" s="71"/>
     </row>
     <row r="2" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="142" t="s">
+      <c r="A2" s="72" t="s">
         <v>42</v>
       </c>
-      <c r="B2" s="143"/>
-      <c r="C2" s="144"/>
-      <c r="D2" s="145" t="str">
+      <c r="B2" s="73"/>
+      <c r="C2" s="74"/>
+      <c r="D2" s="75" t="str">
         <f>FormTitan!B15</f>
         <v>2024110162</v>
       </c>
-      <c r="E2" s="145"/>
-      <c r="F2" s="145"/>
-      <c r="G2" s="145"/>
-      <c r="H2" s="146"/>
+      <c r="E2" s="75"/>
+      <c r="F2" s="75"/>
+      <c r="G2" s="75"/>
+      <c r="H2" s="76"/>
     </row>
     <row r="3" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="147" t="s">
+      <c r="A3" s="77" t="s">
         <v>43</v>
       </c>
-      <c r="B3" s="148"/>
-      <c r="C3" s="149"/>
-      <c r="D3" s="150" t="str">
+      <c r="B3" s="78"/>
+      <c r="C3" s="79"/>
+      <c r="D3" s="80" t="str">
         <f>FormTitan!G15</f>
         <v>SERBUK</v>
       </c>
-      <c r="E3" s="151"/>
-      <c r="F3" s="151"/>
-      <c r="G3" s="151"/>
-      <c r="H3" s="152"/>
+      <c r="E3" s="81"/>
+      <c r="F3" s="81"/>
+      <c r="G3" s="81"/>
+      <c r="H3" s="82"/>
     </row>
     <row r="4" spans="1:8" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="20" t="s">
@@ -17835,11 +17835,11 @@
         <f>FormTitan!B2</f>
         <v>RB POW 041224</v>
       </c>
-      <c r="F4" s="137" t="s">
+      <c r="F4" s="67" t="s">
         <v>38</v>
       </c>
-      <c r="G4" s="137"/>
-      <c r="H4" s="138"/>
+      <c r="G4" s="67"/>
+      <c r="H4" s="68"/>
     </row>
     <row r="5" spans="1:8" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="34" t="s">
@@ -17848,136 +17848,136 @@
       <c r="B5" s="7"/>
       <c r="C5" s="7"/>
       <c r="D5" s="7"/>
-      <c r="E5" s="131" t="str">
+      <c r="E5" s="83" t="str">
         <f>FormTitan!B21</f>
         <v>IQC POW 041224</v>
       </c>
-      <c r="F5" s="131"/>
-      <c r="G5" s="132" t="s">
+      <c r="F5" s="83"/>
+      <c r="G5" s="84" t="s">
         <v>40</v>
       </c>
-      <c r="H5" s="133"/>
+      <c r="H5" s="85"/>
     </row>
     <row r="6" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="134" t="s">
+      <c r="A6" s="86" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="135"/>
-      <c r="C6" s="135"/>
-      <c r="D6" s="135"/>
-      <c r="E6" s="136"/>
+      <c r="B6" s="87"/>
+      <c r="C6" s="87"/>
+      <c r="D6" s="87"/>
+      <c r="E6" s="88"/>
       <c r="F6" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="G6" s="114" t="s">
+      <c r="G6" s="89" t="s">
         <v>9</v>
       </c>
-      <c r="H6" s="117"/>
+      <c r="H6" s="90"/>
     </row>
     <row r="7" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="121" t="s">
+      <c r="A7" s="91" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="122"/>
-      <c r="C7" s="128"/>
-      <c r="D7" s="129"/>
-      <c r="E7" s="130"/>
+      <c r="B7" s="92"/>
+      <c r="C7" s="93"/>
+      <c r="D7" s="94"/>
+      <c r="E7" s="95"/>
       <c r="F7" s="18">
         <f>FormTitan!C3</f>
         <v>0.504</v>
       </c>
-      <c r="G7" s="126">
+      <c r="G7" s="96">
         <f>FormTitan!F3</f>
         <v>50.138000000000005</v>
       </c>
-      <c r="H7" s="127"/>
+      <c r="H7" s="97"/>
     </row>
     <row r="8" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="121" t="s">
+      <c r="A8" s="91" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="122"/>
-      <c r="C8" s="123" t="str">
+      <c r="B8" s="92"/>
+      <c r="C8" s="98" t="str">
         <f>E5</f>
         <v>IQC POW 041224</v>
       </c>
-      <c r="D8" s="124"/>
-      <c r="E8" s="125"/>
+      <c r="D8" s="99"/>
+      <c r="E8" s="100"/>
       <c r="F8" s="18">
         <f>FormTitan!C4</f>
         <v>0.502</v>
       </c>
-      <c r="G8" s="126">
+      <c r="G8" s="96">
         <f>FormTitan!F4</f>
         <v>50.027000000000001</v>
       </c>
-      <c r="H8" s="127"/>
+      <c r="H8" s="97"/>
     </row>
     <row r="9" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="121" t="s">
+      <c r="A9" s="91" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="122"/>
-      <c r="C9" s="128"/>
-      <c r="D9" s="129"/>
-      <c r="E9" s="130"/>
+      <c r="B9" s="92"/>
+      <c r="C9" s="93"/>
+      <c r="D9" s="94"/>
+      <c r="E9" s="95"/>
       <c r="F9" s="18">
         <f>FormTitan!C5</f>
         <v>0.502</v>
       </c>
-      <c r="G9" s="126">
+      <c r="G9" s="96">
         <f>FormTitan!F5</f>
         <v>50.009</v>
       </c>
-      <c r="H9" s="127"/>
+      <c r="H9" s="97"/>
     </row>
     <row r="10" spans="1:8" ht="48.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="106"/>
-      <c r="B10" s="108" t="s">
+      <c r="A10" s="101"/>
+      <c r="B10" s="103" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="109"/>
-      <c r="D10" s="109"/>
-      <c r="E10" s="110"/>
-      <c r="F10" s="114" t="s">
+      <c r="C10" s="104"/>
+      <c r="D10" s="104"/>
+      <c r="E10" s="105"/>
+      <c r="F10" s="89" t="s">
         <v>39</v>
       </c>
-      <c r="G10" s="115"/>
-      <c r="H10" s="116"/>
+      <c r="G10" s="109"/>
+      <c r="H10" s="110"/>
     </row>
     <row r="11" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="107"/>
-      <c r="B11" s="111"/>
-      <c r="C11" s="112"/>
-      <c r="D11" s="112"/>
-      <c r="E11" s="113"/>
+      <c r="A11" s="102"/>
+      <c r="B11" s="106"/>
+      <c r="C11" s="107"/>
+      <c r="D11" s="107"/>
+      <c r="E11" s="108"/>
       <c r="F11" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="G11" s="114" t="s">
+      <c r="G11" s="89" t="s">
         <v>18</v>
       </c>
-      <c r="H11" s="117"/>
+      <c r="H11" s="90"/>
     </row>
     <row r="12" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="118">
+      <c r="B12" s="111">
         <v>2.5</v>
       </c>
-      <c r="C12" s="119"/>
-      <c r="D12" s="119"/>
-      <c r="E12" s="120"/>
+      <c r="C12" s="112"/>
+      <c r="D12" s="112"/>
+      <c r="E12" s="113"/>
       <c r="F12" s="65">
         <f>IF(ISNUMBER(SEARCH("IQC",$D$2)),"NA",($B12/F$8))</f>
         <v>4.9800796812749004</v>
       </c>
-      <c r="G12" s="101">
+      <c r="G12" s="114">
         <f>IF(ISNUMBER(SEARCH("IQC",$D$2)),"NA",($B12/F$9))</f>
         <v>4.9800796812749004</v>
       </c>
-      <c r="H12" s="102" t="e">
+      <c r="H12" s="115" t="e">
         <f t="shared" ref="H12:H15" si="0">IF(ISNUMBER(SEARCH("IQC",$D$2)),"NA",($B12/H$8))</f>
         <v>#DIV/0!</v>
       </c>
@@ -17986,21 +17986,21 @@
       <c r="A13" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="98">
+      <c r="B13" s="116">
         <v>0.25</v>
       </c>
-      <c r="C13" s="99"/>
-      <c r="D13" s="99"/>
-      <c r="E13" s="100"/>
+      <c r="C13" s="117"/>
+      <c r="D13" s="117"/>
+      <c r="E13" s="118"/>
       <c r="F13" s="65">
         <f t="shared" ref="F13:F15" si="1">IF(ISNUMBER(SEARCH("IQC",$D$2)),"NA",(B13/F$8))</f>
         <v>0.49800796812749004</v>
       </c>
-      <c r="G13" s="101">
+      <c r="G13" s="114">
         <f t="shared" ref="G13:G15" si="2">IF(ISNUMBER(SEARCH("IQC",$D$2)),"NA",($B13/F$9))</f>
         <v>0.49800796812749004</v>
       </c>
-      <c r="H13" s="102" t="e">
+      <c r="H13" s="115" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
@@ -18009,21 +18009,21 @@
       <c r="A14" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="103">
+      <c r="B14" s="119">
         <v>5</v>
       </c>
-      <c r="C14" s="104"/>
-      <c r="D14" s="104"/>
-      <c r="E14" s="105"/>
+      <c r="C14" s="120"/>
+      <c r="D14" s="120"/>
+      <c r="E14" s="121"/>
       <c r="F14" s="65">
         <f t="shared" si="1"/>
         <v>9.9601593625498008</v>
       </c>
-      <c r="G14" s="101">
+      <c r="G14" s="114">
         <f t="shared" si="2"/>
         <v>9.9601593625498008</v>
       </c>
-      <c r="H14" s="102" t="e">
+      <c r="H14" s="115" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
@@ -18032,21 +18032,21 @@
       <c r="A15" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="98">
+      <c r="B15" s="116">
         <v>0.15</v>
       </c>
-      <c r="C15" s="99"/>
-      <c r="D15" s="99"/>
-      <c r="E15" s="100"/>
+      <c r="C15" s="117"/>
+      <c r="D15" s="117"/>
+      <c r="E15" s="118"/>
       <c r="F15" s="65">
         <f t="shared" si="1"/>
         <v>0.29880478087649404</v>
       </c>
-      <c r="G15" s="101">
+      <c r="G15" s="114">
         <f t="shared" si="2"/>
         <v>0.29880478087649404</v>
       </c>
-      <c r="H15" s="102" t="e">
+      <c r="H15" s="115" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
@@ -18058,16 +18058,16 @@
       <c r="H16" s="2"/>
     </row>
     <row r="17" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="94" t="s">
+      <c r="A17" s="122" t="s">
         <v>31</v>
       </c>
-      <c r="B17" s="95"/>
-      <c r="C17" s="95"/>
-      <c r="D17" s="95"/>
-      <c r="E17" s="96" t="s">
+      <c r="B17" s="123"/>
+      <c r="C17" s="123"/>
+      <c r="D17" s="123"/>
+      <c r="E17" s="124" t="s">
         <v>29</v>
       </c>
-      <c r="F17" s="97"/>
+      <c r="F17" s="125"/>
       <c r="G17" s="27" t="s">
         <v>74</v>
       </c>
@@ -18077,70 +18077,70 @@
       </c>
     </row>
     <row r="18" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="87" t="s">
+      <c r="A18" s="126" t="s">
         <v>32</v>
       </c>
-      <c r="B18" s="88"/>
-      <c r="C18" s="88"/>
-      <c r="D18" s="88"/>
-      <c r="E18" s="89" t="s">
+      <c r="B18" s="127"/>
+      <c r="C18" s="127"/>
+      <c r="D18" s="127"/>
+      <c r="E18" s="128" t="s">
         <v>29</v>
       </c>
-      <c r="F18" s="89"/>
+      <c r="F18" s="128"/>
       <c r="G18" s="25"/>
       <c r="H18" s="16"/>
     </row>
     <row r="19" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="87" t="s">
+      <c r="A19" s="126" t="s">
         <v>33</v>
       </c>
-      <c r="B19" s="88"/>
-      <c r="C19" s="88"/>
-      <c r="D19" s="88"/>
-      <c r="E19" s="89" t="s">
+      <c r="B19" s="127"/>
+      <c r="C19" s="127"/>
+      <c r="D19" s="127"/>
+      <c r="E19" s="128" t="s">
         <v>73</v>
       </c>
-      <c r="F19" s="89"/>
+      <c r="F19" s="128"/>
       <c r="G19" s="25"/>
       <c r="H19" s="16"/>
     </row>
     <row r="20" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="87" t="s">
+      <c r="A20" s="126" t="s">
         <v>34</v>
       </c>
-      <c r="B20" s="88"/>
-      <c r="C20" s="88"/>
-      <c r="D20" s="88"/>
-      <c r="E20" s="89" t="s">
+      <c r="B20" s="127"/>
+      <c r="C20" s="127"/>
+      <c r="D20" s="127"/>
+      <c r="E20" s="128" t="s">
         <v>29</v>
       </c>
-      <c r="F20" s="89"/>
+      <c r="F20" s="128"/>
       <c r="G20" s="25"/>
       <c r="H20" s="16"/>
     </row>
     <row r="21" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="87" t="s">
+      <c r="A21" s="126" t="s">
         <v>35</v>
       </c>
-      <c r="B21" s="88"/>
-      <c r="C21" s="88"/>
-      <c r="D21" s="88"/>
-      <c r="E21" s="89"/>
-      <c r="F21" s="89"/>
+      <c r="B21" s="127"/>
+      <c r="C21" s="127"/>
+      <c r="D21" s="127"/>
+      <c r="E21" s="128"/>
+      <c r="F21" s="128"/>
       <c r="G21" s="25"/>
       <c r="H21" s="16"/>
     </row>
     <row r="22" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="90" t="s">
+      <c r="A22" s="129" t="s">
         <v>36</v>
       </c>
-      <c r="B22" s="91"/>
-      <c r="C22" s="91"/>
-      <c r="D22" s="91"/>
-      <c r="E22" s="92" t="s">
+      <c r="B22" s="130"/>
+      <c r="C22" s="130"/>
+      <c r="D22" s="130"/>
+      <c r="E22" s="131" t="s">
         <v>30</v>
       </c>
-      <c r="F22" s="93"/>
+      <c r="F22" s="132"/>
       <c r="G22" s="26"/>
       <c r="H22" s="17"/>
     </row>
@@ -18182,79 +18182,114 @@
       <c r="H25" s="11"/>
     </row>
     <row r="26" spans="1:8" ht="60.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="78" t="s">
+      <c r="A26" s="133" t="s">
         <v>19</v>
       </c>
-      <c r="B26" s="79"/>
-      <c r="C26" s="79"/>
-      <c r="D26" s="80" t="s">
+      <c r="B26" s="134"/>
+      <c r="C26" s="134"/>
+      <c r="D26" s="135" t="s">
         <v>15</v>
       </c>
-      <c r="E26" s="80"/>
+      <c r="E26" s="135"/>
       <c r="F26" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="G26" s="80" t="s">
+      <c r="G26" s="135" t="s">
         <v>15</v>
       </c>
-      <c r="H26" s="81"/>
+      <c r="H26" s="136"/>
     </row>
     <row r="27" spans="1:8" ht="60.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="82" t="s">
+      <c r="A27" s="137" t="s">
         <v>20</v>
       </c>
-      <c r="B27" s="83"/>
-      <c r="C27" s="83"/>
-      <c r="D27" s="84" t="s">
+      <c r="B27" s="138"/>
+      <c r="C27" s="138"/>
+      <c r="D27" s="139" t="s">
         <v>15</v>
       </c>
-      <c r="E27" s="84"/>
+      <c r="E27" s="139"/>
       <c r="F27" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="G27" s="85" t="s">
+      <c r="G27" s="140" t="s">
         <v>37</v>
       </c>
-      <c r="H27" s="86"/>
+      <c r="H27" s="141"/>
     </row>
     <row r="28" spans="1:8" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="66" t="s">
+      <c r="A28" s="142" t="s">
         <v>14</v>
       </c>
-      <c r="B28" s="67"/>
-      <c r="C28" s="67"/>
-      <c r="D28" s="67"/>
-      <c r="E28" s="68"/>
-      <c r="F28" s="69" t="s">
+      <c r="B28" s="143"/>
+      <c r="C28" s="143"/>
+      <c r="D28" s="143"/>
+      <c r="E28" s="144"/>
+      <c r="F28" s="145" t="s">
         <v>7</v>
       </c>
-      <c r="G28" s="70"/>
-      <c r="H28" s="71"/>
+      <c r="G28" s="146"/>
+      <c r="H28" s="147"/>
     </row>
     <row r="29" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="72" t="str">
+      <c r="A29" s="148" t="str">
         <f>FormTitan!B19</f>
         <v>IQBAL NORDIYANA</v>
       </c>
-      <c r="B29" s="73"/>
-      <c r="C29" s="73"/>
-      <c r="D29" s="74">
+      <c r="B29" s="149"/>
+      <c r="C29" s="149"/>
+      <c r="D29" s="150">
         <f>FormTitan!B20</f>
         <v>45630</v>
       </c>
-      <c r="E29" s="75"/>
+      <c r="E29" s="151"/>
       <c r="F29" s="3"/>
-      <c r="G29" s="76"/>
-      <c r="H29" s="77"/>
+      <c r="G29" s="152"/>
+      <c r="H29" s="153"/>
     </row>
   </sheetData>
   <mergeCells count="54">
-    <mergeCell ref="F4:H4"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="D2:H2"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="D3:H3"/>
+    <mergeCell ref="A28:E28"/>
+    <mergeCell ref="F28:H28"/>
+    <mergeCell ref="A29:C29"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="A27:C27"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="A20:D20"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="A22:D22"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="A17:D17"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="A18:D18"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="A19:D19"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="B13:E13"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="B14:E14"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="B15:E15"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:E11"/>
+    <mergeCell ref="F10:H10"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="G9:H9"/>
     <mergeCell ref="E5:F5"/>
     <mergeCell ref="G5:H5"/>
     <mergeCell ref="A6:E6"/>
@@ -18262,47 +18297,12 @@
     <mergeCell ref="A7:B7"/>
     <mergeCell ref="C7:E7"/>
     <mergeCell ref="G7:H7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="B10:E11"/>
-    <mergeCell ref="F10:H10"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="B12:E12"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="B13:E13"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="B14:E14"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="B15:E15"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="A17:D17"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="A18:D18"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="A19:D19"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="A20:D20"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="A21:D21"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="A22:D22"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="A26:C26"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="A27:C27"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="A28:E28"/>
-    <mergeCell ref="F28:H28"/>
-    <mergeCell ref="A29:C29"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="F4:H4"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="D2:H2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="D3:H3"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -18495,46 +18495,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="32.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="139" t="s">
+      <c r="A1" s="69" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="140"/>
-      <c r="C1" s="140"/>
-      <c r="D1" s="140"/>
-      <c r="E1" s="140"/>
-      <c r="F1" s="140"/>
-      <c r="G1" s="140"/>
-      <c r="H1" s="141"/>
+      <c r="B1" s="70"/>
+      <c r="C1" s="70"/>
+      <c r="D1" s="70"/>
+      <c r="E1" s="70"/>
+      <c r="F1" s="70"/>
+      <c r="G1" s="70"/>
+      <c r="H1" s="71"/>
     </row>
     <row r="2" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="142" t="s">
+      <c r="A2" s="72" t="s">
         <v>42</v>
       </c>
-      <c r="B2" s="143"/>
-      <c r="C2" s="144"/>
-      <c r="D2" s="145">
+      <c r="B2" s="73"/>
+      <c r="C2" s="74"/>
+      <c r="D2" s="75">
         <f>FormTitan!B16</f>
         <v>0</v>
       </c>
-      <c r="E2" s="145"/>
-      <c r="F2" s="145"/>
-      <c r="G2" s="145"/>
-      <c r="H2" s="146"/>
+      <c r="E2" s="75"/>
+      <c r="F2" s="75"/>
+      <c r="G2" s="75"/>
+      <c r="H2" s="76"/>
     </row>
     <row r="3" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="147" t="s">
+      <c r="A3" s="77" t="s">
         <v>43</v>
       </c>
-      <c r="B3" s="148"/>
-      <c r="C3" s="149"/>
-      <c r="D3" s="150" t="str">
+      <c r="B3" s="78"/>
+      <c r="C3" s="79"/>
+      <c r="D3" s="80" t="str">
         <f>FormTitan!G16</f>
         <v>Sila Pilih</v>
       </c>
-      <c r="E3" s="151"/>
-      <c r="F3" s="151"/>
-      <c r="G3" s="151"/>
-      <c r="H3" s="152"/>
+      <c r="E3" s="81"/>
+      <c r="F3" s="81"/>
+      <c r="G3" s="81"/>
+      <c r="H3" s="82"/>
     </row>
     <row r="4" spans="1:8" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="20" t="s">
@@ -18547,11 +18547,11 @@
         <f>FormTitan!B2</f>
         <v>RB POW 041224</v>
       </c>
-      <c r="F4" s="137" t="s">
+      <c r="F4" s="67" t="s">
         <v>38</v>
       </c>
-      <c r="G4" s="137"/>
-      <c r="H4" s="138"/>
+      <c r="G4" s="67"/>
+      <c r="H4" s="68"/>
     </row>
     <row r="5" spans="1:8" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="34" t="s">
@@ -18560,136 +18560,136 @@
       <c r="B5" s="7"/>
       <c r="C5" s="7"/>
       <c r="D5" s="7"/>
-      <c r="E5" s="131" t="str">
+      <c r="E5" s="83" t="str">
         <f>FormTitan!B21</f>
         <v>IQC POW 041224</v>
       </c>
-      <c r="F5" s="131"/>
-      <c r="G5" s="132" t="s">
+      <c r="F5" s="83"/>
+      <c r="G5" s="84" t="s">
         <v>40</v>
       </c>
-      <c r="H5" s="133"/>
+      <c r="H5" s="85"/>
     </row>
     <row r="6" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="134" t="s">
+      <c r="A6" s="86" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="135"/>
-      <c r="C6" s="135"/>
-      <c r="D6" s="135"/>
-      <c r="E6" s="136"/>
+      <c r="B6" s="87"/>
+      <c r="C6" s="87"/>
+      <c r="D6" s="87"/>
+      <c r="E6" s="88"/>
       <c r="F6" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="G6" s="114" t="s">
+      <c r="G6" s="89" t="s">
         <v>9</v>
       </c>
-      <c r="H6" s="117"/>
+      <c r="H6" s="90"/>
     </row>
     <row r="7" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="121" t="s">
+      <c r="A7" s="91" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="122"/>
-      <c r="C7" s="128"/>
-      <c r="D7" s="129"/>
-      <c r="E7" s="130"/>
+      <c r="B7" s="92"/>
+      <c r="C7" s="93"/>
+      <c r="D7" s="94"/>
+      <c r="E7" s="95"/>
       <c r="F7" s="18">
         <f>FormTitan!C3</f>
         <v>0.504</v>
       </c>
-      <c r="G7" s="126">
+      <c r="G7" s="96">
         <f>FormTitan!F3</f>
         <v>50.138000000000005</v>
       </c>
-      <c r="H7" s="127"/>
+      <c r="H7" s="97"/>
     </row>
     <row r="8" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="121" t="s">
+      <c r="A8" s="91" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="122"/>
-      <c r="C8" s="123" t="str">
+      <c r="B8" s="92"/>
+      <c r="C8" s="98" t="str">
         <f>E5</f>
         <v>IQC POW 041224</v>
       </c>
-      <c r="D8" s="124"/>
-      <c r="E8" s="125"/>
+      <c r="D8" s="99"/>
+      <c r="E8" s="100"/>
       <c r="F8" s="18">
         <f>FormTitan!C4</f>
         <v>0.502</v>
       </c>
-      <c r="G8" s="126">
+      <c r="G8" s="96">
         <f>FormTitan!F4</f>
         <v>50.027000000000001</v>
       </c>
-      <c r="H8" s="127"/>
+      <c r="H8" s="97"/>
     </row>
     <row r="9" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="121" t="s">
+      <c r="A9" s="91" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="122"/>
-      <c r="C9" s="128"/>
-      <c r="D9" s="129"/>
-      <c r="E9" s="130"/>
+      <c r="B9" s="92"/>
+      <c r="C9" s="93"/>
+      <c r="D9" s="94"/>
+      <c r="E9" s="95"/>
       <c r="F9" s="18">
         <f>FormTitan!C5</f>
         <v>0.502</v>
       </c>
-      <c r="G9" s="126">
+      <c r="G9" s="96">
         <f>FormTitan!F5</f>
         <v>50.009</v>
       </c>
-      <c r="H9" s="127"/>
+      <c r="H9" s="97"/>
     </row>
     <row r="10" spans="1:8" ht="48.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="106"/>
-      <c r="B10" s="108" t="s">
+      <c r="A10" s="101"/>
+      <c r="B10" s="103" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="109"/>
-      <c r="D10" s="109"/>
-      <c r="E10" s="110"/>
-      <c r="F10" s="114" t="s">
+      <c r="C10" s="104"/>
+      <c r="D10" s="104"/>
+      <c r="E10" s="105"/>
+      <c r="F10" s="89" t="s">
         <v>39</v>
       </c>
-      <c r="G10" s="115"/>
-      <c r="H10" s="116"/>
+      <c r="G10" s="109"/>
+      <c r="H10" s="110"/>
     </row>
     <row r="11" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="107"/>
-      <c r="B11" s="111"/>
-      <c r="C11" s="112"/>
-      <c r="D11" s="112"/>
-      <c r="E11" s="113"/>
+      <c r="A11" s="102"/>
+      <c r="B11" s="106"/>
+      <c r="C11" s="107"/>
+      <c r="D11" s="107"/>
+      <c r="E11" s="108"/>
       <c r="F11" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="G11" s="114" t="s">
+      <c r="G11" s="89" t="s">
         <v>18</v>
       </c>
-      <c r="H11" s="117"/>
+      <c r="H11" s="90"/>
     </row>
     <row r="12" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="118">
+      <c r="B12" s="111">
         <v>2.5</v>
       </c>
-      <c r="C12" s="119"/>
-      <c r="D12" s="119"/>
-      <c r="E12" s="120"/>
+      <c r="C12" s="112"/>
+      <c r="D12" s="112"/>
+      <c r="E12" s="113"/>
       <c r="F12" s="65">
         <f>IF(ISNUMBER(SEARCH("IQC",$D$2)),"NA",($B12/F$8))</f>
         <v>4.9800796812749004</v>
       </c>
-      <c r="G12" s="101">
+      <c r="G12" s="114">
         <f>IF(ISNUMBER(SEARCH("IQC",$D$2)),"NA",($B12/F$9))</f>
         <v>4.9800796812749004</v>
       </c>
-      <c r="H12" s="102" t="e">
+      <c r="H12" s="115" t="e">
         <f t="shared" ref="H12:H15" si="0">IF(ISNUMBER(SEARCH("IQC",$D$2)),"NA",($B12/H$8))</f>
         <v>#DIV/0!</v>
       </c>
@@ -18698,21 +18698,21 @@
       <c r="A13" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="98">
+      <c r="B13" s="116">
         <v>0.25</v>
       </c>
-      <c r="C13" s="99"/>
-      <c r="D13" s="99"/>
-      <c r="E13" s="100"/>
+      <c r="C13" s="117"/>
+      <c r="D13" s="117"/>
+      <c r="E13" s="118"/>
       <c r="F13" s="65">
         <f t="shared" ref="F13:F15" si="1">IF(ISNUMBER(SEARCH("IQC",$D$2)),"NA",(B13/F$8))</f>
         <v>0.49800796812749004</v>
       </c>
-      <c r="G13" s="101">
+      <c r="G13" s="114">
         <f t="shared" ref="G13:G15" si="2">IF(ISNUMBER(SEARCH("IQC",$D$2)),"NA",($B13/F$9))</f>
         <v>0.49800796812749004</v>
       </c>
-      <c r="H13" s="102" t="e">
+      <c r="H13" s="115" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
@@ -18721,21 +18721,21 @@
       <c r="A14" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="103">
+      <c r="B14" s="119">
         <v>5</v>
       </c>
-      <c r="C14" s="104"/>
-      <c r="D14" s="104"/>
-      <c r="E14" s="105"/>
+      <c r="C14" s="120"/>
+      <c r="D14" s="120"/>
+      <c r="E14" s="121"/>
       <c r="F14" s="65">
         <f t="shared" si="1"/>
         <v>9.9601593625498008</v>
       </c>
-      <c r="G14" s="101">
+      <c r="G14" s="114">
         <f t="shared" si="2"/>
         <v>9.9601593625498008</v>
       </c>
-      <c r="H14" s="102" t="e">
+      <c r="H14" s="115" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
@@ -18744,21 +18744,21 @@
       <c r="A15" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="98">
+      <c r="B15" s="116">
         <v>0.15</v>
       </c>
-      <c r="C15" s="99"/>
-      <c r="D15" s="99"/>
-      <c r="E15" s="100"/>
+      <c r="C15" s="117"/>
+      <c r="D15" s="117"/>
+      <c r="E15" s="118"/>
       <c r="F15" s="65">
         <f t="shared" si="1"/>
         <v>0.29880478087649404</v>
       </c>
-      <c r="G15" s="101">
+      <c r="G15" s="114">
         <f t="shared" si="2"/>
         <v>0.29880478087649404</v>
       </c>
-      <c r="H15" s="102" t="e">
+      <c r="H15" s="115" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
@@ -18770,16 +18770,16 @@
       <c r="H16" s="2"/>
     </row>
     <row r="17" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="94" t="s">
+      <c r="A17" s="122" t="s">
         <v>31</v>
       </c>
-      <c r="B17" s="95"/>
-      <c r="C17" s="95"/>
-      <c r="D17" s="95"/>
-      <c r="E17" s="96" t="s">
+      <c r="B17" s="123"/>
+      <c r="C17" s="123"/>
+      <c r="D17" s="123"/>
+      <c r="E17" s="124" t="s">
         <v>29</v>
       </c>
-      <c r="F17" s="97"/>
+      <c r="F17" s="125"/>
       <c r="G17" s="27" t="s">
         <v>74</v>
       </c>
@@ -18789,70 +18789,70 @@
       </c>
     </row>
     <row r="18" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="87" t="s">
+      <c r="A18" s="126" t="s">
         <v>32</v>
       </c>
-      <c r="B18" s="88"/>
-      <c r="C18" s="88"/>
-      <c r="D18" s="88"/>
-      <c r="E18" s="89" t="s">
+      <c r="B18" s="127"/>
+      <c r="C18" s="127"/>
+      <c r="D18" s="127"/>
+      <c r="E18" s="128" t="s">
         <v>29</v>
       </c>
-      <c r="F18" s="89"/>
+      <c r="F18" s="128"/>
       <c r="G18" s="25"/>
       <c r="H18" s="16"/>
     </row>
     <row r="19" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="87" t="s">
+      <c r="A19" s="126" t="s">
         <v>33</v>
       </c>
-      <c r="B19" s="88"/>
-      <c r="C19" s="88"/>
-      <c r="D19" s="88"/>
-      <c r="E19" s="89" t="s">
+      <c r="B19" s="127"/>
+      <c r="C19" s="127"/>
+      <c r="D19" s="127"/>
+      <c r="E19" s="128" t="s">
         <v>73</v>
       </c>
-      <c r="F19" s="89"/>
+      <c r="F19" s="128"/>
       <c r="G19" s="25"/>
       <c r="H19" s="16"/>
     </row>
     <row r="20" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="87" t="s">
+      <c r="A20" s="126" t="s">
         <v>34</v>
       </c>
-      <c r="B20" s="88"/>
-      <c r="C20" s="88"/>
-      <c r="D20" s="88"/>
-      <c r="E20" s="89" t="s">
+      <c r="B20" s="127"/>
+      <c r="C20" s="127"/>
+      <c r="D20" s="127"/>
+      <c r="E20" s="128" t="s">
         <v>29</v>
       </c>
-      <c r="F20" s="89"/>
+      <c r="F20" s="128"/>
       <c r="G20" s="25"/>
       <c r="H20" s="16"/>
     </row>
     <row r="21" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="87" t="s">
+      <c r="A21" s="126" t="s">
         <v>35</v>
       </c>
-      <c r="B21" s="88"/>
-      <c r="C21" s="88"/>
-      <c r="D21" s="88"/>
-      <c r="E21" s="89"/>
-      <c r="F21" s="89"/>
+      <c r="B21" s="127"/>
+      <c r="C21" s="127"/>
+      <c r="D21" s="127"/>
+      <c r="E21" s="128"/>
+      <c r="F21" s="128"/>
       <c r="G21" s="25"/>
       <c r="H21" s="16"/>
     </row>
     <row r="22" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="90" t="s">
+      <c r="A22" s="129" t="s">
         <v>36</v>
       </c>
-      <c r="B22" s="91"/>
-      <c r="C22" s="91"/>
-      <c r="D22" s="91"/>
-      <c r="E22" s="92" t="s">
+      <c r="B22" s="130"/>
+      <c r="C22" s="130"/>
+      <c r="D22" s="130"/>
+      <c r="E22" s="131" t="s">
         <v>30</v>
       </c>
-      <c r="F22" s="93"/>
+      <c r="F22" s="132"/>
       <c r="G22" s="26"/>
       <c r="H22" s="17"/>
     </row>
@@ -18894,79 +18894,114 @@
       <c r="H25" s="11"/>
     </row>
     <row r="26" spans="1:8" ht="60.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="78" t="s">
+      <c r="A26" s="133" t="s">
         <v>19</v>
       </c>
-      <c r="B26" s="79"/>
-      <c r="C26" s="79"/>
-      <c r="D26" s="80" t="s">
+      <c r="B26" s="134"/>
+      <c r="C26" s="134"/>
+      <c r="D26" s="135" t="s">
         <v>15</v>
       </c>
-      <c r="E26" s="80"/>
+      <c r="E26" s="135"/>
       <c r="F26" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="G26" s="80" t="s">
+      <c r="G26" s="135" t="s">
         <v>15</v>
       </c>
-      <c r="H26" s="81"/>
+      <c r="H26" s="136"/>
     </row>
     <row r="27" spans="1:8" ht="60.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="82" t="s">
+      <c r="A27" s="137" t="s">
         <v>20</v>
       </c>
-      <c r="B27" s="83"/>
-      <c r="C27" s="83"/>
-      <c r="D27" s="84" t="s">
+      <c r="B27" s="138"/>
+      <c r="C27" s="138"/>
+      <c r="D27" s="139" t="s">
         <v>15</v>
       </c>
-      <c r="E27" s="84"/>
+      <c r="E27" s="139"/>
       <c r="F27" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="G27" s="85" t="s">
+      <c r="G27" s="140" t="s">
         <v>37</v>
       </c>
-      <c r="H27" s="86"/>
+      <c r="H27" s="141"/>
     </row>
     <row r="28" spans="1:8" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="66" t="s">
+      <c r="A28" s="142" t="s">
         <v>14</v>
       </c>
-      <c r="B28" s="67"/>
-      <c r="C28" s="67"/>
-      <c r="D28" s="67"/>
-      <c r="E28" s="68"/>
-      <c r="F28" s="69" t="s">
+      <c r="B28" s="143"/>
+      <c r="C28" s="143"/>
+      <c r="D28" s="143"/>
+      <c r="E28" s="144"/>
+      <c r="F28" s="145" t="s">
         <v>7</v>
       </c>
-      <c r="G28" s="70"/>
-      <c r="H28" s="71"/>
+      <c r="G28" s="146"/>
+      <c r="H28" s="147"/>
     </row>
     <row r="29" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="72" t="str">
+      <c r="A29" s="148" t="str">
         <f>FormTitan!B19</f>
         <v>IQBAL NORDIYANA</v>
       </c>
-      <c r="B29" s="73"/>
-      <c r="C29" s="73"/>
-      <c r="D29" s="74">
+      <c r="B29" s="149"/>
+      <c r="C29" s="149"/>
+      <c r="D29" s="150">
         <f>FormTitan!B20</f>
         <v>45630</v>
       </c>
-      <c r="E29" s="75"/>
+      <c r="E29" s="151"/>
       <c r="F29" s="3"/>
-      <c r="G29" s="76"/>
-      <c r="H29" s="77"/>
+      <c r="G29" s="152"/>
+      <c r="H29" s="153"/>
     </row>
   </sheetData>
   <mergeCells count="54">
-    <mergeCell ref="F4:H4"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="D2:H2"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="D3:H3"/>
+    <mergeCell ref="A28:E28"/>
+    <mergeCell ref="F28:H28"/>
+    <mergeCell ref="A29:C29"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="A27:C27"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="A20:D20"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="A22:D22"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="A17:D17"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="A18:D18"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="A19:D19"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="B13:E13"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="B14:E14"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="B15:E15"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:E11"/>
+    <mergeCell ref="F10:H10"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="G9:H9"/>
     <mergeCell ref="E5:F5"/>
     <mergeCell ref="G5:H5"/>
     <mergeCell ref="A6:E6"/>
@@ -18974,47 +19009,12 @@
     <mergeCell ref="A7:B7"/>
     <mergeCell ref="C7:E7"/>
     <mergeCell ref="G7:H7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="B10:E11"/>
-    <mergeCell ref="F10:H10"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="B12:E12"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="B13:E13"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="B14:E14"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="B15:E15"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="A17:D17"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="A18:D18"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="A19:D19"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="A20:D20"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="A21:D21"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="A22:D22"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="A26:C26"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="A27:C27"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="A28:E28"/>
-    <mergeCell ref="F28:H28"/>
-    <mergeCell ref="A29:C29"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="F4:H4"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="D2:H2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="D3:H3"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -19207,46 +19207,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="32.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="139" t="s">
+      <c r="A1" s="69" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="140"/>
-      <c r="C1" s="140"/>
-      <c r="D1" s="140"/>
-      <c r="E1" s="140"/>
-      <c r="F1" s="140"/>
-      <c r="G1" s="140"/>
-      <c r="H1" s="141"/>
+      <c r="B1" s="70"/>
+      <c r="C1" s="70"/>
+      <c r="D1" s="70"/>
+      <c r="E1" s="70"/>
+      <c r="F1" s="70"/>
+      <c r="G1" s="70"/>
+      <c r="H1" s="71"/>
     </row>
     <row r="2" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="142" t="s">
+      <c r="A2" s="72" t="s">
         <v>42</v>
       </c>
-      <c r="B2" s="143"/>
-      <c r="C2" s="144"/>
-      <c r="D2" s="145">
+      <c r="B2" s="73"/>
+      <c r="C2" s="74"/>
+      <c r="D2" s="75">
         <f>FormTitan!B17</f>
         <v>0</v>
       </c>
-      <c r="E2" s="145"/>
-      <c r="F2" s="145"/>
-      <c r="G2" s="145"/>
-      <c r="H2" s="146"/>
+      <c r="E2" s="75"/>
+      <c r="F2" s="75"/>
+      <c r="G2" s="75"/>
+      <c r="H2" s="76"/>
     </row>
     <row r="3" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="147" t="s">
+      <c r="A3" s="77" t="s">
         <v>43</v>
       </c>
-      <c r="B3" s="148"/>
-      <c r="C3" s="149"/>
-      <c r="D3" s="150" t="str">
+      <c r="B3" s="78"/>
+      <c r="C3" s="79"/>
+      <c r="D3" s="80" t="str">
         <f>FormTitan!G17</f>
         <v>Sila Pilih</v>
       </c>
-      <c r="E3" s="151"/>
-      <c r="F3" s="151"/>
-      <c r="G3" s="151"/>
-      <c r="H3" s="152"/>
+      <c r="E3" s="81"/>
+      <c r="F3" s="81"/>
+      <c r="G3" s="81"/>
+      <c r="H3" s="82"/>
     </row>
     <row r="4" spans="1:8" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="20" t="s">
@@ -19259,11 +19259,11 @@
         <f>FormTitan!B2</f>
         <v>RB POW 041224</v>
       </c>
-      <c r="F4" s="137" t="s">
+      <c r="F4" s="67" t="s">
         <v>38</v>
       </c>
-      <c r="G4" s="137"/>
-      <c r="H4" s="138"/>
+      <c r="G4" s="67"/>
+      <c r="H4" s="68"/>
     </row>
     <row r="5" spans="1:8" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="34" t="s">
@@ -19272,136 +19272,136 @@
       <c r="B5" s="7"/>
       <c r="C5" s="7"/>
       <c r="D5" s="7"/>
-      <c r="E5" s="131" t="str">
+      <c r="E5" s="83" t="str">
         <f>FormTitan!B21</f>
         <v>IQC POW 041224</v>
       </c>
-      <c r="F5" s="131"/>
-      <c r="G5" s="132" t="s">
+      <c r="F5" s="83"/>
+      <c r="G5" s="84" t="s">
         <v>40</v>
       </c>
-      <c r="H5" s="133"/>
+      <c r="H5" s="85"/>
     </row>
     <row r="6" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="134" t="s">
+      <c r="A6" s="86" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="135"/>
-      <c r="C6" s="135"/>
-      <c r="D6" s="135"/>
-      <c r="E6" s="136"/>
+      <c r="B6" s="87"/>
+      <c r="C6" s="87"/>
+      <c r="D6" s="87"/>
+      <c r="E6" s="88"/>
       <c r="F6" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="G6" s="114" t="s">
+      <c r="G6" s="89" t="s">
         <v>9</v>
       </c>
-      <c r="H6" s="117"/>
+      <c r="H6" s="90"/>
     </row>
     <row r="7" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="121" t="s">
+      <c r="A7" s="91" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="122"/>
-      <c r="C7" s="128"/>
-      <c r="D7" s="129"/>
-      <c r="E7" s="130"/>
+      <c r="B7" s="92"/>
+      <c r="C7" s="93"/>
+      <c r="D7" s="94"/>
+      <c r="E7" s="95"/>
       <c r="F7" s="18">
         <f>FormTitan!C3</f>
         <v>0.504</v>
       </c>
-      <c r="G7" s="126">
+      <c r="G7" s="96">
         <f>FormTitan!F3</f>
         <v>50.138000000000005</v>
       </c>
-      <c r="H7" s="127"/>
+      <c r="H7" s="97"/>
     </row>
     <row r="8" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="121" t="s">
+      <c r="A8" s="91" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="122"/>
-      <c r="C8" s="123" t="str">
+      <c r="B8" s="92"/>
+      <c r="C8" s="98" t="str">
         <f>E5</f>
         <v>IQC POW 041224</v>
       </c>
-      <c r="D8" s="124"/>
-      <c r="E8" s="125"/>
+      <c r="D8" s="99"/>
+      <c r="E8" s="100"/>
       <c r="F8" s="18">
         <f>FormTitan!C4</f>
         <v>0.502</v>
       </c>
-      <c r="G8" s="126">
+      <c r="G8" s="96">
         <f>FormTitan!F4</f>
         <v>50.027000000000001</v>
       </c>
-      <c r="H8" s="127"/>
+      <c r="H8" s="97"/>
     </row>
     <row r="9" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="121" t="s">
+      <c r="A9" s="91" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="122"/>
-      <c r="C9" s="128"/>
-      <c r="D9" s="129"/>
-      <c r="E9" s="130"/>
+      <c r="B9" s="92"/>
+      <c r="C9" s="93"/>
+      <c r="D9" s="94"/>
+      <c r="E9" s="95"/>
       <c r="F9" s="18">
         <f>FormTitan!C5</f>
         <v>0.502</v>
       </c>
-      <c r="G9" s="126">
+      <c r="G9" s="96">
         <f>FormTitan!F5</f>
         <v>50.009</v>
       </c>
-      <c r="H9" s="127"/>
+      <c r="H9" s="97"/>
     </row>
     <row r="10" spans="1:8" ht="48.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="106"/>
-      <c r="B10" s="108" t="s">
+      <c r="A10" s="101"/>
+      <c r="B10" s="103" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="109"/>
-      <c r="D10" s="109"/>
-      <c r="E10" s="110"/>
-      <c r="F10" s="114" t="s">
+      <c r="C10" s="104"/>
+      <c r="D10" s="104"/>
+      <c r="E10" s="105"/>
+      <c r="F10" s="89" t="s">
         <v>39</v>
       </c>
-      <c r="G10" s="115"/>
-      <c r="H10" s="116"/>
+      <c r="G10" s="109"/>
+      <c r="H10" s="110"/>
     </row>
     <row r="11" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="107"/>
-      <c r="B11" s="111"/>
-      <c r="C11" s="112"/>
-      <c r="D11" s="112"/>
-      <c r="E11" s="113"/>
+      <c r="A11" s="102"/>
+      <c r="B11" s="106"/>
+      <c r="C11" s="107"/>
+      <c r="D11" s="107"/>
+      <c r="E11" s="108"/>
       <c r="F11" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="G11" s="114" t="s">
+      <c r="G11" s="89" t="s">
         <v>18</v>
       </c>
-      <c r="H11" s="117"/>
+      <c r="H11" s="90"/>
     </row>
     <row r="12" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="118">
+      <c r="B12" s="111">
         <v>2.5</v>
       </c>
-      <c r="C12" s="119"/>
-      <c r="D12" s="119"/>
-      <c r="E12" s="120"/>
+      <c r="C12" s="112"/>
+      <c r="D12" s="112"/>
+      <c r="E12" s="113"/>
       <c r="F12" s="65">
         <f>IF(ISNUMBER(SEARCH("IQC",$D$2)),"NA",($B12/F$8))</f>
         <v>4.9800796812749004</v>
       </c>
-      <c r="G12" s="101">
+      <c r="G12" s="114">
         <f>IF(ISNUMBER(SEARCH("IQC",$D$2)),"NA",($B12/F$9))</f>
         <v>4.9800796812749004</v>
       </c>
-      <c r="H12" s="102" t="e">
+      <c r="H12" s="115" t="e">
         <f t="shared" ref="H12:H15" si="0">IF(ISNUMBER(SEARCH("IQC",$D$2)),"NA",($B12/H$8))</f>
         <v>#DIV/0!</v>
       </c>
@@ -19410,21 +19410,21 @@
       <c r="A13" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="98">
+      <c r="B13" s="116">
         <v>0.25</v>
       </c>
-      <c r="C13" s="99"/>
-      <c r="D13" s="99"/>
-      <c r="E13" s="100"/>
+      <c r="C13" s="117"/>
+      <c r="D13" s="117"/>
+      <c r="E13" s="118"/>
       <c r="F13" s="65">
         <f t="shared" ref="F13:F15" si="1">IF(ISNUMBER(SEARCH("IQC",$D$2)),"NA",(B13/F$8))</f>
         <v>0.49800796812749004</v>
       </c>
-      <c r="G13" s="101">
+      <c r="G13" s="114">
         <f t="shared" ref="G13:G15" si="2">IF(ISNUMBER(SEARCH("IQC",$D$2)),"NA",($B13/F$9))</f>
         <v>0.49800796812749004</v>
       </c>
-      <c r="H13" s="102" t="e">
+      <c r="H13" s="115" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
@@ -19433,21 +19433,21 @@
       <c r="A14" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="103">
+      <c r="B14" s="119">
         <v>5</v>
       </c>
-      <c r="C14" s="104"/>
-      <c r="D14" s="104"/>
-      <c r="E14" s="105"/>
+      <c r="C14" s="120"/>
+      <c r="D14" s="120"/>
+      <c r="E14" s="121"/>
       <c r="F14" s="65">
         <f t="shared" si="1"/>
         <v>9.9601593625498008</v>
       </c>
-      <c r="G14" s="101">
+      <c r="G14" s="114">
         <f t="shared" si="2"/>
         <v>9.9601593625498008</v>
       </c>
-      <c r="H14" s="102" t="e">
+      <c r="H14" s="115" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
@@ -19456,21 +19456,21 @@
       <c r="A15" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="98">
+      <c r="B15" s="116">
         <v>0.15</v>
       </c>
-      <c r="C15" s="99"/>
-      <c r="D15" s="99"/>
-      <c r="E15" s="100"/>
+      <c r="C15" s="117"/>
+      <c r="D15" s="117"/>
+      <c r="E15" s="118"/>
       <c r="F15" s="65">
         <f t="shared" si="1"/>
         <v>0.29880478087649404</v>
       </c>
-      <c r="G15" s="101">
+      <c r="G15" s="114">
         <f t="shared" si="2"/>
         <v>0.29880478087649404</v>
       </c>
-      <c r="H15" s="102" t="e">
+      <c r="H15" s="115" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
@@ -19482,16 +19482,16 @@
       <c r="H16" s="2"/>
     </row>
     <row r="17" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="94" t="s">
+      <c r="A17" s="122" t="s">
         <v>31</v>
       </c>
-      <c r="B17" s="95"/>
-      <c r="C17" s="95"/>
-      <c r="D17" s="95"/>
-      <c r="E17" s="96" t="s">
+      <c r="B17" s="123"/>
+      <c r="C17" s="123"/>
+      <c r="D17" s="123"/>
+      <c r="E17" s="124" t="s">
         <v>29</v>
       </c>
-      <c r="F17" s="97"/>
+      <c r="F17" s="125"/>
       <c r="G17" s="27" t="s">
         <v>74</v>
       </c>
@@ -19501,70 +19501,70 @@
       </c>
     </row>
     <row r="18" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="87" t="s">
+      <c r="A18" s="126" t="s">
         <v>32</v>
       </c>
-      <c r="B18" s="88"/>
-      <c r="C18" s="88"/>
-      <c r="D18" s="88"/>
-      <c r="E18" s="89" t="s">
+      <c r="B18" s="127"/>
+      <c r="C18" s="127"/>
+      <c r="D18" s="127"/>
+      <c r="E18" s="128" t="s">
         <v>29</v>
       </c>
-      <c r="F18" s="89"/>
+      <c r="F18" s="128"/>
       <c r="G18" s="25"/>
       <c r="H18" s="16"/>
     </row>
     <row r="19" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="87" t="s">
+      <c r="A19" s="126" t="s">
         <v>33</v>
       </c>
-      <c r="B19" s="88"/>
-      <c r="C19" s="88"/>
-      <c r="D19" s="88"/>
-      <c r="E19" s="89" t="s">
+      <c r="B19" s="127"/>
+      <c r="C19" s="127"/>
+      <c r="D19" s="127"/>
+      <c r="E19" s="128" t="s">
         <v>73</v>
       </c>
-      <c r="F19" s="89"/>
+      <c r="F19" s="128"/>
       <c r="G19" s="25"/>
       <c r="H19" s="16"/>
     </row>
     <row r="20" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="87" t="s">
+      <c r="A20" s="126" t="s">
         <v>34</v>
       </c>
-      <c r="B20" s="88"/>
-      <c r="C20" s="88"/>
-      <c r="D20" s="88"/>
-      <c r="E20" s="89" t="s">
+      <c r="B20" s="127"/>
+      <c r="C20" s="127"/>
+      <c r="D20" s="127"/>
+      <c r="E20" s="128" t="s">
         <v>29</v>
       </c>
-      <c r="F20" s="89"/>
+      <c r="F20" s="128"/>
       <c r="G20" s="25"/>
       <c r="H20" s="16"/>
     </row>
     <row r="21" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="87" t="s">
+      <c r="A21" s="126" t="s">
         <v>35</v>
       </c>
-      <c r="B21" s="88"/>
-      <c r="C21" s="88"/>
-      <c r="D21" s="88"/>
-      <c r="E21" s="89"/>
-      <c r="F21" s="89"/>
+      <c r="B21" s="127"/>
+      <c r="C21" s="127"/>
+      <c r="D21" s="127"/>
+      <c r="E21" s="128"/>
+      <c r="F21" s="128"/>
       <c r="G21" s="25"/>
       <c r="H21" s="16"/>
     </row>
     <row r="22" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="90" t="s">
+      <c r="A22" s="129" t="s">
         <v>36</v>
       </c>
-      <c r="B22" s="91"/>
-      <c r="C22" s="91"/>
-      <c r="D22" s="91"/>
-      <c r="E22" s="92" t="s">
+      <c r="B22" s="130"/>
+      <c r="C22" s="130"/>
+      <c r="D22" s="130"/>
+      <c r="E22" s="131" t="s">
         <v>30</v>
       </c>
-      <c r="F22" s="93"/>
+      <c r="F22" s="132"/>
       <c r="G22" s="26"/>
       <c r="H22" s="17"/>
     </row>
@@ -19606,114 +19606,79 @@
       <c r="H25" s="11"/>
     </row>
     <row r="26" spans="1:8" ht="60.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="78" t="s">
+      <c r="A26" s="133" t="s">
         <v>19</v>
       </c>
-      <c r="B26" s="79"/>
-      <c r="C26" s="79"/>
-      <c r="D26" s="80" t="s">
+      <c r="B26" s="134"/>
+      <c r="C26" s="134"/>
+      <c r="D26" s="135" t="s">
         <v>15</v>
       </c>
-      <c r="E26" s="80"/>
+      <c r="E26" s="135"/>
       <c r="F26" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="G26" s="80" t="s">
+      <c r="G26" s="135" t="s">
         <v>15</v>
       </c>
-      <c r="H26" s="81"/>
+      <c r="H26" s="136"/>
     </row>
     <row r="27" spans="1:8" ht="60.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="82" t="s">
+      <c r="A27" s="137" t="s">
         <v>20</v>
       </c>
-      <c r="B27" s="83"/>
-      <c r="C27" s="83"/>
-      <c r="D27" s="84" t="s">
+      <c r="B27" s="138"/>
+      <c r="C27" s="138"/>
+      <c r="D27" s="139" t="s">
         <v>15</v>
       </c>
-      <c r="E27" s="84"/>
+      <c r="E27" s="139"/>
       <c r="F27" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="G27" s="85" t="s">
+      <c r="G27" s="140" t="s">
         <v>37</v>
       </c>
-      <c r="H27" s="86"/>
+      <c r="H27" s="141"/>
     </row>
     <row r="28" spans="1:8" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="66" t="s">
+      <c r="A28" s="142" t="s">
         <v>14</v>
       </c>
-      <c r="B28" s="67"/>
-      <c r="C28" s="67"/>
-      <c r="D28" s="67"/>
-      <c r="E28" s="68"/>
-      <c r="F28" s="69" t="s">
+      <c r="B28" s="143"/>
+      <c r="C28" s="143"/>
+      <c r="D28" s="143"/>
+      <c r="E28" s="144"/>
+      <c r="F28" s="145" t="s">
         <v>7</v>
       </c>
-      <c r="G28" s="70"/>
-      <c r="H28" s="71"/>
+      <c r="G28" s="146"/>
+      <c r="H28" s="147"/>
     </row>
     <row r="29" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="72" t="str">
+      <c r="A29" s="148" t="str">
         <f>FormTitan!B19</f>
         <v>IQBAL NORDIYANA</v>
       </c>
-      <c r="B29" s="73"/>
-      <c r="C29" s="73"/>
-      <c r="D29" s="74">
+      <c r="B29" s="149"/>
+      <c r="C29" s="149"/>
+      <c r="D29" s="150">
         <f>FormTitan!B20</f>
         <v>45630</v>
       </c>
-      <c r="E29" s="75"/>
+      <c r="E29" s="151"/>
       <c r="F29" s="3"/>
-      <c r="G29" s="76"/>
-      <c r="H29" s="77"/>
+      <c r="G29" s="152"/>
+      <c r="H29" s="153"/>
     </row>
   </sheetData>
   <mergeCells count="54">
-    <mergeCell ref="A28:E28"/>
-    <mergeCell ref="F28:H28"/>
-    <mergeCell ref="A29:C29"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="A26:C26"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="A27:C27"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="A20:D20"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="A21:D21"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="A22:D22"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="A17:D17"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="A18:D18"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="A19:D19"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="B13:E13"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="B14:E14"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="B15:E15"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="B10:E11"/>
-    <mergeCell ref="F10:H10"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="B12:E12"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="F4:H4"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="D2:H2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="D3:H3"/>
     <mergeCell ref="E5:F5"/>
     <mergeCell ref="G5:H5"/>
     <mergeCell ref="A6:E6"/>
@@ -19721,12 +19686,47 @@
     <mergeCell ref="A7:B7"/>
     <mergeCell ref="C7:E7"/>
     <mergeCell ref="G7:H7"/>
-    <mergeCell ref="F4:H4"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="D2:H2"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="D3:H3"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:E11"/>
+    <mergeCell ref="F10:H10"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="B13:E13"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="B14:E14"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="B15:E15"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="A17:D17"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="A18:D18"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="A19:D19"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="A20:D20"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="A22:D22"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="A27:C27"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="A28:E28"/>
+    <mergeCell ref="F28:H28"/>
+    <mergeCell ref="A29:C29"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="G29:H29"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -19919,46 +19919,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="32.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="139" t="s">
+      <c r="A1" s="69" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="140"/>
-      <c r="C1" s="140"/>
-      <c r="D1" s="140"/>
-      <c r="E1" s="140"/>
-      <c r="F1" s="140"/>
-      <c r="G1" s="140"/>
-      <c r="H1" s="141"/>
+      <c r="B1" s="70"/>
+      <c r="C1" s="70"/>
+      <c r="D1" s="70"/>
+      <c r="E1" s="70"/>
+      <c r="F1" s="70"/>
+      <c r="G1" s="70"/>
+      <c r="H1" s="71"/>
     </row>
     <row r="2" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="142" t="s">
+      <c r="A2" s="72" t="s">
         <v>42</v>
       </c>
-      <c r="B2" s="143"/>
-      <c r="C2" s="144"/>
-      <c r="D2" s="145" t="str">
+      <c r="B2" s="73"/>
+      <c r="C2" s="74"/>
+      <c r="D2" s="75" t="str">
         <f>FormTitan!B6</f>
         <v>2024110124</v>
       </c>
-      <c r="E2" s="145"/>
-      <c r="F2" s="145"/>
-      <c r="G2" s="145"/>
-      <c r="H2" s="146"/>
+      <c r="E2" s="75"/>
+      <c r="F2" s="75"/>
+      <c r="G2" s="75"/>
+      <c r="H2" s="76"/>
     </row>
     <row r="3" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="147" t="s">
+      <c r="A3" s="77" t="s">
         <v>43</v>
       </c>
-      <c r="B3" s="148"/>
-      <c r="C3" s="149"/>
-      <c r="D3" s="150" t="str">
+      <c r="B3" s="78"/>
+      <c r="C3" s="79"/>
+      <c r="D3" s="80" t="str">
         <f>FormTitan!G6</f>
         <v>KAPSUL KERAS</v>
       </c>
-      <c r="E3" s="151"/>
-      <c r="F3" s="151"/>
-      <c r="G3" s="151"/>
-      <c r="H3" s="152"/>
+      <c r="E3" s="81"/>
+      <c r="F3" s="81"/>
+      <c r="G3" s="81"/>
+      <c r="H3" s="82"/>
     </row>
     <row r="4" spans="1:8" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="20" t="s">
@@ -19971,11 +19971,11 @@
         <f>FormTitan!B2</f>
         <v>RB POW 041224</v>
       </c>
-      <c r="F4" s="137" t="s">
+      <c r="F4" s="67" t="s">
         <v>38</v>
       </c>
-      <c r="G4" s="137"/>
-      <c r="H4" s="138"/>
+      <c r="G4" s="67"/>
+      <c r="H4" s="68"/>
     </row>
     <row r="5" spans="1:8" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="34" t="s">
@@ -19984,136 +19984,136 @@
       <c r="B5" s="7"/>
       <c r="C5" s="7"/>
       <c r="D5" s="7"/>
-      <c r="E5" s="131" t="str">
+      <c r="E5" s="83" t="str">
         <f>FormTitan!B21</f>
         <v>IQC POW 041224</v>
       </c>
-      <c r="F5" s="131"/>
-      <c r="G5" s="132" t="s">
+      <c r="F5" s="83"/>
+      <c r="G5" s="84" t="s">
         <v>40</v>
       </c>
-      <c r="H5" s="133"/>
+      <c r="H5" s="85"/>
     </row>
     <row r="6" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="134" t="s">
+      <c r="A6" s="86" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="135"/>
-      <c r="C6" s="135"/>
-      <c r="D6" s="135"/>
-      <c r="E6" s="136"/>
+      <c r="B6" s="87"/>
+      <c r="C6" s="87"/>
+      <c r="D6" s="87"/>
+      <c r="E6" s="88"/>
       <c r="F6" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="G6" s="114" t="s">
+      <c r="G6" s="89" t="s">
         <v>9</v>
       </c>
-      <c r="H6" s="117"/>
+      <c r="H6" s="90"/>
     </row>
     <row r="7" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="121" t="s">
+      <c r="A7" s="91" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="122"/>
-      <c r="C7" s="128"/>
-      <c r="D7" s="129"/>
-      <c r="E7" s="130"/>
+      <c r="B7" s="92"/>
+      <c r="C7" s="93"/>
+      <c r="D7" s="94"/>
+      <c r="E7" s="95"/>
       <c r="F7" s="18">
         <f>FormTitan!C3</f>
         <v>0.504</v>
       </c>
-      <c r="G7" s="126">
+      <c r="G7" s="96">
         <f>FormTitan!F3</f>
         <v>50.138000000000005</v>
       </c>
-      <c r="H7" s="127"/>
+      <c r="H7" s="97"/>
     </row>
     <row r="8" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="121" t="s">
+      <c r="A8" s="91" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="122"/>
-      <c r="C8" s="123" t="str">
+      <c r="B8" s="92"/>
+      <c r="C8" s="98" t="str">
         <f>E5</f>
         <v>IQC POW 041224</v>
       </c>
-      <c r="D8" s="124"/>
-      <c r="E8" s="125"/>
+      <c r="D8" s="99"/>
+      <c r="E8" s="100"/>
       <c r="F8" s="18">
         <f>FormTitan!C4</f>
         <v>0.502</v>
       </c>
-      <c r="G8" s="126">
+      <c r="G8" s="96">
         <f>FormTitan!F4</f>
         <v>50.027000000000001</v>
       </c>
-      <c r="H8" s="127"/>
+      <c r="H8" s="97"/>
     </row>
     <row r="9" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="121" t="s">
+      <c r="A9" s="91" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="122"/>
-      <c r="C9" s="128"/>
-      <c r="D9" s="129"/>
-      <c r="E9" s="130"/>
+      <c r="B9" s="92"/>
+      <c r="C9" s="93"/>
+      <c r="D9" s="94"/>
+      <c r="E9" s="95"/>
       <c r="F9" s="18">
         <f>FormTitan!C5</f>
         <v>0.502</v>
       </c>
-      <c r="G9" s="126">
+      <c r="G9" s="96">
         <f>FormTitan!F5</f>
         <v>50.009</v>
       </c>
-      <c r="H9" s="127"/>
+      <c r="H9" s="97"/>
     </row>
     <row r="10" spans="1:8" ht="48.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="106"/>
-      <c r="B10" s="108" t="s">
+      <c r="A10" s="101"/>
+      <c r="B10" s="103" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="109"/>
-      <c r="D10" s="109"/>
-      <c r="E10" s="110"/>
-      <c r="F10" s="114" t="s">
+      <c r="C10" s="104"/>
+      <c r="D10" s="104"/>
+      <c r="E10" s="105"/>
+      <c r="F10" s="89" t="s">
         <v>39</v>
       </c>
-      <c r="G10" s="115"/>
-      <c r="H10" s="116"/>
+      <c r="G10" s="109"/>
+      <c r="H10" s="110"/>
     </row>
     <row r="11" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="107"/>
-      <c r="B11" s="111"/>
-      <c r="C11" s="112"/>
-      <c r="D11" s="112"/>
-      <c r="E11" s="113"/>
+      <c r="A11" s="102"/>
+      <c r="B11" s="106"/>
+      <c r="C11" s="107"/>
+      <c r="D11" s="107"/>
+      <c r="E11" s="108"/>
       <c r="F11" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="G11" s="114" t="s">
+      <c r="G11" s="89" t="s">
         <v>18</v>
       </c>
-      <c r="H11" s="117"/>
+      <c r="H11" s="90"/>
     </row>
     <row r="12" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="118">
+      <c r="B12" s="111">
         <v>2.5</v>
       </c>
-      <c r="C12" s="119"/>
-      <c r="D12" s="119"/>
-      <c r="E12" s="120"/>
+      <c r="C12" s="112"/>
+      <c r="D12" s="112"/>
+      <c r="E12" s="113"/>
       <c r="F12" s="65">
         <f>IF(ISNUMBER(SEARCH("IQC",$D$2)),"NA",($B12/F$8))</f>
         <v>4.9800796812749004</v>
       </c>
-      <c r="G12" s="101">
+      <c r="G12" s="114">
         <f>IF(ISNUMBER(SEARCH("IQC",$D$2)),"NA",($B12/F$9))</f>
         <v>4.9800796812749004</v>
       </c>
-      <c r="H12" s="102" t="e">
+      <c r="H12" s="115" t="e">
         <f t="shared" ref="H12:H15" si="0">IF(ISNUMBER(SEARCH("IQC",$D$2)),"NA",($B12/H$8))</f>
         <v>#DIV/0!</v>
       </c>
@@ -20122,21 +20122,21 @@
       <c r="A13" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="98">
+      <c r="B13" s="116">
         <v>0.25</v>
       </c>
-      <c r="C13" s="99"/>
-      <c r="D13" s="99"/>
-      <c r="E13" s="100"/>
+      <c r="C13" s="117"/>
+      <c r="D13" s="117"/>
+      <c r="E13" s="118"/>
       <c r="F13" s="65">
         <f t="shared" ref="F13:F15" si="1">IF(ISNUMBER(SEARCH("IQC",$D$2)),"NA",(B13/F$8))</f>
         <v>0.49800796812749004</v>
       </c>
-      <c r="G13" s="101">
+      <c r="G13" s="114">
         <f t="shared" ref="G13:G15" si="2">IF(ISNUMBER(SEARCH("IQC",$D$2)),"NA",($B13/F$9))</f>
         <v>0.49800796812749004</v>
       </c>
-      <c r="H13" s="102" t="e">
+      <c r="H13" s="115" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
@@ -20145,21 +20145,21 @@
       <c r="A14" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="103">
+      <c r="B14" s="119">
         <v>5</v>
       </c>
-      <c r="C14" s="104"/>
-      <c r="D14" s="104"/>
-      <c r="E14" s="105"/>
+      <c r="C14" s="120"/>
+      <c r="D14" s="120"/>
+      <c r="E14" s="121"/>
       <c r="F14" s="65">
         <f t="shared" si="1"/>
         <v>9.9601593625498008</v>
       </c>
-      <c r="G14" s="101">
+      <c r="G14" s="114">
         <f t="shared" si="2"/>
         <v>9.9601593625498008</v>
       </c>
-      <c r="H14" s="102" t="e">
+      <c r="H14" s="115" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
@@ -20168,21 +20168,21 @@
       <c r="A15" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="98">
+      <c r="B15" s="116">
         <v>0.15</v>
       </c>
-      <c r="C15" s="99"/>
-      <c r="D15" s="99"/>
-      <c r="E15" s="100"/>
+      <c r="C15" s="117"/>
+      <c r="D15" s="117"/>
+      <c r="E15" s="118"/>
       <c r="F15" s="65">
         <f t="shared" si="1"/>
         <v>0.29880478087649404</v>
       </c>
-      <c r="G15" s="101">
+      <c r="G15" s="114">
         <f t="shared" si="2"/>
         <v>0.29880478087649404</v>
       </c>
-      <c r="H15" s="102" t="e">
+      <c r="H15" s="115" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
@@ -20194,16 +20194,16 @@
       <c r="H16" s="2"/>
     </row>
     <row r="17" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="94" t="s">
+      <c r="A17" s="122" t="s">
         <v>31</v>
       </c>
-      <c r="B17" s="95"/>
-      <c r="C17" s="95"/>
-      <c r="D17" s="95"/>
-      <c r="E17" s="96" t="s">
+      <c r="B17" s="123"/>
+      <c r="C17" s="123"/>
+      <c r="D17" s="123"/>
+      <c r="E17" s="124" t="s">
         <v>29</v>
       </c>
-      <c r="F17" s="97"/>
+      <c r="F17" s="125"/>
       <c r="G17" s="27" t="s">
         <v>74</v>
       </c>
@@ -20213,70 +20213,70 @@
       </c>
     </row>
     <row r="18" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="87" t="s">
+      <c r="A18" s="126" t="s">
         <v>32</v>
       </c>
-      <c r="B18" s="88"/>
-      <c r="C18" s="88"/>
-      <c r="D18" s="88"/>
-      <c r="E18" s="89" t="s">
+      <c r="B18" s="127"/>
+      <c r="C18" s="127"/>
+      <c r="D18" s="127"/>
+      <c r="E18" s="128" t="s">
         <v>29</v>
       </c>
-      <c r="F18" s="89"/>
+      <c r="F18" s="128"/>
       <c r="G18" s="25"/>
       <c r="H18" s="16"/>
     </row>
     <row r="19" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="87" t="s">
+      <c r="A19" s="126" t="s">
         <v>33</v>
       </c>
-      <c r="B19" s="88"/>
-      <c r="C19" s="88"/>
-      <c r="D19" s="88"/>
-      <c r="E19" s="89" t="s">
+      <c r="B19" s="127"/>
+      <c r="C19" s="127"/>
+      <c r="D19" s="127"/>
+      <c r="E19" s="128" t="s">
         <v>73</v>
       </c>
-      <c r="F19" s="89"/>
+      <c r="F19" s="128"/>
       <c r="G19" s="25"/>
       <c r="H19" s="16"/>
     </row>
     <row r="20" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="87" t="s">
+      <c r="A20" s="126" t="s">
         <v>34</v>
       </c>
-      <c r="B20" s="88"/>
-      <c r="C20" s="88"/>
-      <c r="D20" s="88"/>
-      <c r="E20" s="89" t="s">
+      <c r="B20" s="127"/>
+      <c r="C20" s="127"/>
+      <c r="D20" s="127"/>
+      <c r="E20" s="128" t="s">
         <v>29</v>
       </c>
-      <c r="F20" s="89"/>
+      <c r="F20" s="128"/>
       <c r="G20" s="25"/>
       <c r="H20" s="16"/>
     </row>
     <row r="21" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="87" t="s">
+      <c r="A21" s="126" t="s">
         <v>35</v>
       </c>
-      <c r="B21" s="88"/>
-      <c r="C21" s="88"/>
-      <c r="D21" s="88"/>
-      <c r="E21" s="89"/>
-      <c r="F21" s="89"/>
+      <c r="B21" s="127"/>
+      <c r="C21" s="127"/>
+      <c r="D21" s="127"/>
+      <c r="E21" s="128"/>
+      <c r="F21" s="128"/>
       <c r="G21" s="25"/>
       <c r="H21" s="16"/>
     </row>
     <row r="22" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="90" t="s">
+      <c r="A22" s="129" t="s">
         <v>36</v>
       </c>
-      <c r="B22" s="91"/>
-      <c r="C22" s="91"/>
-      <c r="D22" s="91"/>
-      <c r="E22" s="92" t="s">
+      <c r="B22" s="130"/>
+      <c r="C22" s="130"/>
+      <c r="D22" s="130"/>
+      <c r="E22" s="131" t="s">
         <v>30</v>
       </c>
-      <c r="F22" s="93"/>
+      <c r="F22" s="132"/>
       <c r="G22" s="26"/>
       <c r="H22" s="17"/>
     </row>
@@ -20318,79 +20318,114 @@
       <c r="H25" s="11"/>
     </row>
     <row r="26" spans="1:8" ht="60.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="78" t="s">
+      <c r="A26" s="133" t="s">
         <v>19</v>
       </c>
-      <c r="B26" s="79"/>
-      <c r="C26" s="79"/>
-      <c r="D26" s="80" t="s">
+      <c r="B26" s="134"/>
+      <c r="C26" s="134"/>
+      <c r="D26" s="135" t="s">
         <v>15</v>
       </c>
-      <c r="E26" s="80"/>
+      <c r="E26" s="135"/>
       <c r="F26" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="G26" s="80" t="s">
+      <c r="G26" s="135" t="s">
         <v>15</v>
       </c>
-      <c r="H26" s="81"/>
+      <c r="H26" s="136"/>
     </row>
     <row r="27" spans="1:8" ht="60.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="82" t="s">
+      <c r="A27" s="137" t="s">
         <v>20</v>
       </c>
-      <c r="B27" s="83"/>
-      <c r="C27" s="83"/>
-      <c r="D27" s="84" t="s">
+      <c r="B27" s="138"/>
+      <c r="C27" s="138"/>
+      <c r="D27" s="139" t="s">
         <v>15</v>
       </c>
-      <c r="E27" s="84"/>
+      <c r="E27" s="139"/>
       <c r="F27" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="G27" s="85" t="s">
+      <c r="G27" s="140" t="s">
         <v>37</v>
       </c>
-      <c r="H27" s="86"/>
+      <c r="H27" s="141"/>
     </row>
     <row r="28" spans="1:8" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="66" t="s">
+      <c r="A28" s="142" t="s">
         <v>14</v>
       </c>
-      <c r="B28" s="67"/>
-      <c r="C28" s="67"/>
-      <c r="D28" s="67"/>
-      <c r="E28" s="68"/>
-      <c r="F28" s="69" t="s">
+      <c r="B28" s="143"/>
+      <c r="C28" s="143"/>
+      <c r="D28" s="143"/>
+      <c r="E28" s="144"/>
+      <c r="F28" s="145" t="s">
         <v>7</v>
       </c>
-      <c r="G28" s="70"/>
-      <c r="H28" s="71"/>
+      <c r="G28" s="146"/>
+      <c r="H28" s="147"/>
     </row>
     <row r="29" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="72" t="str">
+      <c r="A29" s="148" t="str">
         <f>FormTitan!B19</f>
         <v>IQBAL NORDIYANA</v>
       </c>
-      <c r="B29" s="73"/>
-      <c r="C29" s="73"/>
-      <c r="D29" s="74">
+      <c r="B29" s="149"/>
+      <c r="C29" s="149"/>
+      <c r="D29" s="150">
         <f>FormTitan!B20</f>
         <v>45630</v>
       </c>
-      <c r="E29" s="75"/>
+      <c r="E29" s="151"/>
       <c r="F29" s="3"/>
-      <c r="G29" s="76"/>
-      <c r="H29" s="77"/>
+      <c r="G29" s="152"/>
+      <c r="H29" s="153"/>
     </row>
   </sheetData>
   <mergeCells count="54">
-    <mergeCell ref="F4:H4"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="D2:H2"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="D3:H3"/>
+    <mergeCell ref="A28:E28"/>
+    <mergeCell ref="F28:H28"/>
+    <mergeCell ref="A29:C29"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="A27:C27"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="A20:D20"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="A22:D22"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="A17:D17"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="A18:D18"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="A19:D19"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="B13:E13"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="B14:E14"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="B15:E15"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:E11"/>
+    <mergeCell ref="F10:H10"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="G9:H9"/>
     <mergeCell ref="E5:F5"/>
     <mergeCell ref="G5:H5"/>
     <mergeCell ref="A6:E6"/>
@@ -20398,47 +20433,12 @@
     <mergeCell ref="A7:B7"/>
     <mergeCell ref="C7:E7"/>
     <mergeCell ref="G7:H7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="B10:E11"/>
-    <mergeCell ref="F10:H10"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="B12:E12"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="B13:E13"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="B14:E14"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="B15:E15"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="A17:D17"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="A18:D18"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="A19:D19"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="A20:D20"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="A21:D21"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="A22:D22"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="A26:C26"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="A27:C27"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="A28:E28"/>
-    <mergeCell ref="F28:H28"/>
-    <mergeCell ref="A29:C29"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="F4:H4"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="D2:H2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="D3:H3"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -20631,46 +20631,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="32.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="139" t="s">
+      <c r="A1" s="69" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="140"/>
-      <c r="C1" s="140"/>
-      <c r="D1" s="140"/>
-      <c r="E1" s="140"/>
-      <c r="F1" s="140"/>
-      <c r="G1" s="140"/>
-      <c r="H1" s="141"/>
+      <c r="B1" s="70"/>
+      <c r="C1" s="70"/>
+      <c r="D1" s="70"/>
+      <c r="E1" s="70"/>
+      <c r="F1" s="70"/>
+      <c r="G1" s="70"/>
+      <c r="H1" s="71"/>
     </row>
     <row r="2" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="142" t="s">
+      <c r="A2" s="72" t="s">
         <v>42</v>
       </c>
-      <c r="B2" s="143"/>
-      <c r="C2" s="144"/>
-      <c r="D2" s="145" t="str">
+      <c r="B2" s="73"/>
+      <c r="C2" s="74"/>
+      <c r="D2" s="75" t="str">
         <f>FormTitan!B7</f>
         <v>2024110125</v>
       </c>
-      <c r="E2" s="145"/>
-      <c r="F2" s="145"/>
-      <c r="G2" s="145"/>
-      <c r="H2" s="146"/>
+      <c r="E2" s="75"/>
+      <c r="F2" s="75"/>
+      <c r="G2" s="75"/>
+      <c r="H2" s="76"/>
     </row>
     <row r="3" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="147" t="s">
+      <c r="A3" s="77" t="s">
         <v>43</v>
       </c>
-      <c r="B3" s="148"/>
-      <c r="C3" s="149"/>
-      <c r="D3" s="150" t="str">
+      <c r="B3" s="78"/>
+      <c r="C3" s="79"/>
+      <c r="D3" s="80" t="str">
         <f>FormTitan!G7</f>
         <v>KAPSUL KERAS</v>
       </c>
-      <c r="E3" s="151"/>
-      <c r="F3" s="151"/>
-      <c r="G3" s="151"/>
-      <c r="H3" s="152"/>
+      <c r="E3" s="81"/>
+      <c r="F3" s="81"/>
+      <c r="G3" s="81"/>
+      <c r="H3" s="82"/>
     </row>
     <row r="4" spans="1:8" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="20" t="s">
@@ -20683,11 +20683,11 @@
         <f>FormTitan!B2</f>
         <v>RB POW 041224</v>
       </c>
-      <c r="F4" s="137" t="s">
+      <c r="F4" s="67" t="s">
         <v>38</v>
       </c>
-      <c r="G4" s="137"/>
-      <c r="H4" s="138"/>
+      <c r="G4" s="67"/>
+      <c r="H4" s="68"/>
     </row>
     <row r="5" spans="1:8" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="34" t="s">
@@ -20696,136 +20696,136 @@
       <c r="B5" s="7"/>
       <c r="C5" s="7"/>
       <c r="D5" s="7"/>
-      <c r="E5" s="131" t="str">
+      <c r="E5" s="83" t="str">
         <f>FormTitan!B21</f>
         <v>IQC POW 041224</v>
       </c>
-      <c r="F5" s="131"/>
-      <c r="G5" s="132" t="s">
+      <c r="F5" s="83"/>
+      <c r="G5" s="84" t="s">
         <v>40</v>
       </c>
-      <c r="H5" s="133"/>
+      <c r="H5" s="85"/>
     </row>
     <row r="6" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="134" t="s">
+      <c r="A6" s="86" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="135"/>
-      <c r="C6" s="135"/>
-      <c r="D6" s="135"/>
-      <c r="E6" s="136"/>
+      <c r="B6" s="87"/>
+      <c r="C6" s="87"/>
+      <c r="D6" s="87"/>
+      <c r="E6" s="88"/>
       <c r="F6" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="G6" s="114" t="s">
+      <c r="G6" s="89" t="s">
         <v>9</v>
       </c>
-      <c r="H6" s="117"/>
+      <c r="H6" s="90"/>
     </row>
     <row r="7" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="121" t="s">
+      <c r="A7" s="91" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="122"/>
-      <c r="C7" s="128"/>
-      <c r="D7" s="129"/>
-      <c r="E7" s="130"/>
+      <c r="B7" s="92"/>
+      <c r="C7" s="93"/>
+      <c r="D7" s="94"/>
+      <c r="E7" s="95"/>
       <c r="F7" s="18">
         <f>FormTitan!C3</f>
         <v>0.504</v>
       </c>
-      <c r="G7" s="126">
+      <c r="G7" s="96">
         <f>FormTitan!F3</f>
         <v>50.138000000000005</v>
       </c>
-      <c r="H7" s="127"/>
+      <c r="H7" s="97"/>
     </row>
     <row r="8" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="121" t="s">
+      <c r="A8" s="91" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="122"/>
-      <c r="C8" s="123" t="str">
+      <c r="B8" s="92"/>
+      <c r="C8" s="98" t="str">
         <f>E5</f>
         <v>IQC POW 041224</v>
       </c>
-      <c r="D8" s="124"/>
-      <c r="E8" s="125"/>
+      <c r="D8" s="99"/>
+      <c r="E8" s="100"/>
       <c r="F8" s="18">
         <f>FormTitan!C4</f>
         <v>0.502</v>
       </c>
-      <c r="G8" s="126">
+      <c r="G8" s="96">
         <f>FormTitan!F4</f>
         <v>50.027000000000001</v>
       </c>
-      <c r="H8" s="127"/>
+      <c r="H8" s="97"/>
     </row>
     <row r="9" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="121" t="s">
+      <c r="A9" s="91" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="122"/>
-      <c r="C9" s="128"/>
-      <c r="D9" s="129"/>
-      <c r="E9" s="130"/>
+      <c r="B9" s="92"/>
+      <c r="C9" s="93"/>
+      <c r="D9" s="94"/>
+      <c r="E9" s="95"/>
       <c r="F9" s="18">
         <f>FormTitan!C5</f>
         <v>0.502</v>
       </c>
-      <c r="G9" s="126">
+      <c r="G9" s="96">
         <f>FormTitan!F5</f>
         <v>50.009</v>
       </c>
-      <c r="H9" s="127"/>
+      <c r="H9" s="97"/>
     </row>
     <row r="10" spans="1:8" ht="48.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="106"/>
-      <c r="B10" s="108" t="s">
+      <c r="A10" s="101"/>
+      <c r="B10" s="103" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="109"/>
-      <c r="D10" s="109"/>
-      <c r="E10" s="110"/>
-      <c r="F10" s="114" t="s">
+      <c r="C10" s="104"/>
+      <c r="D10" s="104"/>
+      <c r="E10" s="105"/>
+      <c r="F10" s="89" t="s">
         <v>39</v>
       </c>
-      <c r="G10" s="115"/>
-      <c r="H10" s="116"/>
+      <c r="G10" s="109"/>
+      <c r="H10" s="110"/>
     </row>
     <row r="11" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="107"/>
-      <c r="B11" s="111"/>
-      <c r="C11" s="112"/>
-      <c r="D11" s="112"/>
-      <c r="E11" s="113"/>
+      <c r="A11" s="102"/>
+      <c r="B11" s="106"/>
+      <c r="C11" s="107"/>
+      <c r="D11" s="107"/>
+      <c r="E11" s="108"/>
       <c r="F11" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="G11" s="114" t="s">
+      <c r="G11" s="89" t="s">
         <v>18</v>
       </c>
-      <c r="H11" s="117"/>
+      <c r="H11" s="90"/>
     </row>
     <row r="12" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="118">
+      <c r="B12" s="111">
         <v>2.5</v>
       </c>
-      <c r="C12" s="119"/>
-      <c r="D12" s="119"/>
-      <c r="E12" s="120"/>
+      <c r="C12" s="112"/>
+      <c r="D12" s="112"/>
+      <c r="E12" s="113"/>
       <c r="F12" s="65">
         <f>IF(ISNUMBER(SEARCH("IQC",$D$2)),"NA",($B12/F$8))</f>
         <v>4.9800796812749004</v>
       </c>
-      <c r="G12" s="101">
+      <c r="G12" s="114">
         <f>IF(ISNUMBER(SEARCH("IQC",$D$2)),"NA",($B12/F$9))</f>
         <v>4.9800796812749004</v>
       </c>
-      <c r="H12" s="102" t="e">
+      <c r="H12" s="115" t="e">
         <f t="shared" ref="H12:H15" si="0">IF(ISNUMBER(SEARCH("IQC",$D$2)),"NA",($B12/H$8))</f>
         <v>#DIV/0!</v>
       </c>
@@ -20834,21 +20834,21 @@
       <c r="A13" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="98">
+      <c r="B13" s="116">
         <v>0.25</v>
       </c>
-      <c r="C13" s="99"/>
-      <c r="D13" s="99"/>
-      <c r="E13" s="100"/>
+      <c r="C13" s="117"/>
+      <c r="D13" s="117"/>
+      <c r="E13" s="118"/>
       <c r="F13" s="65">
         <f t="shared" ref="F13:F15" si="1">IF(ISNUMBER(SEARCH("IQC",$D$2)),"NA",(B13/F$8))</f>
         <v>0.49800796812749004</v>
       </c>
-      <c r="G13" s="101">
+      <c r="G13" s="114">
         <f t="shared" ref="G13:G15" si="2">IF(ISNUMBER(SEARCH("IQC",$D$2)),"NA",($B13/F$9))</f>
         <v>0.49800796812749004</v>
       </c>
-      <c r="H13" s="102" t="e">
+      <c r="H13" s="115" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
@@ -20857,21 +20857,21 @@
       <c r="A14" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="103">
+      <c r="B14" s="119">
         <v>5</v>
       </c>
-      <c r="C14" s="104"/>
-      <c r="D14" s="104"/>
-      <c r="E14" s="105"/>
+      <c r="C14" s="120"/>
+      <c r="D14" s="120"/>
+      <c r="E14" s="121"/>
       <c r="F14" s="65">
         <f t="shared" si="1"/>
         <v>9.9601593625498008</v>
       </c>
-      <c r="G14" s="101">
+      <c r="G14" s="114">
         <f t="shared" si="2"/>
         <v>9.9601593625498008</v>
       </c>
-      <c r="H14" s="102" t="e">
+      <c r="H14" s="115" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
@@ -20880,21 +20880,21 @@
       <c r="A15" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="98">
+      <c r="B15" s="116">
         <v>0.15</v>
       </c>
-      <c r="C15" s="99"/>
-      <c r="D15" s="99"/>
-      <c r="E15" s="100"/>
+      <c r="C15" s="117"/>
+      <c r="D15" s="117"/>
+      <c r="E15" s="118"/>
       <c r="F15" s="65">
         <f t="shared" si="1"/>
         <v>0.29880478087649404</v>
       </c>
-      <c r="G15" s="101">
+      <c r="G15" s="114">
         <f t="shared" si="2"/>
         <v>0.29880478087649404</v>
       </c>
-      <c r="H15" s="102" t="e">
+      <c r="H15" s="115" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
@@ -20906,16 +20906,16 @@
       <c r="H16" s="2"/>
     </row>
     <row r="17" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="94" t="s">
+      <c r="A17" s="122" t="s">
         <v>31</v>
       </c>
-      <c r="B17" s="95"/>
-      <c r="C17" s="95"/>
-      <c r="D17" s="95"/>
-      <c r="E17" s="96" t="s">
+      <c r="B17" s="123"/>
+      <c r="C17" s="123"/>
+      <c r="D17" s="123"/>
+      <c r="E17" s="124" t="s">
         <v>29</v>
       </c>
-      <c r="F17" s="97"/>
+      <c r="F17" s="125"/>
       <c r="G17" s="27" t="s">
         <v>74</v>
       </c>
@@ -20925,70 +20925,70 @@
       </c>
     </row>
     <row r="18" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="87" t="s">
+      <c r="A18" s="126" t="s">
         <v>32</v>
       </c>
-      <c r="B18" s="88"/>
-      <c r="C18" s="88"/>
-      <c r="D18" s="88"/>
-      <c r="E18" s="89" t="s">
+      <c r="B18" s="127"/>
+      <c r="C18" s="127"/>
+      <c r="D18" s="127"/>
+      <c r="E18" s="128" t="s">
         <v>29</v>
       </c>
-      <c r="F18" s="89"/>
+      <c r="F18" s="128"/>
       <c r="G18" s="25"/>
       <c r="H18" s="16"/>
     </row>
     <row r="19" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="87" t="s">
+      <c r="A19" s="126" t="s">
         <v>33</v>
       </c>
-      <c r="B19" s="88"/>
-      <c r="C19" s="88"/>
-      <c r="D19" s="88"/>
-      <c r="E19" s="89" t="s">
+      <c r="B19" s="127"/>
+      <c r="C19" s="127"/>
+      <c r="D19" s="127"/>
+      <c r="E19" s="128" t="s">
         <v>73</v>
       </c>
-      <c r="F19" s="89"/>
+      <c r="F19" s="128"/>
       <c r="G19" s="25"/>
       <c r="H19" s="16"/>
     </row>
     <row r="20" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="87" t="s">
+      <c r="A20" s="126" t="s">
         <v>34</v>
       </c>
-      <c r="B20" s="88"/>
-      <c r="C20" s="88"/>
-      <c r="D20" s="88"/>
-      <c r="E20" s="89" t="s">
+      <c r="B20" s="127"/>
+      <c r="C20" s="127"/>
+      <c r="D20" s="127"/>
+      <c r="E20" s="128" t="s">
         <v>29</v>
       </c>
-      <c r="F20" s="89"/>
+      <c r="F20" s="128"/>
       <c r="G20" s="25"/>
       <c r="H20" s="16"/>
     </row>
     <row r="21" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="87" t="s">
+      <c r="A21" s="126" t="s">
         <v>35</v>
       </c>
-      <c r="B21" s="88"/>
-      <c r="C21" s="88"/>
-      <c r="D21" s="88"/>
-      <c r="E21" s="89"/>
-      <c r="F21" s="89"/>
+      <c r="B21" s="127"/>
+      <c r="C21" s="127"/>
+      <c r="D21" s="127"/>
+      <c r="E21" s="128"/>
+      <c r="F21" s="128"/>
       <c r="G21" s="25"/>
       <c r="H21" s="16"/>
     </row>
     <row r="22" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="90" t="s">
+      <c r="A22" s="129" t="s">
         <v>36</v>
       </c>
-      <c r="B22" s="91"/>
-      <c r="C22" s="91"/>
-      <c r="D22" s="91"/>
-      <c r="E22" s="92" t="s">
+      <c r="B22" s="130"/>
+      <c r="C22" s="130"/>
+      <c r="D22" s="130"/>
+      <c r="E22" s="131" t="s">
         <v>30</v>
       </c>
-      <c r="F22" s="93"/>
+      <c r="F22" s="132"/>
       <c r="G22" s="26"/>
       <c r="H22" s="17"/>
     </row>
@@ -21030,79 +21030,114 @@
       <c r="H25" s="11"/>
     </row>
     <row r="26" spans="1:8" ht="60.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="78" t="s">
+      <c r="A26" s="133" t="s">
         <v>19</v>
       </c>
-      <c r="B26" s="79"/>
-      <c r="C26" s="79"/>
-      <c r="D26" s="80" t="s">
+      <c r="B26" s="134"/>
+      <c r="C26" s="134"/>
+      <c r="D26" s="135" t="s">
         <v>15</v>
       </c>
-      <c r="E26" s="80"/>
+      <c r="E26" s="135"/>
       <c r="F26" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="G26" s="80" t="s">
+      <c r="G26" s="135" t="s">
         <v>15</v>
       </c>
-      <c r="H26" s="81"/>
+      <c r="H26" s="136"/>
     </row>
     <row r="27" spans="1:8" ht="60.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="82" t="s">
+      <c r="A27" s="137" t="s">
         <v>20</v>
       </c>
-      <c r="B27" s="83"/>
-      <c r="C27" s="83"/>
-      <c r="D27" s="84" t="s">
+      <c r="B27" s="138"/>
+      <c r="C27" s="138"/>
+      <c r="D27" s="139" t="s">
         <v>15</v>
       </c>
-      <c r="E27" s="84"/>
+      <c r="E27" s="139"/>
       <c r="F27" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="G27" s="85" t="s">
+      <c r="G27" s="140" t="s">
         <v>37</v>
       </c>
-      <c r="H27" s="86"/>
+      <c r="H27" s="141"/>
     </row>
     <row r="28" spans="1:8" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="66" t="s">
+      <c r="A28" s="142" t="s">
         <v>14</v>
       </c>
-      <c r="B28" s="67"/>
-      <c r="C28" s="67"/>
-      <c r="D28" s="67"/>
-      <c r="E28" s="68"/>
-      <c r="F28" s="69" t="s">
+      <c r="B28" s="143"/>
+      <c r="C28" s="143"/>
+      <c r="D28" s="143"/>
+      <c r="E28" s="144"/>
+      <c r="F28" s="145" t="s">
         <v>7</v>
       </c>
-      <c r="G28" s="70"/>
-      <c r="H28" s="71"/>
+      <c r="G28" s="146"/>
+      <c r="H28" s="147"/>
     </row>
     <row r="29" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="72" t="str">
+      <c r="A29" s="148" t="str">
         <f>FormTitan!B19</f>
         <v>IQBAL NORDIYANA</v>
       </c>
-      <c r="B29" s="73"/>
-      <c r="C29" s="73"/>
-      <c r="D29" s="74">
+      <c r="B29" s="149"/>
+      <c r="C29" s="149"/>
+      <c r="D29" s="150">
         <f>FormTitan!B20</f>
         <v>45630</v>
       </c>
-      <c r="E29" s="75"/>
+      <c r="E29" s="151"/>
       <c r="F29" s="3"/>
-      <c r="G29" s="76"/>
-      <c r="H29" s="77"/>
+      <c r="G29" s="152"/>
+      <c r="H29" s="153"/>
     </row>
   </sheetData>
   <mergeCells count="54">
-    <mergeCell ref="F4:H4"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="D2:H2"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="D3:H3"/>
+    <mergeCell ref="A28:E28"/>
+    <mergeCell ref="F28:H28"/>
+    <mergeCell ref="A29:C29"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="A27:C27"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="A20:D20"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="A22:D22"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="A17:D17"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="A18:D18"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="A19:D19"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="B13:E13"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="B14:E14"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="B15:E15"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:E11"/>
+    <mergeCell ref="F10:H10"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="G9:H9"/>
     <mergeCell ref="E5:F5"/>
     <mergeCell ref="G5:H5"/>
     <mergeCell ref="A6:E6"/>
@@ -21110,47 +21145,12 @@
     <mergeCell ref="A7:B7"/>
     <mergeCell ref="C7:E7"/>
     <mergeCell ref="G7:H7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="B10:E11"/>
-    <mergeCell ref="F10:H10"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="B12:E12"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="B13:E13"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="B14:E14"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="B15:E15"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="A17:D17"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="A18:D18"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="A19:D19"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="A20:D20"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="A21:D21"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="A22:D22"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="A26:C26"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="A27:C27"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="A28:E28"/>
-    <mergeCell ref="F28:H28"/>
-    <mergeCell ref="A29:C29"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="F4:H4"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="D2:H2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="D3:H3"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -21343,46 +21343,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="32.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="139" t="s">
+      <c r="A1" s="69" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="140"/>
-      <c r="C1" s="140"/>
-      <c r="D1" s="140"/>
-      <c r="E1" s="140"/>
-      <c r="F1" s="140"/>
-      <c r="G1" s="140"/>
-      <c r="H1" s="141"/>
+      <c r="B1" s="70"/>
+      <c r="C1" s="70"/>
+      <c r="D1" s="70"/>
+      <c r="E1" s="70"/>
+      <c r="F1" s="70"/>
+      <c r="G1" s="70"/>
+      <c r="H1" s="71"/>
     </row>
     <row r="2" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="142" t="s">
+      <c r="A2" s="72" t="s">
         <v>42</v>
       </c>
-      <c r="B2" s="143"/>
-      <c r="C2" s="144"/>
-      <c r="D2" s="145" t="str">
+      <c r="B2" s="73"/>
+      <c r="C2" s="74"/>
+      <c r="D2" s="75" t="str">
         <f>FormTitan!B8</f>
         <v>2024110126</v>
       </c>
-      <c r="E2" s="145"/>
-      <c r="F2" s="145"/>
-      <c r="G2" s="145"/>
-      <c r="H2" s="146"/>
+      <c r="E2" s="75"/>
+      <c r="F2" s="75"/>
+      <c r="G2" s="75"/>
+      <c r="H2" s="76"/>
     </row>
     <row r="3" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="147" t="s">
+      <c r="A3" s="77" t="s">
         <v>43</v>
       </c>
-      <c r="B3" s="148"/>
-      <c r="C3" s="149"/>
-      <c r="D3" s="150" t="str">
+      <c r="B3" s="78"/>
+      <c r="C3" s="79"/>
+      <c r="D3" s="80" t="str">
         <f>FormTitan!G8</f>
         <v>KAPSUL KERAS</v>
       </c>
-      <c r="E3" s="151"/>
-      <c r="F3" s="151"/>
-      <c r="G3" s="151"/>
-      <c r="H3" s="152"/>
+      <c r="E3" s="81"/>
+      <c r="F3" s="81"/>
+      <c r="G3" s="81"/>
+      <c r="H3" s="82"/>
     </row>
     <row r="4" spans="1:8" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="20" t="s">
@@ -21395,11 +21395,11 @@
         <f>FormTitan!B2</f>
         <v>RB POW 041224</v>
       </c>
-      <c r="F4" s="137" t="s">
+      <c r="F4" s="67" t="s">
         <v>38</v>
       </c>
-      <c r="G4" s="137"/>
-      <c r="H4" s="138"/>
+      <c r="G4" s="67"/>
+      <c r="H4" s="68"/>
     </row>
     <row r="5" spans="1:8" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="34" t="s">
@@ -21408,136 +21408,136 @@
       <c r="B5" s="7"/>
       <c r="C5" s="7"/>
       <c r="D5" s="7"/>
-      <c r="E5" s="131" t="str">
+      <c r="E5" s="83" t="str">
         <f>FormTitan!B21</f>
         <v>IQC POW 041224</v>
       </c>
-      <c r="F5" s="131"/>
-      <c r="G5" s="132" t="s">
+      <c r="F5" s="83"/>
+      <c r="G5" s="84" t="s">
         <v>40</v>
       </c>
-      <c r="H5" s="133"/>
+      <c r="H5" s="85"/>
     </row>
     <row r="6" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="134" t="s">
+      <c r="A6" s="86" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="135"/>
-      <c r="C6" s="135"/>
-      <c r="D6" s="135"/>
-      <c r="E6" s="136"/>
+      <c r="B6" s="87"/>
+      <c r="C6" s="87"/>
+      <c r="D6" s="87"/>
+      <c r="E6" s="88"/>
       <c r="F6" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="G6" s="114" t="s">
+      <c r="G6" s="89" t="s">
         <v>9</v>
       </c>
-      <c r="H6" s="117"/>
+      <c r="H6" s="90"/>
     </row>
     <row r="7" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="121" t="s">
+      <c r="A7" s="91" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="122"/>
-      <c r="C7" s="128"/>
-      <c r="D7" s="129"/>
-      <c r="E7" s="130"/>
+      <c r="B7" s="92"/>
+      <c r="C7" s="93"/>
+      <c r="D7" s="94"/>
+      <c r="E7" s="95"/>
       <c r="F7" s="18">
         <f>FormTitan!C3</f>
         <v>0.504</v>
       </c>
-      <c r="G7" s="126">
+      <c r="G7" s="96">
         <f>FormTitan!F3</f>
         <v>50.138000000000005</v>
       </c>
-      <c r="H7" s="127"/>
+      <c r="H7" s="97"/>
     </row>
     <row r="8" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="121" t="s">
+      <c r="A8" s="91" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="122"/>
-      <c r="C8" s="123" t="str">
+      <c r="B8" s="92"/>
+      <c r="C8" s="98" t="str">
         <f>E5</f>
         <v>IQC POW 041224</v>
       </c>
-      <c r="D8" s="124"/>
-      <c r="E8" s="125"/>
+      <c r="D8" s="99"/>
+      <c r="E8" s="100"/>
       <c r="F8" s="18">
         <f>FormTitan!C4</f>
         <v>0.502</v>
       </c>
-      <c r="G8" s="126">
+      <c r="G8" s="96">
         <f>FormTitan!F4</f>
         <v>50.027000000000001</v>
       </c>
-      <c r="H8" s="127"/>
+      <c r="H8" s="97"/>
     </row>
     <row r="9" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="121" t="s">
+      <c r="A9" s="91" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="122"/>
-      <c r="C9" s="128"/>
-      <c r="D9" s="129"/>
-      <c r="E9" s="130"/>
+      <c r="B9" s="92"/>
+      <c r="C9" s="93"/>
+      <c r="D9" s="94"/>
+      <c r="E9" s="95"/>
       <c r="F9" s="18">
         <f>FormTitan!C5</f>
         <v>0.502</v>
       </c>
-      <c r="G9" s="126">
+      <c r="G9" s="96">
         <f>FormTitan!F5</f>
         <v>50.009</v>
       </c>
-      <c r="H9" s="127"/>
+      <c r="H9" s="97"/>
     </row>
     <row r="10" spans="1:8" ht="48.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="106"/>
-      <c r="B10" s="108" t="s">
+      <c r="A10" s="101"/>
+      <c r="B10" s="103" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="109"/>
-      <c r="D10" s="109"/>
-      <c r="E10" s="110"/>
-      <c r="F10" s="114" t="s">
+      <c r="C10" s="104"/>
+      <c r="D10" s="104"/>
+      <c r="E10" s="105"/>
+      <c r="F10" s="89" t="s">
         <v>39</v>
       </c>
-      <c r="G10" s="115"/>
-      <c r="H10" s="116"/>
+      <c r="G10" s="109"/>
+      <c r="H10" s="110"/>
     </row>
     <row r="11" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="107"/>
-      <c r="B11" s="111"/>
-      <c r="C11" s="112"/>
-      <c r="D11" s="112"/>
-      <c r="E11" s="113"/>
+      <c r="A11" s="102"/>
+      <c r="B11" s="106"/>
+      <c r="C11" s="107"/>
+      <c r="D11" s="107"/>
+      <c r="E11" s="108"/>
       <c r="F11" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="G11" s="114" t="s">
+      <c r="G11" s="89" t="s">
         <v>18</v>
       </c>
-      <c r="H11" s="117"/>
+      <c r="H11" s="90"/>
     </row>
     <row r="12" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="118">
+      <c r="B12" s="111">
         <v>2.5</v>
       </c>
-      <c r="C12" s="119"/>
-      <c r="D12" s="119"/>
-      <c r="E12" s="120"/>
+      <c r="C12" s="112"/>
+      <c r="D12" s="112"/>
+      <c r="E12" s="113"/>
       <c r="F12" s="65">
         <f>IF(ISNUMBER(SEARCH("IQC",$D$2)),"NA",($B12/F$8))</f>
         <v>4.9800796812749004</v>
       </c>
-      <c r="G12" s="101">
+      <c r="G12" s="114">
         <f>IF(ISNUMBER(SEARCH("IQC",$D$2)),"NA",($B12/F$9))</f>
         <v>4.9800796812749004</v>
       </c>
-      <c r="H12" s="102" t="e">
+      <c r="H12" s="115" t="e">
         <f t="shared" ref="H12:H15" si="0">IF(ISNUMBER(SEARCH("IQC",$D$2)),"NA",($B12/H$8))</f>
         <v>#DIV/0!</v>
       </c>
@@ -21546,21 +21546,21 @@
       <c r="A13" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="98">
+      <c r="B13" s="116">
         <v>0.25</v>
       </c>
-      <c r="C13" s="99"/>
-      <c r="D13" s="99"/>
-      <c r="E13" s="100"/>
+      <c r="C13" s="117"/>
+      <c r="D13" s="117"/>
+      <c r="E13" s="118"/>
       <c r="F13" s="65">
         <f t="shared" ref="F13:F15" si="1">IF(ISNUMBER(SEARCH("IQC",$D$2)),"NA",(B13/F$8))</f>
         <v>0.49800796812749004</v>
       </c>
-      <c r="G13" s="101">
+      <c r="G13" s="114">
         <f t="shared" ref="G13:G15" si="2">IF(ISNUMBER(SEARCH("IQC",$D$2)),"NA",($B13/F$9))</f>
         <v>0.49800796812749004</v>
       </c>
-      <c r="H13" s="102" t="e">
+      <c r="H13" s="115" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
@@ -21569,21 +21569,21 @@
       <c r="A14" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="103">
+      <c r="B14" s="119">
         <v>5</v>
       </c>
-      <c r="C14" s="104"/>
-      <c r="D14" s="104"/>
-      <c r="E14" s="105"/>
+      <c r="C14" s="120"/>
+      <c r="D14" s="120"/>
+      <c r="E14" s="121"/>
       <c r="F14" s="65">
         <f t="shared" si="1"/>
         <v>9.9601593625498008</v>
       </c>
-      <c r="G14" s="101">
+      <c r="G14" s="114">
         <f t="shared" si="2"/>
         <v>9.9601593625498008</v>
       </c>
-      <c r="H14" s="102" t="e">
+      <c r="H14" s="115" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
@@ -21592,21 +21592,21 @@
       <c r="A15" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="98">
+      <c r="B15" s="116">
         <v>0.15</v>
       </c>
-      <c r="C15" s="99"/>
-      <c r="D15" s="99"/>
-      <c r="E15" s="100"/>
+      <c r="C15" s="117"/>
+      <c r="D15" s="117"/>
+      <c r="E15" s="118"/>
       <c r="F15" s="65">
         <f t="shared" si="1"/>
         <v>0.29880478087649404</v>
       </c>
-      <c r="G15" s="101">
+      <c r="G15" s="114">
         <f t="shared" si="2"/>
         <v>0.29880478087649404</v>
       </c>
-      <c r="H15" s="102" t="e">
+      <c r="H15" s="115" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
@@ -21618,16 +21618,16 @@
       <c r="H16" s="2"/>
     </row>
     <row r="17" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="94" t="s">
+      <c r="A17" s="122" t="s">
         <v>31</v>
       </c>
-      <c r="B17" s="95"/>
-      <c r="C17" s="95"/>
-      <c r="D17" s="95"/>
-      <c r="E17" s="96" t="s">
+      <c r="B17" s="123"/>
+      <c r="C17" s="123"/>
+      <c r="D17" s="123"/>
+      <c r="E17" s="124" t="s">
         <v>29</v>
       </c>
-      <c r="F17" s="97"/>
+      <c r="F17" s="125"/>
       <c r="G17" s="27" t="s">
         <v>74</v>
       </c>
@@ -21637,70 +21637,70 @@
       </c>
     </row>
     <row r="18" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="87" t="s">
+      <c r="A18" s="126" t="s">
         <v>32</v>
       </c>
-      <c r="B18" s="88"/>
-      <c r="C18" s="88"/>
-      <c r="D18" s="88"/>
-      <c r="E18" s="89" t="s">
+      <c r="B18" s="127"/>
+      <c r="C18" s="127"/>
+      <c r="D18" s="127"/>
+      <c r="E18" s="128" t="s">
         <v>29</v>
       </c>
-      <c r="F18" s="89"/>
+      <c r="F18" s="128"/>
       <c r="G18" s="25"/>
       <c r="H18" s="16"/>
     </row>
     <row r="19" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="87" t="s">
+      <c r="A19" s="126" t="s">
         <v>33</v>
       </c>
-      <c r="B19" s="88"/>
-      <c r="C19" s="88"/>
-      <c r="D19" s="88"/>
-      <c r="E19" s="89" t="s">
+      <c r="B19" s="127"/>
+      <c r="C19" s="127"/>
+      <c r="D19" s="127"/>
+      <c r="E19" s="128" t="s">
         <v>73</v>
       </c>
-      <c r="F19" s="89"/>
+      <c r="F19" s="128"/>
       <c r="G19" s="25"/>
       <c r="H19" s="16"/>
     </row>
     <row r="20" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="87" t="s">
+      <c r="A20" s="126" t="s">
         <v>34</v>
       </c>
-      <c r="B20" s="88"/>
-      <c r="C20" s="88"/>
-      <c r="D20" s="88"/>
-      <c r="E20" s="89" t="s">
+      <c r="B20" s="127"/>
+      <c r="C20" s="127"/>
+      <c r="D20" s="127"/>
+      <c r="E20" s="128" t="s">
         <v>29</v>
       </c>
-      <c r="F20" s="89"/>
+      <c r="F20" s="128"/>
       <c r="G20" s="25"/>
       <c r="H20" s="16"/>
     </row>
     <row r="21" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="87" t="s">
+      <c r="A21" s="126" t="s">
         <v>35</v>
       </c>
-      <c r="B21" s="88"/>
-      <c r="C21" s="88"/>
-      <c r="D21" s="88"/>
-      <c r="E21" s="89"/>
-      <c r="F21" s="89"/>
+      <c r="B21" s="127"/>
+      <c r="C21" s="127"/>
+      <c r="D21" s="127"/>
+      <c r="E21" s="128"/>
+      <c r="F21" s="128"/>
       <c r="G21" s="25"/>
       <c r="H21" s="16"/>
     </row>
     <row r="22" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="90" t="s">
+      <c r="A22" s="129" t="s">
         <v>36</v>
       </c>
-      <c r="B22" s="91"/>
-      <c r="C22" s="91"/>
-      <c r="D22" s="91"/>
-      <c r="E22" s="92" t="s">
+      <c r="B22" s="130"/>
+      <c r="C22" s="130"/>
+      <c r="D22" s="130"/>
+      <c r="E22" s="131" t="s">
         <v>30</v>
       </c>
-      <c r="F22" s="93"/>
+      <c r="F22" s="132"/>
       <c r="G22" s="26"/>
       <c r="H22" s="17"/>
     </row>
@@ -21742,79 +21742,114 @@
       <c r="H25" s="11"/>
     </row>
     <row r="26" spans="1:8" ht="60.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="78" t="s">
+      <c r="A26" s="133" t="s">
         <v>19</v>
       </c>
-      <c r="B26" s="79"/>
-      <c r="C26" s="79"/>
-      <c r="D26" s="80" t="s">
+      <c r="B26" s="134"/>
+      <c r="C26" s="134"/>
+      <c r="D26" s="135" t="s">
         <v>15</v>
       </c>
-      <c r="E26" s="80"/>
+      <c r="E26" s="135"/>
       <c r="F26" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="G26" s="80" t="s">
+      <c r="G26" s="135" t="s">
         <v>15</v>
       </c>
-      <c r="H26" s="81"/>
+      <c r="H26" s="136"/>
     </row>
     <row r="27" spans="1:8" ht="60.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="82" t="s">
+      <c r="A27" s="137" t="s">
         <v>20</v>
       </c>
-      <c r="B27" s="83"/>
-      <c r="C27" s="83"/>
-      <c r="D27" s="84" t="s">
+      <c r="B27" s="138"/>
+      <c r="C27" s="138"/>
+      <c r="D27" s="139" t="s">
         <v>15</v>
       </c>
-      <c r="E27" s="84"/>
+      <c r="E27" s="139"/>
       <c r="F27" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="G27" s="85" t="s">
+      <c r="G27" s="140" t="s">
         <v>37</v>
       </c>
-      <c r="H27" s="86"/>
+      <c r="H27" s="141"/>
     </row>
     <row r="28" spans="1:8" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="66" t="s">
+      <c r="A28" s="142" t="s">
         <v>14</v>
       </c>
-      <c r="B28" s="67"/>
-      <c r="C28" s="67"/>
-      <c r="D28" s="67"/>
-      <c r="E28" s="68"/>
-      <c r="F28" s="69" t="s">
+      <c r="B28" s="143"/>
+      <c r="C28" s="143"/>
+      <c r="D28" s="143"/>
+      <c r="E28" s="144"/>
+      <c r="F28" s="145" t="s">
         <v>7</v>
       </c>
-      <c r="G28" s="70"/>
-      <c r="H28" s="71"/>
+      <c r="G28" s="146"/>
+      <c r="H28" s="147"/>
     </row>
     <row r="29" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="72" t="str">
+      <c r="A29" s="148" t="str">
         <f>FormTitan!B19</f>
         <v>IQBAL NORDIYANA</v>
       </c>
-      <c r="B29" s="73"/>
-      <c r="C29" s="73"/>
-      <c r="D29" s="74">
+      <c r="B29" s="149"/>
+      <c r="C29" s="149"/>
+      <c r="D29" s="150">
         <f>FormTitan!B20</f>
         <v>45630</v>
       </c>
-      <c r="E29" s="75"/>
+      <c r="E29" s="151"/>
       <c r="F29" s="3"/>
-      <c r="G29" s="76"/>
-      <c r="H29" s="77"/>
+      <c r="G29" s="152"/>
+      <c r="H29" s="153"/>
     </row>
   </sheetData>
   <mergeCells count="54">
-    <mergeCell ref="F4:H4"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="D2:H2"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="D3:H3"/>
+    <mergeCell ref="A28:E28"/>
+    <mergeCell ref="F28:H28"/>
+    <mergeCell ref="A29:C29"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="A27:C27"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="A20:D20"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="A22:D22"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="A17:D17"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="A18:D18"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="A19:D19"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="B13:E13"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="B14:E14"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="B15:E15"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:E11"/>
+    <mergeCell ref="F10:H10"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="G9:H9"/>
     <mergeCell ref="E5:F5"/>
     <mergeCell ref="G5:H5"/>
     <mergeCell ref="A6:E6"/>
@@ -21822,47 +21857,12 @@
     <mergeCell ref="A7:B7"/>
     <mergeCell ref="C7:E7"/>
     <mergeCell ref="G7:H7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="B10:E11"/>
-    <mergeCell ref="F10:H10"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="B12:E12"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="B13:E13"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="B14:E14"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="B15:E15"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="A17:D17"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="A18:D18"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="A19:D19"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="A20:D20"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="A21:D21"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="A22:D22"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="A26:C26"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="A27:C27"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="A28:E28"/>
-    <mergeCell ref="F28:H28"/>
-    <mergeCell ref="A29:C29"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="F4:H4"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="D2:H2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="D3:H3"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -22055,46 +22055,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="32.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="139" t="s">
+      <c r="A1" s="69" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="140"/>
-      <c r="C1" s="140"/>
-      <c r="D1" s="140"/>
-      <c r="E1" s="140"/>
-      <c r="F1" s="140"/>
-      <c r="G1" s="140"/>
-      <c r="H1" s="141"/>
+      <c r="B1" s="70"/>
+      <c r="C1" s="70"/>
+      <c r="D1" s="70"/>
+      <c r="E1" s="70"/>
+      <c r="F1" s="70"/>
+      <c r="G1" s="70"/>
+      <c r="H1" s="71"/>
     </row>
     <row r="2" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="142" t="s">
+      <c r="A2" s="72" t="s">
         <v>42</v>
       </c>
-      <c r="B2" s="143"/>
-      <c r="C2" s="144"/>
-      <c r="D2" s="145" t="str">
+      <c r="B2" s="73"/>
+      <c r="C2" s="74"/>
+      <c r="D2" s="75" t="str">
         <f>FormTitan!B9</f>
         <v>2024110127</v>
       </c>
-      <c r="E2" s="145"/>
-      <c r="F2" s="145"/>
-      <c r="G2" s="145"/>
-      <c r="H2" s="146"/>
+      <c r="E2" s="75"/>
+      <c r="F2" s="75"/>
+      <c r="G2" s="75"/>
+      <c r="H2" s="76"/>
     </row>
     <row r="3" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="147" t="s">
+      <c r="A3" s="77" t="s">
         <v>43</v>
       </c>
-      <c r="B3" s="148"/>
-      <c r="C3" s="149"/>
-      <c r="D3" s="150" t="str">
+      <c r="B3" s="78"/>
+      <c r="C3" s="79"/>
+      <c r="D3" s="80" t="str">
         <f>FormTitan!G9</f>
         <v>TABLET</v>
       </c>
-      <c r="E3" s="151"/>
-      <c r="F3" s="151"/>
-      <c r="G3" s="151"/>
-      <c r="H3" s="152"/>
+      <c r="E3" s="81"/>
+      <c r="F3" s="81"/>
+      <c r="G3" s="81"/>
+      <c r="H3" s="82"/>
     </row>
     <row r="4" spans="1:8" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="20" t="s">
@@ -22107,11 +22107,11 @@
         <f>FormTitan!B2</f>
         <v>RB POW 041224</v>
       </c>
-      <c r="F4" s="137" t="s">
+      <c r="F4" s="67" t="s">
         <v>38</v>
       </c>
-      <c r="G4" s="137"/>
-      <c r="H4" s="138"/>
+      <c r="G4" s="67"/>
+      <c r="H4" s="68"/>
     </row>
     <row r="5" spans="1:8" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="34" t="s">
@@ -22120,136 +22120,136 @@
       <c r="B5" s="7"/>
       <c r="C5" s="7"/>
       <c r="D5" s="7"/>
-      <c r="E5" s="131" t="str">
+      <c r="E5" s="83" t="str">
         <f>FormTitan!B21</f>
         <v>IQC POW 041224</v>
       </c>
-      <c r="F5" s="131"/>
-      <c r="G5" s="132" t="s">
+      <c r="F5" s="83"/>
+      <c r="G5" s="84" t="s">
         <v>40</v>
       </c>
-      <c r="H5" s="133"/>
+      <c r="H5" s="85"/>
     </row>
     <row r="6" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="134" t="s">
+      <c r="A6" s="86" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="135"/>
-      <c r="C6" s="135"/>
-      <c r="D6" s="135"/>
-      <c r="E6" s="136"/>
+      <c r="B6" s="87"/>
+      <c r="C6" s="87"/>
+      <c r="D6" s="87"/>
+      <c r="E6" s="88"/>
       <c r="F6" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="G6" s="114" t="s">
+      <c r="G6" s="89" t="s">
         <v>9</v>
       </c>
-      <c r="H6" s="117"/>
+      <c r="H6" s="90"/>
     </row>
     <row r="7" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="121" t="s">
+      <c r="A7" s="91" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="122"/>
-      <c r="C7" s="128"/>
-      <c r="D7" s="129"/>
-      <c r="E7" s="130"/>
+      <c r="B7" s="92"/>
+      <c r="C7" s="93"/>
+      <c r="D7" s="94"/>
+      <c r="E7" s="95"/>
       <c r="F7" s="18">
         <f>FormTitan!C3</f>
         <v>0.504</v>
       </c>
-      <c r="G7" s="126">
+      <c r="G7" s="96">
         <f>FormTitan!F3</f>
         <v>50.138000000000005</v>
       </c>
-      <c r="H7" s="127"/>
+      <c r="H7" s="97"/>
     </row>
     <row r="8" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="121" t="s">
+      <c r="A8" s="91" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="122"/>
-      <c r="C8" s="123" t="str">
+      <c r="B8" s="92"/>
+      <c r="C8" s="98" t="str">
         <f>E5</f>
         <v>IQC POW 041224</v>
       </c>
-      <c r="D8" s="124"/>
-      <c r="E8" s="125"/>
+      <c r="D8" s="99"/>
+      <c r="E8" s="100"/>
       <c r="F8" s="18">
         <f>FormTitan!C4</f>
         <v>0.502</v>
       </c>
-      <c r="G8" s="126">
+      <c r="G8" s="96">
         <f>FormTitan!F4</f>
         <v>50.027000000000001</v>
       </c>
-      <c r="H8" s="127"/>
+      <c r="H8" s="97"/>
     </row>
     <row r="9" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="121" t="s">
+      <c r="A9" s="91" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="122"/>
-      <c r="C9" s="128"/>
-      <c r="D9" s="129"/>
-      <c r="E9" s="130"/>
+      <c r="B9" s="92"/>
+      <c r="C9" s="93"/>
+      <c r="D9" s="94"/>
+      <c r="E9" s="95"/>
       <c r="F9" s="18">
         <f>FormTitan!C5</f>
         <v>0.502</v>
       </c>
-      <c r="G9" s="126">
+      <c r="G9" s="96">
         <f>FormTitan!F5</f>
         <v>50.009</v>
       </c>
-      <c r="H9" s="127"/>
+      <c r="H9" s="97"/>
     </row>
     <row r="10" spans="1:8" ht="48.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="106"/>
-      <c r="B10" s="108" t="s">
+      <c r="A10" s="101"/>
+      <c r="B10" s="103" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="109"/>
-      <c r="D10" s="109"/>
-      <c r="E10" s="110"/>
-      <c r="F10" s="114" t="s">
+      <c r="C10" s="104"/>
+      <c r="D10" s="104"/>
+      <c r="E10" s="105"/>
+      <c r="F10" s="89" t="s">
         <v>39</v>
       </c>
-      <c r="G10" s="115"/>
-      <c r="H10" s="116"/>
+      <c r="G10" s="109"/>
+      <c r="H10" s="110"/>
     </row>
     <row r="11" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="107"/>
-      <c r="B11" s="111"/>
-      <c r="C11" s="112"/>
-      <c r="D11" s="112"/>
-      <c r="E11" s="113"/>
+      <c r="A11" s="102"/>
+      <c r="B11" s="106"/>
+      <c r="C11" s="107"/>
+      <c r="D11" s="107"/>
+      <c r="E11" s="108"/>
       <c r="F11" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="G11" s="114" t="s">
+      <c r="G11" s="89" t="s">
         <v>18</v>
       </c>
-      <c r="H11" s="117"/>
+      <c r="H11" s="90"/>
     </row>
     <row r="12" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="118">
+      <c r="B12" s="111">
         <v>2.5</v>
       </c>
-      <c r="C12" s="119"/>
-      <c r="D12" s="119"/>
-      <c r="E12" s="120"/>
+      <c r="C12" s="112"/>
+      <c r="D12" s="112"/>
+      <c r="E12" s="113"/>
       <c r="F12" s="65">
         <f>IF(ISNUMBER(SEARCH("IQC",$D$2)),"NA",($B12/F$8))</f>
         <v>4.9800796812749004</v>
       </c>
-      <c r="G12" s="101">
+      <c r="G12" s="114">
         <f>IF(ISNUMBER(SEARCH("IQC",$D$2)),"NA",($B12/F$9))</f>
         <v>4.9800796812749004</v>
       </c>
-      <c r="H12" s="102" t="e">
+      <c r="H12" s="115" t="e">
         <f t="shared" ref="H12:H15" si="0">IF(ISNUMBER(SEARCH("IQC",$D$2)),"NA",($B12/H$8))</f>
         <v>#DIV/0!</v>
       </c>
@@ -22258,21 +22258,21 @@
       <c r="A13" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="98">
+      <c r="B13" s="116">
         <v>0.25</v>
       </c>
-      <c r="C13" s="99"/>
-      <c r="D13" s="99"/>
-      <c r="E13" s="100"/>
+      <c r="C13" s="117"/>
+      <c r="D13" s="117"/>
+      <c r="E13" s="118"/>
       <c r="F13" s="65">
         <f t="shared" ref="F13:F15" si="1">IF(ISNUMBER(SEARCH("IQC",$D$2)),"NA",(B13/F$8))</f>
         <v>0.49800796812749004</v>
       </c>
-      <c r="G13" s="101">
+      <c r="G13" s="114">
         <f t="shared" ref="G13:G15" si="2">IF(ISNUMBER(SEARCH("IQC",$D$2)),"NA",($B13/F$9))</f>
         <v>0.49800796812749004</v>
       </c>
-      <c r="H13" s="102" t="e">
+      <c r="H13" s="115" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
@@ -22281,21 +22281,21 @@
       <c r="A14" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="103">
+      <c r="B14" s="119">
         <v>5</v>
       </c>
-      <c r="C14" s="104"/>
-      <c r="D14" s="104"/>
-      <c r="E14" s="105"/>
+      <c r="C14" s="120"/>
+      <c r="D14" s="120"/>
+      <c r="E14" s="121"/>
       <c r="F14" s="65">
         <f t="shared" si="1"/>
         <v>9.9601593625498008</v>
       </c>
-      <c r="G14" s="101">
+      <c r="G14" s="114">
         <f t="shared" si="2"/>
         <v>9.9601593625498008</v>
       </c>
-      <c r="H14" s="102" t="e">
+      <c r="H14" s="115" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
@@ -22304,21 +22304,21 @@
       <c r="A15" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="98">
+      <c r="B15" s="116">
         <v>0.15</v>
       </c>
-      <c r="C15" s="99"/>
-      <c r="D15" s="99"/>
-      <c r="E15" s="100"/>
+      <c r="C15" s="117"/>
+      <c r="D15" s="117"/>
+      <c r="E15" s="118"/>
       <c r="F15" s="65">
         <f t="shared" si="1"/>
         <v>0.29880478087649404</v>
       </c>
-      <c r="G15" s="101">
+      <c r="G15" s="114">
         <f t="shared" si="2"/>
         <v>0.29880478087649404</v>
       </c>
-      <c r="H15" s="102" t="e">
+      <c r="H15" s="115" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
@@ -22330,16 +22330,16 @@
       <c r="H16" s="2"/>
     </row>
     <row r="17" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="94" t="s">
+      <c r="A17" s="122" t="s">
         <v>31</v>
       </c>
-      <c r="B17" s="95"/>
-      <c r="C17" s="95"/>
-      <c r="D17" s="95"/>
-      <c r="E17" s="96" t="s">
+      <c r="B17" s="123"/>
+      <c r="C17" s="123"/>
+      <c r="D17" s="123"/>
+      <c r="E17" s="124" t="s">
         <v>29</v>
       </c>
-      <c r="F17" s="97"/>
+      <c r="F17" s="125"/>
       <c r="G17" s="27" t="s">
         <v>74</v>
       </c>
@@ -22349,70 +22349,70 @@
       </c>
     </row>
     <row r="18" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="87" t="s">
+      <c r="A18" s="126" t="s">
         <v>32</v>
       </c>
-      <c r="B18" s="88"/>
-      <c r="C18" s="88"/>
-      <c r="D18" s="88"/>
-      <c r="E18" s="89" t="s">
+      <c r="B18" s="127"/>
+      <c r="C18" s="127"/>
+      <c r="D18" s="127"/>
+      <c r="E18" s="128" t="s">
         <v>29</v>
       </c>
-      <c r="F18" s="89"/>
+      <c r="F18" s="128"/>
       <c r="G18" s="25"/>
       <c r="H18" s="16"/>
     </row>
     <row r="19" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="87" t="s">
+      <c r="A19" s="126" t="s">
         <v>33</v>
       </c>
-      <c r="B19" s="88"/>
-      <c r="C19" s="88"/>
-      <c r="D19" s="88"/>
-      <c r="E19" s="89" t="s">
+      <c r="B19" s="127"/>
+      <c r="C19" s="127"/>
+      <c r="D19" s="127"/>
+      <c r="E19" s="128" t="s">
         <v>73</v>
       </c>
-      <c r="F19" s="89"/>
+      <c r="F19" s="128"/>
       <c r="G19" s="25"/>
       <c r="H19" s="16"/>
     </row>
     <row r="20" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="87" t="s">
+      <c r="A20" s="126" t="s">
         <v>34</v>
       </c>
-      <c r="B20" s="88"/>
-      <c r="C20" s="88"/>
-      <c r="D20" s="88"/>
-      <c r="E20" s="89" t="s">
+      <c r="B20" s="127"/>
+      <c r="C20" s="127"/>
+      <c r="D20" s="127"/>
+      <c r="E20" s="128" t="s">
         <v>29</v>
       </c>
-      <c r="F20" s="89"/>
+      <c r="F20" s="128"/>
       <c r="G20" s="25"/>
       <c r="H20" s="16"/>
     </row>
     <row r="21" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="87" t="s">
+      <c r="A21" s="126" t="s">
         <v>35</v>
       </c>
-      <c r="B21" s="88"/>
-      <c r="C21" s="88"/>
-      <c r="D21" s="88"/>
-      <c r="E21" s="89"/>
-      <c r="F21" s="89"/>
+      <c r="B21" s="127"/>
+      <c r="C21" s="127"/>
+      <c r="D21" s="127"/>
+      <c r="E21" s="128"/>
+      <c r="F21" s="128"/>
       <c r="G21" s="25"/>
       <c r="H21" s="16"/>
     </row>
     <row r="22" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="90" t="s">
+      <c r="A22" s="129" t="s">
         <v>36</v>
       </c>
-      <c r="B22" s="91"/>
-      <c r="C22" s="91"/>
-      <c r="D22" s="91"/>
-      <c r="E22" s="92" t="s">
+      <c r="B22" s="130"/>
+      <c r="C22" s="130"/>
+      <c r="D22" s="130"/>
+      <c r="E22" s="131" t="s">
         <v>30</v>
       </c>
-      <c r="F22" s="93"/>
+      <c r="F22" s="132"/>
       <c r="G22" s="26"/>
       <c r="H22" s="17"/>
     </row>
@@ -22454,79 +22454,114 @@
       <c r="H25" s="11"/>
     </row>
     <row r="26" spans="1:8" ht="60.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="78" t="s">
+      <c r="A26" s="133" t="s">
         <v>19</v>
       </c>
-      <c r="B26" s="79"/>
-      <c r="C26" s="79"/>
-      <c r="D26" s="80" t="s">
+      <c r="B26" s="134"/>
+      <c r="C26" s="134"/>
+      <c r="D26" s="135" t="s">
         <v>15</v>
       </c>
-      <c r="E26" s="80"/>
+      <c r="E26" s="135"/>
       <c r="F26" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="G26" s="80" t="s">
+      <c r="G26" s="135" t="s">
         <v>15</v>
       </c>
-      <c r="H26" s="81"/>
+      <c r="H26" s="136"/>
     </row>
     <row r="27" spans="1:8" ht="60.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="82" t="s">
+      <c r="A27" s="137" t="s">
         <v>20</v>
       </c>
-      <c r="B27" s="83"/>
-      <c r="C27" s="83"/>
-      <c r="D27" s="84" t="s">
+      <c r="B27" s="138"/>
+      <c r="C27" s="138"/>
+      <c r="D27" s="139" t="s">
         <v>15</v>
       </c>
-      <c r="E27" s="84"/>
+      <c r="E27" s="139"/>
       <c r="F27" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="G27" s="85" t="s">
+      <c r="G27" s="140" t="s">
         <v>37</v>
       </c>
-      <c r="H27" s="86"/>
+      <c r="H27" s="141"/>
     </row>
     <row r="28" spans="1:8" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="66" t="s">
+      <c r="A28" s="142" t="s">
         <v>14</v>
       </c>
-      <c r="B28" s="67"/>
-      <c r="C28" s="67"/>
-      <c r="D28" s="67"/>
-      <c r="E28" s="68"/>
-      <c r="F28" s="69" t="s">
+      <c r="B28" s="143"/>
+      <c r="C28" s="143"/>
+      <c r="D28" s="143"/>
+      <c r="E28" s="144"/>
+      <c r="F28" s="145" t="s">
         <v>7</v>
       </c>
-      <c r="G28" s="70"/>
-      <c r="H28" s="71"/>
+      <c r="G28" s="146"/>
+      <c r="H28" s="147"/>
     </row>
     <row r="29" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="72" t="str">
+      <c r="A29" s="148" t="str">
         <f>FormTitan!B19</f>
         <v>IQBAL NORDIYANA</v>
       </c>
-      <c r="B29" s="73"/>
-      <c r="C29" s="73"/>
-      <c r="D29" s="74">
+      <c r="B29" s="149"/>
+      <c r="C29" s="149"/>
+      <c r="D29" s="150">
         <f>FormTitan!B20</f>
         <v>45630</v>
       </c>
-      <c r="E29" s="75"/>
+      <c r="E29" s="151"/>
       <c r="F29" s="3"/>
-      <c r="G29" s="76"/>
-      <c r="H29" s="77"/>
+      <c r="G29" s="152"/>
+      <c r="H29" s="153"/>
     </row>
   </sheetData>
   <mergeCells count="54">
-    <mergeCell ref="F4:H4"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="D2:H2"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="D3:H3"/>
+    <mergeCell ref="A28:E28"/>
+    <mergeCell ref="F28:H28"/>
+    <mergeCell ref="A29:C29"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="A27:C27"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="A20:D20"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="A22:D22"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="A17:D17"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="A18:D18"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="A19:D19"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="B13:E13"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="B14:E14"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="B15:E15"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:E11"/>
+    <mergeCell ref="F10:H10"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="G9:H9"/>
     <mergeCell ref="E5:F5"/>
     <mergeCell ref="G5:H5"/>
     <mergeCell ref="A6:E6"/>
@@ -22534,47 +22569,12 @@
     <mergeCell ref="A7:B7"/>
     <mergeCell ref="C7:E7"/>
     <mergeCell ref="G7:H7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="B10:E11"/>
-    <mergeCell ref="F10:H10"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="B12:E12"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="B13:E13"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="B14:E14"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="B15:E15"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="A17:D17"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="A18:D18"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="A19:D19"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="A20:D20"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="A21:D21"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="A22:D22"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="A26:C26"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="A27:C27"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="A28:E28"/>
-    <mergeCell ref="F28:H28"/>
-    <mergeCell ref="A29:C29"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="F4:H4"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="D2:H2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="D3:H3"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -22767,46 +22767,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="32.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="139" t="s">
+      <c r="A1" s="69" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="140"/>
-      <c r="C1" s="140"/>
-      <c r="D1" s="140"/>
-      <c r="E1" s="140"/>
-      <c r="F1" s="140"/>
-      <c r="G1" s="140"/>
-      <c r="H1" s="141"/>
+      <c r="B1" s="70"/>
+      <c r="C1" s="70"/>
+      <c r="D1" s="70"/>
+      <c r="E1" s="70"/>
+      <c r="F1" s="70"/>
+      <c r="G1" s="70"/>
+      <c r="H1" s="71"/>
     </row>
     <row r="2" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="142" t="s">
+      <c r="A2" s="72" t="s">
         <v>42</v>
       </c>
-      <c r="B2" s="143"/>
-      <c r="C2" s="144"/>
-      <c r="D2" s="145" t="str">
+      <c r="B2" s="73"/>
+      <c r="C2" s="74"/>
+      <c r="D2" s="75" t="str">
         <f>FormTitan!B10</f>
         <v>2024110128</v>
       </c>
-      <c r="E2" s="145"/>
-      <c r="F2" s="145"/>
-      <c r="G2" s="145"/>
-      <c r="H2" s="146"/>
+      <c r="E2" s="75"/>
+      <c r="F2" s="75"/>
+      <c r="G2" s="75"/>
+      <c r="H2" s="76"/>
     </row>
     <row r="3" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="147" t="s">
+      <c r="A3" s="77" t="s">
         <v>43</v>
       </c>
-      <c r="B3" s="148"/>
-      <c r="C3" s="149"/>
-      <c r="D3" s="150" t="str">
+      <c r="B3" s="78"/>
+      <c r="C3" s="79"/>
+      <c r="D3" s="80" t="str">
         <f>FormTitan!G10</f>
         <v>TABLET</v>
       </c>
-      <c r="E3" s="151"/>
-      <c r="F3" s="151"/>
-      <c r="G3" s="151"/>
-      <c r="H3" s="152"/>
+      <c r="E3" s="81"/>
+      <c r="F3" s="81"/>
+      <c r="G3" s="81"/>
+      <c r="H3" s="82"/>
     </row>
     <row r="4" spans="1:8" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="20" t="s">
@@ -22819,11 +22819,11 @@
         <f>FormTitan!B2</f>
         <v>RB POW 041224</v>
       </c>
-      <c r="F4" s="137" t="s">
+      <c r="F4" s="67" t="s">
         <v>38</v>
       </c>
-      <c r="G4" s="137"/>
-      <c r="H4" s="138"/>
+      <c r="G4" s="67"/>
+      <c r="H4" s="68"/>
     </row>
     <row r="5" spans="1:8" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="34" t="s">
@@ -22832,136 +22832,136 @@
       <c r="B5" s="7"/>
       <c r="C5" s="7"/>
       <c r="D5" s="7"/>
-      <c r="E5" s="131" t="str">
+      <c r="E5" s="83" t="str">
         <f>FormTitan!B21</f>
         <v>IQC POW 041224</v>
       </c>
-      <c r="F5" s="131"/>
-      <c r="G5" s="132" t="s">
+      <c r="F5" s="83"/>
+      <c r="G5" s="84" t="s">
         <v>40</v>
       </c>
-      <c r="H5" s="133"/>
+      <c r="H5" s="85"/>
     </row>
     <row r="6" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="134" t="s">
+      <c r="A6" s="86" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="135"/>
-      <c r="C6" s="135"/>
-      <c r="D6" s="135"/>
-      <c r="E6" s="136"/>
+      <c r="B6" s="87"/>
+      <c r="C6" s="87"/>
+      <c r="D6" s="87"/>
+      <c r="E6" s="88"/>
       <c r="F6" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="G6" s="114" t="s">
+      <c r="G6" s="89" t="s">
         <v>9</v>
       </c>
-      <c r="H6" s="117"/>
+      <c r="H6" s="90"/>
     </row>
     <row r="7" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="121" t="s">
+      <c r="A7" s="91" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="122"/>
-      <c r="C7" s="128"/>
-      <c r="D7" s="129"/>
-      <c r="E7" s="130"/>
+      <c r="B7" s="92"/>
+      <c r="C7" s="93"/>
+      <c r="D7" s="94"/>
+      <c r="E7" s="95"/>
       <c r="F7" s="18">
         <f>FormTitan!C3</f>
         <v>0.504</v>
       </c>
-      <c r="G7" s="126">
+      <c r="G7" s="96">
         <f>FormTitan!F3</f>
         <v>50.138000000000005</v>
       </c>
-      <c r="H7" s="127"/>
+      <c r="H7" s="97"/>
     </row>
     <row r="8" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="121" t="s">
+      <c r="A8" s="91" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="122"/>
-      <c r="C8" s="123" t="str">
+      <c r="B8" s="92"/>
+      <c r="C8" s="98" t="str">
         <f>E5</f>
         <v>IQC POW 041224</v>
       </c>
-      <c r="D8" s="124"/>
-      <c r="E8" s="125"/>
+      <c r="D8" s="99"/>
+      <c r="E8" s="100"/>
       <c r="F8" s="18">
         <f>FormTitan!C4</f>
         <v>0.502</v>
       </c>
-      <c r="G8" s="126">
+      <c r="G8" s="96">
         <f>FormTitan!F4</f>
         <v>50.027000000000001</v>
       </c>
-      <c r="H8" s="127"/>
+      <c r="H8" s="97"/>
     </row>
     <row r="9" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="121" t="s">
+      <c r="A9" s="91" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="122"/>
-      <c r="C9" s="128"/>
-      <c r="D9" s="129"/>
-      <c r="E9" s="130"/>
+      <c r="B9" s="92"/>
+      <c r="C9" s="93"/>
+      <c r="D9" s="94"/>
+      <c r="E9" s="95"/>
       <c r="F9" s="18">
         <f>FormTitan!C5</f>
         <v>0.502</v>
       </c>
-      <c r="G9" s="126">
+      <c r="G9" s="96">
         <f>FormTitan!F5</f>
         <v>50.009</v>
       </c>
-      <c r="H9" s="127"/>
+      <c r="H9" s="97"/>
     </row>
     <row r="10" spans="1:8" ht="48.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="106"/>
-      <c r="B10" s="108" t="s">
+      <c r="A10" s="101"/>
+      <c r="B10" s="103" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="109"/>
-      <c r="D10" s="109"/>
-      <c r="E10" s="110"/>
-      <c r="F10" s="114" t="s">
+      <c r="C10" s="104"/>
+      <c r="D10" s="104"/>
+      <c r="E10" s="105"/>
+      <c r="F10" s="89" t="s">
         <v>39</v>
       </c>
-      <c r="G10" s="115"/>
-      <c r="H10" s="116"/>
+      <c r="G10" s="109"/>
+      <c r="H10" s="110"/>
     </row>
     <row r="11" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="107"/>
-      <c r="B11" s="111"/>
-      <c r="C11" s="112"/>
-      <c r="D11" s="112"/>
-      <c r="E11" s="113"/>
+      <c r="A11" s="102"/>
+      <c r="B11" s="106"/>
+      <c r="C11" s="107"/>
+      <c r="D11" s="107"/>
+      <c r="E11" s="108"/>
       <c r="F11" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="G11" s="114" t="s">
+      <c r="G11" s="89" t="s">
         <v>18</v>
       </c>
-      <c r="H11" s="117"/>
+      <c r="H11" s="90"/>
     </row>
     <row r="12" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="118">
+      <c r="B12" s="111">
         <v>2.5</v>
       </c>
-      <c r="C12" s="119"/>
-      <c r="D12" s="119"/>
-      <c r="E12" s="120"/>
+      <c r="C12" s="112"/>
+      <c r="D12" s="112"/>
+      <c r="E12" s="113"/>
       <c r="F12" s="65">
         <f>IF(ISNUMBER(SEARCH("IQC",$D$2)),"NA",($B12/F$8))</f>
         <v>4.9800796812749004</v>
       </c>
-      <c r="G12" s="101">
+      <c r="G12" s="114">
         <f>IF(ISNUMBER(SEARCH("IQC",$D$2)),"NA",($B12/F$9))</f>
         <v>4.9800796812749004</v>
       </c>
-      <c r="H12" s="102" t="e">
+      <c r="H12" s="115" t="e">
         <f t="shared" ref="H12:H15" si="0">IF(ISNUMBER(SEARCH("IQC",$D$2)),"NA",($B12/H$8))</f>
         <v>#DIV/0!</v>
       </c>
@@ -22970,21 +22970,21 @@
       <c r="A13" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="98">
+      <c r="B13" s="116">
         <v>0.25</v>
       </c>
-      <c r="C13" s="99"/>
-      <c r="D13" s="99"/>
-      <c r="E13" s="100"/>
+      <c r="C13" s="117"/>
+      <c r="D13" s="117"/>
+      <c r="E13" s="118"/>
       <c r="F13" s="65">
         <f t="shared" ref="F13:F15" si="1">IF(ISNUMBER(SEARCH("IQC",$D$2)),"NA",(B13/F$8))</f>
         <v>0.49800796812749004</v>
       </c>
-      <c r="G13" s="101">
+      <c r="G13" s="114">
         <f t="shared" ref="G13:G15" si="2">IF(ISNUMBER(SEARCH("IQC",$D$2)),"NA",($B13/F$9))</f>
         <v>0.49800796812749004</v>
       </c>
-      <c r="H13" s="102" t="e">
+      <c r="H13" s="115" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
@@ -22993,21 +22993,21 @@
       <c r="A14" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="103">
+      <c r="B14" s="119">
         <v>5</v>
       </c>
-      <c r="C14" s="104"/>
-      <c r="D14" s="104"/>
-      <c r="E14" s="105"/>
+      <c r="C14" s="120"/>
+      <c r="D14" s="120"/>
+      <c r="E14" s="121"/>
       <c r="F14" s="65">
         <f t="shared" si="1"/>
         <v>9.9601593625498008</v>
       </c>
-      <c r="G14" s="101">
+      <c r="G14" s="114">
         <f t="shared" si="2"/>
         <v>9.9601593625498008</v>
       </c>
-      <c r="H14" s="102" t="e">
+      <c r="H14" s="115" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
@@ -23016,21 +23016,21 @@
       <c r="A15" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="98">
+      <c r="B15" s="116">
         <v>0.15</v>
       </c>
-      <c r="C15" s="99"/>
-      <c r="D15" s="99"/>
-      <c r="E15" s="100"/>
+      <c r="C15" s="117"/>
+      <c r="D15" s="117"/>
+      <c r="E15" s="118"/>
       <c r="F15" s="65">
         <f t="shared" si="1"/>
         <v>0.29880478087649404</v>
       </c>
-      <c r="G15" s="101">
+      <c r="G15" s="114">
         <f t="shared" si="2"/>
         <v>0.29880478087649404</v>
       </c>
-      <c r="H15" s="102" t="e">
+      <c r="H15" s="115" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
@@ -23042,16 +23042,16 @@
       <c r="H16" s="2"/>
     </row>
     <row r="17" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="94" t="s">
+      <c r="A17" s="122" t="s">
         <v>31</v>
       </c>
-      <c r="B17" s="95"/>
-      <c r="C17" s="95"/>
-      <c r="D17" s="95"/>
-      <c r="E17" s="96" t="s">
+      <c r="B17" s="123"/>
+      <c r="C17" s="123"/>
+      <c r="D17" s="123"/>
+      <c r="E17" s="124" t="s">
         <v>29</v>
       </c>
-      <c r="F17" s="97"/>
+      <c r="F17" s="125"/>
       <c r="G17" s="27" t="s">
         <v>74</v>
       </c>
@@ -23061,70 +23061,70 @@
       </c>
     </row>
     <row r="18" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="87" t="s">
+      <c r="A18" s="126" t="s">
         <v>32</v>
       </c>
-      <c r="B18" s="88"/>
-      <c r="C18" s="88"/>
-      <c r="D18" s="88"/>
-      <c r="E18" s="89" t="s">
+      <c r="B18" s="127"/>
+      <c r="C18" s="127"/>
+      <c r="D18" s="127"/>
+      <c r="E18" s="128" t="s">
         <v>29</v>
       </c>
-      <c r="F18" s="89"/>
+      <c r="F18" s="128"/>
       <c r="G18" s="25"/>
       <c r="H18" s="16"/>
     </row>
     <row r="19" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="87" t="s">
+      <c r="A19" s="126" t="s">
         <v>33</v>
       </c>
-      <c r="B19" s="88"/>
-      <c r="C19" s="88"/>
-      <c r="D19" s="88"/>
-      <c r="E19" s="89" t="s">
+      <c r="B19" s="127"/>
+      <c r="C19" s="127"/>
+      <c r="D19" s="127"/>
+      <c r="E19" s="128" t="s">
         <v>73</v>
       </c>
-      <c r="F19" s="89"/>
+      <c r="F19" s="128"/>
       <c r="G19" s="25"/>
       <c r="H19" s="16"/>
     </row>
     <row r="20" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="87" t="s">
+      <c r="A20" s="126" t="s">
         <v>34</v>
       </c>
-      <c r="B20" s="88"/>
-      <c r="C20" s="88"/>
-      <c r="D20" s="88"/>
-      <c r="E20" s="89" t="s">
+      <c r="B20" s="127"/>
+      <c r="C20" s="127"/>
+      <c r="D20" s="127"/>
+      <c r="E20" s="128" t="s">
         <v>29</v>
       </c>
-      <c r="F20" s="89"/>
+      <c r="F20" s="128"/>
       <c r="G20" s="25"/>
       <c r="H20" s="16"/>
     </row>
     <row r="21" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="87" t="s">
+      <c r="A21" s="126" t="s">
         <v>35</v>
       </c>
-      <c r="B21" s="88"/>
-      <c r="C21" s="88"/>
-      <c r="D21" s="88"/>
-      <c r="E21" s="89"/>
-      <c r="F21" s="89"/>
+      <c r="B21" s="127"/>
+      <c r="C21" s="127"/>
+      <c r="D21" s="127"/>
+      <c r="E21" s="128"/>
+      <c r="F21" s="128"/>
       <c r="G21" s="25"/>
       <c r="H21" s="16"/>
     </row>
     <row r="22" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="90" t="s">
+      <c r="A22" s="129" t="s">
         <v>36</v>
       </c>
-      <c r="B22" s="91"/>
-      <c r="C22" s="91"/>
-      <c r="D22" s="91"/>
-      <c r="E22" s="92" t="s">
+      <c r="B22" s="130"/>
+      <c r="C22" s="130"/>
+      <c r="D22" s="130"/>
+      <c r="E22" s="131" t="s">
         <v>30</v>
       </c>
-      <c r="F22" s="93"/>
+      <c r="F22" s="132"/>
       <c r="G22" s="26"/>
       <c r="H22" s="17"/>
     </row>
@@ -23166,79 +23166,114 @@
       <c r="H25" s="11"/>
     </row>
     <row r="26" spans="1:8" ht="60.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="78" t="s">
+      <c r="A26" s="133" t="s">
         <v>19</v>
       </c>
-      <c r="B26" s="79"/>
-      <c r="C26" s="79"/>
-      <c r="D26" s="80" t="s">
+      <c r="B26" s="134"/>
+      <c r="C26" s="134"/>
+      <c r="D26" s="135" t="s">
         <v>15</v>
       </c>
-      <c r="E26" s="80"/>
+      <c r="E26" s="135"/>
       <c r="F26" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="G26" s="80" t="s">
+      <c r="G26" s="135" t="s">
         <v>15</v>
       </c>
-      <c r="H26" s="81"/>
+      <c r="H26" s="136"/>
     </row>
     <row r="27" spans="1:8" ht="60.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="82" t="s">
+      <c r="A27" s="137" t="s">
         <v>20</v>
       </c>
-      <c r="B27" s="83"/>
-      <c r="C27" s="83"/>
-      <c r="D27" s="84" t="s">
+      <c r="B27" s="138"/>
+      <c r="C27" s="138"/>
+      <c r="D27" s="139" t="s">
         <v>15</v>
       </c>
-      <c r="E27" s="84"/>
+      <c r="E27" s="139"/>
       <c r="F27" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="G27" s="85" t="s">
+      <c r="G27" s="140" t="s">
         <v>37</v>
       </c>
-      <c r="H27" s="86"/>
+      <c r="H27" s="141"/>
     </row>
     <row r="28" spans="1:8" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="66" t="s">
+      <c r="A28" s="142" t="s">
         <v>14</v>
       </c>
-      <c r="B28" s="67"/>
-      <c r="C28" s="67"/>
-      <c r="D28" s="67"/>
-      <c r="E28" s="68"/>
-      <c r="F28" s="69" t="s">
+      <c r="B28" s="143"/>
+      <c r="C28" s="143"/>
+      <c r="D28" s="143"/>
+      <c r="E28" s="144"/>
+      <c r="F28" s="145" t="s">
         <v>7</v>
       </c>
-      <c r="G28" s="70"/>
-      <c r="H28" s="71"/>
+      <c r="G28" s="146"/>
+      <c r="H28" s="147"/>
     </row>
     <row r="29" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="72" t="str">
+      <c r="A29" s="148" t="str">
         <f>FormTitan!B19</f>
         <v>IQBAL NORDIYANA</v>
       </c>
-      <c r="B29" s="73"/>
-      <c r="C29" s="73"/>
-      <c r="D29" s="74">
+      <c r="B29" s="149"/>
+      <c r="C29" s="149"/>
+      <c r="D29" s="150">
         <f>FormTitan!B20</f>
         <v>45630</v>
       </c>
-      <c r="E29" s="75"/>
+      <c r="E29" s="151"/>
       <c r="F29" s="3"/>
-      <c r="G29" s="76"/>
-      <c r="H29" s="77"/>
+      <c r="G29" s="152"/>
+      <c r="H29" s="153"/>
     </row>
   </sheetData>
   <mergeCells count="54">
-    <mergeCell ref="F4:H4"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="D2:H2"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="D3:H3"/>
+    <mergeCell ref="A28:E28"/>
+    <mergeCell ref="F28:H28"/>
+    <mergeCell ref="A29:C29"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="A27:C27"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="A20:D20"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="A22:D22"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="A17:D17"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="A18:D18"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="A19:D19"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="B13:E13"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="B14:E14"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="B15:E15"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:E11"/>
+    <mergeCell ref="F10:H10"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="G9:H9"/>
     <mergeCell ref="E5:F5"/>
     <mergeCell ref="G5:H5"/>
     <mergeCell ref="A6:E6"/>
@@ -23246,47 +23281,12 @@
     <mergeCell ref="A7:B7"/>
     <mergeCell ref="C7:E7"/>
     <mergeCell ref="G7:H7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="B10:E11"/>
-    <mergeCell ref="F10:H10"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="B12:E12"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="B13:E13"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="B14:E14"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="B15:E15"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="A17:D17"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="A18:D18"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="A19:D19"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="A20:D20"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="A21:D21"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="A22:D22"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="A26:C26"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="A27:C27"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="A28:E28"/>
-    <mergeCell ref="F28:H28"/>
-    <mergeCell ref="A29:C29"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="F4:H4"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="D2:H2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="D3:H3"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -23479,46 +23479,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="32.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="139" t="s">
+      <c r="A1" s="69" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="140"/>
-      <c r="C1" s="140"/>
-      <c r="D1" s="140"/>
-      <c r="E1" s="140"/>
-      <c r="F1" s="140"/>
-      <c r="G1" s="140"/>
-      <c r="H1" s="141"/>
+      <c r="B1" s="70"/>
+      <c r="C1" s="70"/>
+      <c r="D1" s="70"/>
+      <c r="E1" s="70"/>
+      <c r="F1" s="70"/>
+      <c r="G1" s="70"/>
+      <c r="H1" s="71"/>
     </row>
     <row r="2" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="142" t="s">
+      <c r="A2" s="72" t="s">
         <v>42</v>
       </c>
-      <c r="B2" s="143"/>
-      <c r="C2" s="144"/>
-      <c r="D2" s="145" t="str">
+      <c r="B2" s="73"/>
+      <c r="C2" s="74"/>
+      <c r="D2" s="75" t="str">
         <f>FormTitan!B11</f>
         <v>2024110129</v>
       </c>
-      <c r="E2" s="145"/>
-      <c r="F2" s="145"/>
-      <c r="G2" s="145"/>
-      <c r="H2" s="146"/>
+      <c r="E2" s="75"/>
+      <c r="F2" s="75"/>
+      <c r="G2" s="75"/>
+      <c r="H2" s="76"/>
     </row>
     <row r="3" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="147" t="s">
+      <c r="A3" s="77" t="s">
         <v>43</v>
       </c>
-      <c r="B3" s="148"/>
-      <c r="C3" s="149"/>
-      <c r="D3" s="150" t="str">
+      <c r="B3" s="78"/>
+      <c r="C3" s="79"/>
+      <c r="D3" s="80" t="str">
         <f>FormTitan!G11</f>
         <v>TABLET</v>
       </c>
-      <c r="E3" s="151"/>
-      <c r="F3" s="151"/>
-      <c r="G3" s="151"/>
-      <c r="H3" s="152"/>
+      <c r="E3" s="81"/>
+      <c r="F3" s="81"/>
+      <c r="G3" s="81"/>
+      <c r="H3" s="82"/>
     </row>
     <row r="4" spans="1:8" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="20" t="s">
@@ -23531,11 +23531,11 @@
         <f>FormTitan!B2</f>
         <v>RB POW 041224</v>
       </c>
-      <c r="F4" s="137" t="s">
+      <c r="F4" s="67" t="s">
         <v>38</v>
       </c>
-      <c r="G4" s="137"/>
-      <c r="H4" s="138"/>
+      <c r="G4" s="67"/>
+      <c r="H4" s="68"/>
     </row>
     <row r="5" spans="1:8" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="34" t="s">
@@ -23544,136 +23544,136 @@
       <c r="B5" s="7"/>
       <c r="C5" s="7"/>
       <c r="D5" s="7"/>
-      <c r="E5" s="131" t="str">
+      <c r="E5" s="83" t="str">
         <f>FormTitan!B21</f>
         <v>IQC POW 041224</v>
       </c>
-      <c r="F5" s="131"/>
-      <c r="G5" s="132" t="s">
+      <c r="F5" s="83"/>
+      <c r="G5" s="84" t="s">
         <v>40</v>
       </c>
-      <c r="H5" s="133"/>
+      <c r="H5" s="85"/>
     </row>
     <row r="6" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="134" t="s">
+      <c r="A6" s="86" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="135"/>
-      <c r="C6" s="135"/>
-      <c r="D6" s="135"/>
-      <c r="E6" s="136"/>
+      <c r="B6" s="87"/>
+      <c r="C6" s="87"/>
+      <c r="D6" s="87"/>
+      <c r="E6" s="88"/>
       <c r="F6" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="G6" s="114" t="s">
+      <c r="G6" s="89" t="s">
         <v>9</v>
       </c>
-      <c r="H6" s="117"/>
+      <c r="H6" s="90"/>
     </row>
     <row r="7" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="121" t="s">
+      <c r="A7" s="91" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="122"/>
-      <c r="C7" s="128"/>
-      <c r="D7" s="129"/>
-      <c r="E7" s="130"/>
+      <c r="B7" s="92"/>
+      <c r="C7" s="93"/>
+      <c r="D7" s="94"/>
+      <c r="E7" s="95"/>
       <c r="F7" s="18">
         <f>FormTitan!C3</f>
         <v>0.504</v>
       </c>
-      <c r="G7" s="126">
+      <c r="G7" s="96">
         <f>FormTitan!F3</f>
         <v>50.138000000000005</v>
       </c>
-      <c r="H7" s="127"/>
+      <c r="H7" s="97"/>
     </row>
     <row r="8" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="121" t="s">
+      <c r="A8" s="91" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="122"/>
-      <c r="C8" s="123" t="str">
+      <c r="B8" s="92"/>
+      <c r="C8" s="98" t="str">
         <f>E5</f>
         <v>IQC POW 041224</v>
       </c>
-      <c r="D8" s="124"/>
-      <c r="E8" s="125"/>
+      <c r="D8" s="99"/>
+      <c r="E8" s="100"/>
       <c r="F8" s="18">
         <f>FormTitan!C4</f>
         <v>0.502</v>
       </c>
-      <c r="G8" s="126">
+      <c r="G8" s="96">
         <f>FormTitan!F4</f>
         <v>50.027000000000001</v>
       </c>
-      <c r="H8" s="127"/>
+      <c r="H8" s="97"/>
     </row>
     <row r="9" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="121" t="s">
+      <c r="A9" s="91" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="122"/>
-      <c r="C9" s="128"/>
-      <c r="D9" s="129"/>
-      <c r="E9" s="130"/>
+      <c r="B9" s="92"/>
+      <c r="C9" s="93"/>
+      <c r="D9" s="94"/>
+      <c r="E9" s="95"/>
       <c r="F9" s="18">
         <f>FormTitan!C5</f>
         <v>0.502</v>
       </c>
-      <c r="G9" s="126">
+      <c r="G9" s="96">
         <f>FormTitan!F5</f>
         <v>50.009</v>
       </c>
-      <c r="H9" s="127"/>
+      <c r="H9" s="97"/>
     </row>
     <row r="10" spans="1:8" ht="48.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="106"/>
-      <c r="B10" s="108" t="s">
+      <c r="A10" s="101"/>
+      <c r="B10" s="103" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="109"/>
-      <c r="D10" s="109"/>
-      <c r="E10" s="110"/>
-      <c r="F10" s="114" t="s">
+      <c r="C10" s="104"/>
+      <c r="D10" s="104"/>
+      <c r="E10" s="105"/>
+      <c r="F10" s="89" t="s">
         <v>39</v>
       </c>
-      <c r="G10" s="115"/>
-      <c r="H10" s="116"/>
+      <c r="G10" s="109"/>
+      <c r="H10" s="110"/>
     </row>
     <row r="11" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="107"/>
-      <c r="B11" s="111"/>
-      <c r="C11" s="112"/>
-      <c r="D11" s="112"/>
-      <c r="E11" s="113"/>
+      <c r="A11" s="102"/>
+      <c r="B11" s="106"/>
+      <c r="C11" s="107"/>
+      <c r="D11" s="107"/>
+      <c r="E11" s="108"/>
       <c r="F11" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="G11" s="114" t="s">
+      <c r="G11" s="89" t="s">
         <v>18</v>
       </c>
-      <c r="H11" s="117"/>
+      <c r="H11" s="90"/>
     </row>
     <row r="12" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="118">
+      <c r="B12" s="111">
         <v>2.5</v>
       </c>
-      <c r="C12" s="119"/>
-      <c r="D12" s="119"/>
-      <c r="E12" s="120"/>
+      <c r="C12" s="112"/>
+      <c r="D12" s="112"/>
+      <c r="E12" s="113"/>
       <c r="F12" s="65">
         <f>IF(ISNUMBER(SEARCH("IQC",$D$2)),"NA",($B12/F$8))</f>
         <v>4.9800796812749004</v>
       </c>
-      <c r="G12" s="101">
+      <c r="G12" s="114">
         <f>IF(ISNUMBER(SEARCH("IQC",$D$2)),"NA",($B12/F$9))</f>
         <v>4.9800796812749004</v>
       </c>
-      <c r="H12" s="102" t="e">
+      <c r="H12" s="115" t="e">
         <f t="shared" ref="H12:H15" si="0">IF(ISNUMBER(SEARCH("IQC",$D$2)),"NA",($B12/H$8))</f>
         <v>#DIV/0!</v>
       </c>
@@ -23682,21 +23682,21 @@
       <c r="A13" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="98">
+      <c r="B13" s="116">
         <v>0.25</v>
       </c>
-      <c r="C13" s="99"/>
-      <c r="D13" s="99"/>
-      <c r="E13" s="100"/>
+      <c r="C13" s="117"/>
+      <c r="D13" s="117"/>
+      <c r="E13" s="118"/>
       <c r="F13" s="65">
         <f t="shared" ref="F13:F15" si="1">IF(ISNUMBER(SEARCH("IQC",$D$2)),"NA",(B13/F$8))</f>
         <v>0.49800796812749004</v>
       </c>
-      <c r="G13" s="101">
+      <c r="G13" s="114">
         <f t="shared" ref="G13:G15" si="2">IF(ISNUMBER(SEARCH("IQC",$D$2)),"NA",($B13/F$9))</f>
         <v>0.49800796812749004</v>
       </c>
-      <c r="H13" s="102" t="e">
+      <c r="H13" s="115" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
@@ -23705,21 +23705,21 @@
       <c r="A14" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="103">
+      <c r="B14" s="119">
         <v>5</v>
       </c>
-      <c r="C14" s="104"/>
-      <c r="D14" s="104"/>
-      <c r="E14" s="105"/>
+      <c r="C14" s="120"/>
+      <c r="D14" s="120"/>
+      <c r="E14" s="121"/>
       <c r="F14" s="65">
         <f t="shared" si="1"/>
         <v>9.9601593625498008</v>
       </c>
-      <c r="G14" s="101">
+      <c r="G14" s="114">
         <f t="shared" si="2"/>
         <v>9.9601593625498008</v>
       </c>
-      <c r="H14" s="102" t="e">
+      <c r="H14" s="115" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
@@ -23728,21 +23728,21 @@
       <c r="A15" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="98">
+      <c r="B15" s="116">
         <v>0.15</v>
       </c>
-      <c r="C15" s="99"/>
-      <c r="D15" s="99"/>
-      <c r="E15" s="100"/>
+      <c r="C15" s="117"/>
+      <c r="D15" s="117"/>
+      <c r="E15" s="118"/>
       <c r="F15" s="65">
         <f t="shared" si="1"/>
         <v>0.29880478087649404</v>
       </c>
-      <c r="G15" s="101">
+      <c r="G15" s="114">
         <f t="shared" si="2"/>
         <v>0.29880478087649404</v>
       </c>
-      <c r="H15" s="102" t="e">
+      <c r="H15" s="115" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
@@ -23754,16 +23754,16 @@
       <c r="H16" s="2"/>
     </row>
     <row r="17" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="94" t="s">
+      <c r="A17" s="122" t="s">
         <v>31</v>
       </c>
-      <c r="B17" s="95"/>
-      <c r="C17" s="95"/>
-      <c r="D17" s="95"/>
-      <c r="E17" s="96" t="s">
+      <c r="B17" s="123"/>
+      <c r="C17" s="123"/>
+      <c r="D17" s="123"/>
+      <c r="E17" s="124" t="s">
         <v>29</v>
       </c>
-      <c r="F17" s="97"/>
+      <c r="F17" s="125"/>
       <c r="G17" s="27" t="s">
         <v>74</v>
       </c>
@@ -23773,70 +23773,70 @@
       </c>
     </row>
     <row r="18" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="87" t="s">
+      <c r="A18" s="126" t="s">
         <v>32</v>
       </c>
-      <c r="B18" s="88"/>
-      <c r="C18" s="88"/>
-      <c r="D18" s="88"/>
-      <c r="E18" s="89" t="s">
+      <c r="B18" s="127"/>
+      <c r="C18" s="127"/>
+      <c r="D18" s="127"/>
+      <c r="E18" s="128" t="s">
         <v>29</v>
       </c>
-      <c r="F18" s="89"/>
+      <c r="F18" s="128"/>
       <c r="G18" s="25"/>
       <c r="H18" s="16"/>
     </row>
     <row r="19" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="87" t="s">
+      <c r="A19" s="126" t="s">
         <v>33</v>
       </c>
-      <c r="B19" s="88"/>
-      <c r="C19" s="88"/>
-      <c r="D19" s="88"/>
-      <c r="E19" s="89" t="s">
+      <c r="B19" s="127"/>
+      <c r="C19" s="127"/>
+      <c r="D19" s="127"/>
+      <c r="E19" s="128" t="s">
         <v>73</v>
       </c>
-      <c r="F19" s="89"/>
+      <c r="F19" s="128"/>
       <c r="G19" s="25"/>
       <c r="H19" s="16"/>
     </row>
     <row r="20" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="87" t="s">
+      <c r="A20" s="126" t="s">
         <v>34</v>
       </c>
-      <c r="B20" s="88"/>
-      <c r="C20" s="88"/>
-      <c r="D20" s="88"/>
-      <c r="E20" s="89" t="s">
+      <c r="B20" s="127"/>
+      <c r="C20" s="127"/>
+      <c r="D20" s="127"/>
+      <c r="E20" s="128" t="s">
         <v>29</v>
       </c>
-      <c r="F20" s="89"/>
+      <c r="F20" s="128"/>
       <c r="G20" s="25"/>
       <c r="H20" s="16"/>
     </row>
     <row r="21" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="87" t="s">
+      <c r="A21" s="126" t="s">
         <v>35</v>
       </c>
-      <c r="B21" s="88"/>
-      <c r="C21" s="88"/>
-      <c r="D21" s="88"/>
-      <c r="E21" s="89"/>
-      <c r="F21" s="89"/>
+      <c r="B21" s="127"/>
+      <c r="C21" s="127"/>
+      <c r="D21" s="127"/>
+      <c r="E21" s="128"/>
+      <c r="F21" s="128"/>
       <c r="G21" s="25"/>
       <c r="H21" s="16"/>
     </row>
     <row r="22" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="90" t="s">
+      <c r="A22" s="129" t="s">
         <v>36</v>
       </c>
-      <c r="B22" s="91"/>
-      <c r="C22" s="91"/>
-      <c r="D22" s="91"/>
-      <c r="E22" s="92" t="s">
+      <c r="B22" s="130"/>
+      <c r="C22" s="130"/>
+      <c r="D22" s="130"/>
+      <c r="E22" s="131" t="s">
         <v>30</v>
       </c>
-      <c r="F22" s="93"/>
+      <c r="F22" s="132"/>
       <c r="G22" s="26"/>
       <c r="H22" s="17"/>
     </row>
@@ -23878,79 +23878,114 @@
       <c r="H25" s="11"/>
     </row>
     <row r="26" spans="1:8" ht="60.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="78" t="s">
+      <c r="A26" s="133" t="s">
         <v>19</v>
       </c>
-      <c r="B26" s="79"/>
-      <c r="C26" s="79"/>
-      <c r="D26" s="80" t="s">
+      <c r="B26" s="134"/>
+      <c r="C26" s="134"/>
+      <c r="D26" s="135" t="s">
         <v>15</v>
       </c>
-      <c r="E26" s="80"/>
+      <c r="E26" s="135"/>
       <c r="F26" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="G26" s="80" t="s">
+      <c r="G26" s="135" t="s">
         <v>15</v>
       </c>
-      <c r="H26" s="81"/>
+      <c r="H26" s="136"/>
     </row>
     <row r="27" spans="1:8" ht="60.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="82" t="s">
+      <c r="A27" s="137" t="s">
         <v>20</v>
       </c>
-      <c r="B27" s="83"/>
-      <c r="C27" s="83"/>
-      <c r="D27" s="84" t="s">
+      <c r="B27" s="138"/>
+      <c r="C27" s="138"/>
+      <c r="D27" s="139" t="s">
         <v>15</v>
       </c>
-      <c r="E27" s="84"/>
+      <c r="E27" s="139"/>
       <c r="F27" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="G27" s="85" t="s">
+      <c r="G27" s="140" t="s">
         <v>37</v>
       </c>
-      <c r="H27" s="86"/>
+      <c r="H27" s="141"/>
     </row>
     <row r="28" spans="1:8" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="66" t="s">
+      <c r="A28" s="142" t="s">
         <v>14</v>
       </c>
-      <c r="B28" s="67"/>
-      <c r="C28" s="67"/>
-      <c r="D28" s="67"/>
-      <c r="E28" s="68"/>
-      <c r="F28" s="69" t="s">
+      <c r="B28" s="143"/>
+      <c r="C28" s="143"/>
+      <c r="D28" s="143"/>
+      <c r="E28" s="144"/>
+      <c r="F28" s="145" t="s">
         <v>7</v>
       </c>
-      <c r="G28" s="70"/>
-      <c r="H28" s="71"/>
+      <c r="G28" s="146"/>
+      <c r="H28" s="147"/>
     </row>
     <row r="29" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="72" t="str">
+      <c r="A29" s="148" t="str">
         <f>FormTitan!B19</f>
         <v>IQBAL NORDIYANA</v>
       </c>
-      <c r="B29" s="73"/>
-      <c r="C29" s="73"/>
-      <c r="D29" s="74">
+      <c r="B29" s="149"/>
+      <c r="C29" s="149"/>
+      <c r="D29" s="150">
         <f>FormTitan!B20</f>
         <v>45630</v>
       </c>
-      <c r="E29" s="75"/>
+      <c r="E29" s="151"/>
       <c r="F29" s="3"/>
-      <c r="G29" s="76"/>
-      <c r="H29" s="77"/>
+      <c r="G29" s="152"/>
+      <c r="H29" s="153"/>
     </row>
   </sheetData>
   <mergeCells count="54">
-    <mergeCell ref="F4:H4"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="D2:H2"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="D3:H3"/>
+    <mergeCell ref="A28:E28"/>
+    <mergeCell ref="F28:H28"/>
+    <mergeCell ref="A29:C29"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="A27:C27"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="A20:D20"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="A22:D22"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="A17:D17"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="A18:D18"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="A19:D19"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="B13:E13"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="B14:E14"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="B15:E15"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:E11"/>
+    <mergeCell ref="F10:H10"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="G9:H9"/>
     <mergeCell ref="E5:F5"/>
     <mergeCell ref="G5:H5"/>
     <mergeCell ref="A6:E6"/>
@@ -23958,47 +23993,12 @@
     <mergeCell ref="A7:B7"/>
     <mergeCell ref="C7:E7"/>
     <mergeCell ref="G7:H7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="B10:E11"/>
-    <mergeCell ref="F10:H10"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="B12:E12"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="B13:E13"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="B14:E14"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="B15:E15"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="A17:D17"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="A18:D18"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="A19:D19"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="A20:D20"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="A21:D21"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="A22:D22"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="A26:C26"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="A27:C27"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="A28:E28"/>
-    <mergeCell ref="F28:H28"/>
-    <mergeCell ref="A29:C29"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="F4:H4"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="D2:H2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="D3:H3"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -24191,46 +24191,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="32.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="139" t="s">
+      <c r="A1" s="69" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="140"/>
-      <c r="C1" s="140"/>
-      <c r="D1" s="140"/>
-      <c r="E1" s="140"/>
-      <c r="F1" s="140"/>
-      <c r="G1" s="140"/>
-      <c r="H1" s="141"/>
+      <c r="B1" s="70"/>
+      <c r="C1" s="70"/>
+      <c r="D1" s="70"/>
+      <c r="E1" s="70"/>
+      <c r="F1" s="70"/>
+      <c r="G1" s="70"/>
+      <c r="H1" s="71"/>
     </row>
     <row r="2" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="142" t="s">
+      <c r="A2" s="72" t="s">
         <v>42</v>
       </c>
-      <c r="B2" s="143"/>
-      <c r="C2" s="144"/>
-      <c r="D2" s="145" t="str">
+      <c r="B2" s="73"/>
+      <c r="C2" s="74"/>
+      <c r="D2" s="75" t="str">
         <f>FormTitan!B12</f>
         <v>2024110130</v>
       </c>
-      <c r="E2" s="145"/>
-      <c r="F2" s="145"/>
-      <c r="G2" s="145"/>
-      <c r="H2" s="146"/>
+      <c r="E2" s="75"/>
+      <c r="F2" s="75"/>
+      <c r="G2" s="75"/>
+      <c r="H2" s="76"/>
     </row>
     <row r="3" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="147" t="s">
+      <c r="A3" s="77" t="s">
         <v>43</v>
       </c>
-      <c r="B3" s="148"/>
-      <c r="C3" s="149"/>
-      <c r="D3" s="150" t="str">
+      <c r="B3" s="78"/>
+      <c r="C3" s="79"/>
+      <c r="D3" s="80" t="str">
         <f>FormTitan!G12</f>
         <v>TABLET</v>
       </c>
-      <c r="E3" s="151"/>
-      <c r="F3" s="151"/>
-      <c r="G3" s="151"/>
-      <c r="H3" s="152"/>
+      <c r="E3" s="81"/>
+      <c r="F3" s="81"/>
+      <c r="G3" s="81"/>
+      <c r="H3" s="82"/>
     </row>
     <row r="4" spans="1:8" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="20" t="s">
@@ -24243,11 +24243,11 @@
         <f>FormTitan!B2</f>
         <v>RB POW 041224</v>
       </c>
-      <c r="F4" s="137" t="s">
+      <c r="F4" s="67" t="s">
         <v>38</v>
       </c>
-      <c r="G4" s="137"/>
-      <c r="H4" s="138"/>
+      <c r="G4" s="67"/>
+      <c r="H4" s="68"/>
     </row>
     <row r="5" spans="1:8" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="34" t="s">
@@ -24256,136 +24256,136 @@
       <c r="B5" s="7"/>
       <c r="C5" s="7"/>
       <c r="D5" s="7"/>
-      <c r="E5" s="131" t="str">
+      <c r="E5" s="83" t="str">
         <f>FormTitan!B21</f>
         <v>IQC POW 041224</v>
       </c>
-      <c r="F5" s="131"/>
-      <c r="G5" s="132" t="s">
+      <c r="F5" s="83"/>
+      <c r="G5" s="84" t="s">
         <v>40</v>
       </c>
-      <c r="H5" s="133"/>
+      <c r="H5" s="85"/>
     </row>
     <row r="6" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="134" t="s">
+      <c r="A6" s="86" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="135"/>
-      <c r="C6" s="135"/>
-      <c r="D6" s="135"/>
-      <c r="E6" s="136"/>
+      <c r="B6" s="87"/>
+      <c r="C6" s="87"/>
+      <c r="D6" s="87"/>
+      <c r="E6" s="88"/>
       <c r="F6" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="G6" s="114" t="s">
+      <c r="G6" s="89" t="s">
         <v>9</v>
       </c>
-      <c r="H6" s="117"/>
+      <c r="H6" s="90"/>
     </row>
     <row r="7" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="121" t="s">
+      <c r="A7" s="91" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="122"/>
-      <c r="C7" s="128"/>
-      <c r="D7" s="129"/>
-      <c r="E7" s="130"/>
+      <c r="B7" s="92"/>
+      <c r="C7" s="93"/>
+      <c r="D7" s="94"/>
+      <c r="E7" s="95"/>
       <c r="F7" s="18">
         <f>FormTitan!C3</f>
         <v>0.504</v>
       </c>
-      <c r="G7" s="126">
+      <c r="G7" s="96">
         <f>FormTitan!F3</f>
         <v>50.138000000000005</v>
       </c>
-      <c r="H7" s="127"/>
+      <c r="H7" s="97"/>
     </row>
     <row r="8" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="121" t="s">
+      <c r="A8" s="91" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="122"/>
-      <c r="C8" s="123" t="str">
+      <c r="B8" s="92"/>
+      <c r="C8" s="98" t="str">
         <f>E5</f>
         <v>IQC POW 041224</v>
       </c>
-      <c r="D8" s="124"/>
-      <c r="E8" s="125"/>
+      <c r="D8" s="99"/>
+      <c r="E8" s="100"/>
       <c r="F8" s="18">
         <f>FormTitan!C4</f>
         <v>0.502</v>
       </c>
-      <c r="G8" s="126">
+      <c r="G8" s="96">
         <f>FormTitan!F4</f>
         <v>50.027000000000001</v>
       </c>
-      <c r="H8" s="127"/>
+      <c r="H8" s="97"/>
     </row>
     <row r="9" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="121" t="s">
+      <c r="A9" s="91" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="122"/>
-      <c r="C9" s="128"/>
-      <c r="D9" s="129"/>
-      <c r="E9" s="130"/>
+      <c r="B9" s="92"/>
+      <c r="C9" s="93"/>
+      <c r="D9" s="94"/>
+      <c r="E9" s="95"/>
       <c r="F9" s="18">
         <f>FormTitan!C5</f>
         <v>0.502</v>
       </c>
-      <c r="G9" s="126">
+      <c r="G9" s="96">
         <f>FormTitan!F5</f>
         <v>50.009</v>
       </c>
-      <c r="H9" s="127"/>
+      <c r="H9" s="97"/>
     </row>
     <row r="10" spans="1:8" ht="48.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="106"/>
-      <c r="B10" s="108" t="s">
+      <c r="A10" s="101"/>
+      <c r="B10" s="103" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="109"/>
-      <c r="D10" s="109"/>
-      <c r="E10" s="110"/>
-      <c r="F10" s="114" t="s">
+      <c r="C10" s="104"/>
+      <c r="D10" s="104"/>
+      <c r="E10" s="105"/>
+      <c r="F10" s="89" t="s">
         <v>39</v>
       </c>
-      <c r="G10" s="115"/>
-      <c r="H10" s="116"/>
+      <c r="G10" s="109"/>
+      <c r="H10" s="110"/>
     </row>
     <row r="11" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="107"/>
-      <c r="B11" s="111"/>
-      <c r="C11" s="112"/>
-      <c r="D11" s="112"/>
-      <c r="E11" s="113"/>
+      <c r="A11" s="102"/>
+      <c r="B11" s="106"/>
+      <c r="C11" s="107"/>
+      <c r="D11" s="107"/>
+      <c r="E11" s="108"/>
       <c r="F11" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="G11" s="114" t="s">
+      <c r="G11" s="89" t="s">
         <v>18</v>
       </c>
-      <c r="H11" s="117"/>
+      <c r="H11" s="90"/>
     </row>
     <row r="12" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="118">
+      <c r="B12" s="111">
         <v>2.5</v>
       </c>
-      <c r="C12" s="119"/>
-      <c r="D12" s="119"/>
-      <c r="E12" s="120"/>
+      <c r="C12" s="112"/>
+      <c r="D12" s="112"/>
+      <c r="E12" s="113"/>
       <c r="F12" s="65">
         <f>IF(ISNUMBER(SEARCH("IQC",$D$2)),"NA",($B12/F$8))</f>
         <v>4.9800796812749004</v>
       </c>
-      <c r="G12" s="101">
+      <c r="G12" s="114">
         <f>IF(ISNUMBER(SEARCH("IQC",$D$2)),"NA",($B12/F$9))</f>
         <v>4.9800796812749004</v>
       </c>
-      <c r="H12" s="102" t="e">
+      <c r="H12" s="115" t="e">
         <f t="shared" ref="H12:H15" si="0">IF(ISNUMBER(SEARCH("IQC",$D$2)),"NA",($B12/H$8))</f>
         <v>#DIV/0!</v>
       </c>
@@ -24394,21 +24394,21 @@
       <c r="A13" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="98">
+      <c r="B13" s="116">
         <v>0.25</v>
       </c>
-      <c r="C13" s="99"/>
-      <c r="D13" s="99"/>
-      <c r="E13" s="100"/>
+      <c r="C13" s="117"/>
+      <c r="D13" s="117"/>
+      <c r="E13" s="118"/>
       <c r="F13" s="65">
         <f t="shared" ref="F13:F15" si="1">IF(ISNUMBER(SEARCH("IQC",$D$2)),"NA",(B13/F$8))</f>
         <v>0.49800796812749004</v>
       </c>
-      <c r="G13" s="101">
+      <c r="G13" s="114">
         <f t="shared" ref="G13:G15" si="2">IF(ISNUMBER(SEARCH("IQC",$D$2)),"NA",($B13/F$9))</f>
         <v>0.49800796812749004</v>
       </c>
-      <c r="H13" s="102" t="e">
+      <c r="H13" s="115" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
@@ -24417,21 +24417,21 @@
       <c r="A14" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="103">
+      <c r="B14" s="119">
         <v>5</v>
       </c>
-      <c r="C14" s="104"/>
-      <c r="D14" s="104"/>
-      <c r="E14" s="105"/>
+      <c r="C14" s="120"/>
+      <c r="D14" s="120"/>
+      <c r="E14" s="121"/>
       <c r="F14" s="65">
         <f t="shared" si="1"/>
         <v>9.9601593625498008</v>
       </c>
-      <c r="G14" s="101">
+      <c r="G14" s="114">
         <f t="shared" si="2"/>
         <v>9.9601593625498008</v>
       </c>
-      <c r="H14" s="102" t="e">
+      <c r="H14" s="115" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
@@ -24440,21 +24440,21 @@
       <c r="A15" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="98">
+      <c r="B15" s="116">
         <v>0.15</v>
       </c>
-      <c r="C15" s="99"/>
-      <c r="D15" s="99"/>
-      <c r="E15" s="100"/>
+      <c r="C15" s="117"/>
+      <c r="D15" s="117"/>
+      <c r="E15" s="118"/>
       <c r="F15" s="65">
         <f t="shared" si="1"/>
         <v>0.29880478087649404</v>
       </c>
-      <c r="G15" s="101">
+      <c r="G15" s="114">
         <f t="shared" si="2"/>
         <v>0.29880478087649404</v>
       </c>
-      <c r="H15" s="102" t="e">
+      <c r="H15" s="115" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
@@ -24466,16 +24466,16 @@
       <c r="H16" s="2"/>
     </row>
     <row r="17" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="94" t="s">
+      <c r="A17" s="122" t="s">
         <v>31</v>
       </c>
-      <c r="B17" s="95"/>
-      <c r="C17" s="95"/>
-      <c r="D17" s="95"/>
-      <c r="E17" s="96" t="s">
+      <c r="B17" s="123"/>
+      <c r="C17" s="123"/>
+      <c r="D17" s="123"/>
+      <c r="E17" s="124" t="s">
         <v>29</v>
       </c>
-      <c r="F17" s="97"/>
+      <c r="F17" s="125"/>
       <c r="G17" s="27" t="s">
         <v>74</v>
       </c>
@@ -24485,70 +24485,70 @@
       </c>
     </row>
     <row r="18" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="87" t="s">
+      <c r="A18" s="126" t="s">
         <v>32</v>
       </c>
-      <c r="B18" s="88"/>
-      <c r="C18" s="88"/>
-      <c r="D18" s="88"/>
-      <c r="E18" s="89" t="s">
+      <c r="B18" s="127"/>
+      <c r="C18" s="127"/>
+      <c r="D18" s="127"/>
+      <c r="E18" s="128" t="s">
         <v>29</v>
       </c>
-      <c r="F18" s="89"/>
+      <c r="F18" s="128"/>
       <c r="G18" s="25"/>
       <c r="H18" s="16"/>
     </row>
     <row r="19" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="87" t="s">
+      <c r="A19" s="126" t="s">
         <v>33</v>
       </c>
-      <c r="B19" s="88"/>
-      <c r="C19" s="88"/>
-      <c r="D19" s="88"/>
-      <c r="E19" s="89" t="s">
+      <c r="B19" s="127"/>
+      <c r="C19" s="127"/>
+      <c r="D19" s="127"/>
+      <c r="E19" s="128" t="s">
         <v>73</v>
       </c>
-      <c r="F19" s="89"/>
+      <c r="F19" s="128"/>
       <c r="G19" s="25"/>
       <c r="H19" s="16"/>
     </row>
     <row r="20" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="87" t="s">
+      <c r="A20" s="126" t="s">
         <v>34</v>
       </c>
-      <c r="B20" s="88"/>
-      <c r="C20" s="88"/>
-      <c r="D20" s="88"/>
-      <c r="E20" s="89" t="s">
+      <c r="B20" s="127"/>
+      <c r="C20" s="127"/>
+      <c r="D20" s="127"/>
+      <c r="E20" s="128" t="s">
         <v>29</v>
       </c>
-      <c r="F20" s="89"/>
+      <c r="F20" s="128"/>
       <c r="G20" s="25"/>
       <c r="H20" s="16"/>
     </row>
     <row r="21" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="87" t="s">
+      <c r="A21" s="126" t="s">
         <v>35</v>
       </c>
-      <c r="B21" s="88"/>
-      <c r="C21" s="88"/>
-      <c r="D21" s="88"/>
-      <c r="E21" s="89"/>
-      <c r="F21" s="89"/>
+      <c r="B21" s="127"/>
+      <c r="C21" s="127"/>
+      <c r="D21" s="127"/>
+      <c r="E21" s="128"/>
+      <c r="F21" s="128"/>
       <c r="G21" s="25"/>
       <c r="H21" s="16"/>
     </row>
     <row r="22" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="90" t="s">
+      <c r="A22" s="129" t="s">
         <v>36</v>
       </c>
-      <c r="B22" s="91"/>
-      <c r="C22" s="91"/>
-      <c r="D22" s="91"/>
-      <c r="E22" s="92" t="s">
+      <c r="B22" s="130"/>
+      <c r="C22" s="130"/>
+      <c r="D22" s="130"/>
+      <c r="E22" s="131" t="s">
         <v>30</v>
       </c>
-      <c r="F22" s="93"/>
+      <c r="F22" s="132"/>
       <c r="G22" s="26"/>
       <c r="H22" s="17"/>
     </row>
@@ -24590,79 +24590,114 @@
       <c r="H25" s="11"/>
     </row>
     <row r="26" spans="1:8" ht="60.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="78" t="s">
+      <c r="A26" s="133" t="s">
         <v>19</v>
       </c>
-      <c r="B26" s="79"/>
-      <c r="C26" s="79"/>
-      <c r="D26" s="80" t="s">
+      <c r="B26" s="134"/>
+      <c r="C26" s="134"/>
+      <c r="D26" s="135" t="s">
         <v>15</v>
       </c>
-      <c r="E26" s="80"/>
+      <c r="E26" s="135"/>
       <c r="F26" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="G26" s="80" t="s">
+      <c r="G26" s="135" t="s">
         <v>15</v>
       </c>
-      <c r="H26" s="81"/>
+      <c r="H26" s="136"/>
     </row>
     <row r="27" spans="1:8" ht="60.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="82" t="s">
+      <c r="A27" s="137" t="s">
         <v>20</v>
       </c>
-      <c r="B27" s="83"/>
-      <c r="C27" s="83"/>
-      <c r="D27" s="84" t="s">
+      <c r="B27" s="138"/>
+      <c r="C27" s="138"/>
+      <c r="D27" s="139" t="s">
         <v>15</v>
       </c>
-      <c r="E27" s="84"/>
+      <c r="E27" s="139"/>
       <c r="F27" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="G27" s="85" t="s">
+      <c r="G27" s="140" t="s">
         <v>37</v>
       </c>
-      <c r="H27" s="86"/>
+      <c r="H27" s="141"/>
     </row>
     <row r="28" spans="1:8" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="66" t="s">
+      <c r="A28" s="142" t="s">
         <v>14</v>
       </c>
-      <c r="B28" s="67"/>
-      <c r="C28" s="67"/>
-      <c r="D28" s="67"/>
-      <c r="E28" s="68"/>
-      <c r="F28" s="69" t="s">
+      <c r="B28" s="143"/>
+      <c r="C28" s="143"/>
+      <c r="D28" s="143"/>
+      <c r="E28" s="144"/>
+      <c r="F28" s="145" t="s">
         <v>7</v>
       </c>
-      <c r="G28" s="70"/>
-      <c r="H28" s="71"/>
+      <c r="G28" s="146"/>
+      <c r="H28" s="147"/>
     </row>
     <row r="29" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="72" t="str">
+      <c r="A29" s="148" t="str">
         <f>FormTitan!B19</f>
         <v>IQBAL NORDIYANA</v>
       </c>
-      <c r="B29" s="73"/>
-      <c r="C29" s="73"/>
-      <c r="D29" s="74">
+      <c r="B29" s="149"/>
+      <c r="C29" s="149"/>
+      <c r="D29" s="150">
         <f>FormTitan!B20</f>
         <v>45630</v>
       </c>
-      <c r="E29" s="75"/>
+      <c r="E29" s="151"/>
       <c r="F29" s="3"/>
-      <c r="G29" s="76"/>
-      <c r="H29" s="77"/>
+      <c r="G29" s="152"/>
+      <c r="H29" s="153"/>
     </row>
   </sheetData>
   <mergeCells count="54">
-    <mergeCell ref="F4:H4"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="D2:H2"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="D3:H3"/>
+    <mergeCell ref="A28:E28"/>
+    <mergeCell ref="F28:H28"/>
+    <mergeCell ref="A29:C29"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="A27:C27"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="A20:D20"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="A22:D22"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="A17:D17"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="A18:D18"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="A19:D19"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="B13:E13"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="B14:E14"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="B15:E15"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:E11"/>
+    <mergeCell ref="F10:H10"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="G9:H9"/>
     <mergeCell ref="E5:F5"/>
     <mergeCell ref="G5:H5"/>
     <mergeCell ref="A6:E6"/>
@@ -24670,47 +24705,12 @@
     <mergeCell ref="A7:B7"/>
     <mergeCell ref="C7:E7"/>
     <mergeCell ref="G7:H7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="B10:E11"/>
-    <mergeCell ref="F10:H10"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="B12:E12"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="B13:E13"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="B14:E14"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="B15:E15"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="A17:D17"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="A18:D18"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="A19:D19"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="A20:D20"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="A21:D21"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="A22:D22"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="A26:C26"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="A27:C27"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="A28:E28"/>
-    <mergeCell ref="F28:H28"/>
-    <mergeCell ref="A29:C29"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="F4:H4"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="D2:H2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="D3:H3"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -24903,46 +24903,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="32.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="139" t="s">
+      <c r="A1" s="69" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="140"/>
-      <c r="C1" s="140"/>
-      <c r="D1" s="140"/>
-      <c r="E1" s="140"/>
-      <c r="F1" s="140"/>
-      <c r="G1" s="140"/>
-      <c r="H1" s="141"/>
+      <c r="B1" s="70"/>
+      <c r="C1" s="70"/>
+      <c r="D1" s="70"/>
+      <c r="E1" s="70"/>
+      <c r="F1" s="70"/>
+      <c r="G1" s="70"/>
+      <c r="H1" s="71"/>
     </row>
     <row r="2" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="142" t="s">
+      <c r="A2" s="72" t="s">
         <v>42</v>
       </c>
-      <c r="B2" s="143"/>
-      <c r="C2" s="144"/>
-      <c r="D2" s="145" t="str">
+      <c r="B2" s="73"/>
+      <c r="C2" s="74"/>
+      <c r="D2" s="75" t="str">
         <f>FormTitan!B13</f>
         <v>2024110131</v>
       </c>
-      <c r="E2" s="145"/>
-      <c r="F2" s="145"/>
-      <c r="G2" s="145"/>
-      <c r="H2" s="146"/>
+      <c r="E2" s="75"/>
+      <c r="F2" s="75"/>
+      <c r="G2" s="75"/>
+      <c r="H2" s="76"/>
     </row>
     <row r="3" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="147" t="s">
+      <c r="A3" s="77" t="s">
         <v>43</v>
       </c>
-      <c r="B3" s="148"/>
-      <c r="C3" s="149"/>
-      <c r="D3" s="150" t="str">
+      <c r="B3" s="78"/>
+      <c r="C3" s="79"/>
+      <c r="D3" s="80" t="str">
         <f>FormTitan!G13</f>
         <v>TABLET</v>
       </c>
-      <c r="E3" s="151"/>
-      <c r="F3" s="151"/>
-      <c r="G3" s="151"/>
-      <c r="H3" s="152"/>
+      <c r="E3" s="81"/>
+      <c r="F3" s="81"/>
+      <c r="G3" s="81"/>
+      <c r="H3" s="82"/>
     </row>
     <row r="4" spans="1:8" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="20" t="s">
@@ -24955,11 +24955,11 @@
         <f>FormTitan!B2</f>
         <v>RB POW 041224</v>
       </c>
-      <c r="F4" s="137" t="s">
+      <c r="F4" s="67" t="s">
         <v>38</v>
       </c>
-      <c r="G4" s="137"/>
-      <c r="H4" s="138"/>
+      <c r="G4" s="67"/>
+      <c r="H4" s="68"/>
     </row>
     <row r="5" spans="1:8" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="34" t="s">
@@ -24968,136 +24968,136 @@
       <c r="B5" s="7"/>
       <c r="C5" s="7"/>
       <c r="D5" s="7"/>
-      <c r="E5" s="131" t="str">
+      <c r="E5" s="83" t="str">
         <f>FormTitan!B21</f>
         <v>IQC POW 041224</v>
       </c>
-      <c r="F5" s="131"/>
-      <c r="G5" s="132" t="s">
+      <c r="F5" s="83"/>
+      <c r="G5" s="84" t="s">
         <v>40</v>
       </c>
-      <c r="H5" s="133"/>
+      <c r="H5" s="85"/>
     </row>
     <row r="6" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="134" t="s">
+      <c r="A6" s="86" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="135"/>
-      <c r="C6" s="135"/>
-      <c r="D6" s="135"/>
-      <c r="E6" s="136"/>
+      <c r="B6" s="87"/>
+      <c r="C6" s="87"/>
+      <c r="D6" s="87"/>
+      <c r="E6" s="88"/>
       <c r="F6" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="G6" s="114" t="s">
+      <c r="G6" s="89" t="s">
         <v>9</v>
       </c>
-      <c r="H6" s="117"/>
+      <c r="H6" s="90"/>
     </row>
     <row r="7" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="121" t="s">
+      <c r="A7" s="91" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="122"/>
-      <c r="C7" s="128"/>
-      <c r="D7" s="129"/>
-      <c r="E7" s="130"/>
+      <c r="B7" s="92"/>
+      <c r="C7" s="93"/>
+      <c r="D7" s="94"/>
+      <c r="E7" s="95"/>
       <c r="F7" s="18">
         <f>FormTitan!C3</f>
         <v>0.504</v>
       </c>
-      <c r="G7" s="126">
+      <c r="G7" s="96">
         <f>FormTitan!F3</f>
         <v>50.138000000000005</v>
       </c>
-      <c r="H7" s="127"/>
+      <c r="H7" s="97"/>
     </row>
     <row r="8" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="121" t="s">
+      <c r="A8" s="91" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="122"/>
-      <c r="C8" s="123" t="str">
+      <c r="B8" s="92"/>
+      <c r="C8" s="98" t="str">
         <f>E5</f>
         <v>IQC POW 041224</v>
       </c>
-      <c r="D8" s="124"/>
-      <c r="E8" s="125"/>
+      <c r="D8" s="99"/>
+      <c r="E8" s="100"/>
       <c r="F8" s="18">
         <f>FormTitan!C4</f>
         <v>0.502</v>
       </c>
-      <c r="G8" s="126">
+      <c r="G8" s="96">
         <f>FormTitan!F4</f>
         <v>50.027000000000001</v>
       </c>
-      <c r="H8" s="127"/>
+      <c r="H8" s="97"/>
     </row>
     <row r="9" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="121" t="s">
+      <c r="A9" s="91" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="122"/>
-      <c r="C9" s="128"/>
-      <c r="D9" s="129"/>
-      <c r="E9" s="130"/>
+      <c r="B9" s="92"/>
+      <c r="C9" s="93"/>
+      <c r="D9" s="94"/>
+      <c r="E9" s="95"/>
       <c r="F9" s="18">
         <f>FormTitan!C5</f>
         <v>0.502</v>
       </c>
-      <c r="G9" s="126">
+      <c r="G9" s="96">
         <f>FormTitan!F5</f>
         <v>50.009</v>
       </c>
-      <c r="H9" s="127"/>
+      <c r="H9" s="97"/>
     </row>
     <row r="10" spans="1:8" ht="48.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="106"/>
-      <c r="B10" s="108" t="s">
+      <c r="A10" s="101"/>
+      <c r="B10" s="103" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="109"/>
-      <c r="D10" s="109"/>
-      <c r="E10" s="110"/>
-      <c r="F10" s="114" t="s">
+      <c r="C10" s="104"/>
+      <c r="D10" s="104"/>
+      <c r="E10" s="105"/>
+      <c r="F10" s="89" t="s">
         <v>39</v>
       </c>
-      <c r="G10" s="115"/>
-      <c r="H10" s="116"/>
+      <c r="G10" s="109"/>
+      <c r="H10" s="110"/>
     </row>
     <row r="11" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="107"/>
-      <c r="B11" s="111"/>
-      <c r="C11" s="112"/>
-      <c r="D11" s="112"/>
-      <c r="E11" s="113"/>
+      <c r="A11" s="102"/>
+      <c r="B11" s="106"/>
+      <c r="C11" s="107"/>
+      <c r="D11" s="107"/>
+      <c r="E11" s="108"/>
       <c r="F11" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="G11" s="114" t="s">
+      <c r="G11" s="89" t="s">
         <v>18</v>
       </c>
-      <c r="H11" s="117"/>
+      <c r="H11" s="90"/>
     </row>
     <row r="12" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="118">
+      <c r="B12" s="111">
         <v>2.5</v>
       </c>
-      <c r="C12" s="119"/>
-      <c r="D12" s="119"/>
-      <c r="E12" s="120"/>
+      <c r="C12" s="112"/>
+      <c r="D12" s="112"/>
+      <c r="E12" s="113"/>
       <c r="F12" s="65">
         <f>IF(ISNUMBER(SEARCH("IQC",$D$2)),"NA",($B12/F$8))</f>
         <v>4.9800796812749004</v>
       </c>
-      <c r="G12" s="101">
+      <c r="G12" s="114">
         <f>IF(ISNUMBER(SEARCH("IQC",$D$2)),"NA",($B12/F$9))</f>
         <v>4.9800796812749004</v>
       </c>
-      <c r="H12" s="102" t="e">
+      <c r="H12" s="115" t="e">
         <f t="shared" ref="H12:H15" si="0">IF(ISNUMBER(SEARCH("IQC",$D$2)),"NA",($B12/H$8))</f>
         <v>#DIV/0!</v>
       </c>
@@ -25106,21 +25106,21 @@
       <c r="A13" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="98">
+      <c r="B13" s="116">
         <v>0.25</v>
       </c>
-      <c r="C13" s="99"/>
-      <c r="D13" s="99"/>
-      <c r="E13" s="100"/>
+      <c r="C13" s="117"/>
+      <c r="D13" s="117"/>
+      <c r="E13" s="118"/>
       <c r="F13" s="65">
         <f t="shared" ref="F13:F15" si="1">IF(ISNUMBER(SEARCH("IQC",$D$2)),"NA",(B13/F$8))</f>
         <v>0.49800796812749004</v>
       </c>
-      <c r="G13" s="101">
+      <c r="G13" s="114">
         <f t="shared" ref="G13:G15" si="2">IF(ISNUMBER(SEARCH("IQC",$D$2)),"NA",($B13/F$9))</f>
         <v>0.49800796812749004</v>
       </c>
-      <c r="H13" s="102" t="e">
+      <c r="H13" s="115" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
@@ -25129,21 +25129,21 @@
       <c r="A14" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="103">
+      <c r="B14" s="119">
         <v>5</v>
       </c>
-      <c r="C14" s="104"/>
-      <c r="D14" s="104"/>
-      <c r="E14" s="105"/>
+      <c r="C14" s="120"/>
+      <c r="D14" s="120"/>
+      <c r="E14" s="121"/>
       <c r="F14" s="65">
         <f t="shared" si="1"/>
         <v>9.9601593625498008</v>
       </c>
-      <c r="G14" s="101">
+      <c r="G14" s="114">
         <f t="shared" si="2"/>
         <v>9.9601593625498008</v>
       </c>
-      <c r="H14" s="102" t="e">
+      <c r="H14" s="115" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
@@ -25152,21 +25152,21 @@
       <c r="A15" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="98">
+      <c r="B15" s="116">
         <v>0.15</v>
       </c>
-      <c r="C15" s="99"/>
-      <c r="D15" s="99"/>
-      <c r="E15" s="100"/>
+      <c r="C15" s="117"/>
+      <c r="D15" s="117"/>
+      <c r="E15" s="118"/>
       <c r="F15" s="65">
         <f t="shared" si="1"/>
         <v>0.29880478087649404</v>
       </c>
-      <c r="G15" s="101">
+      <c r="G15" s="114">
         <f t="shared" si="2"/>
         <v>0.29880478087649404</v>
       </c>
-      <c r="H15" s="102" t="e">
+      <c r="H15" s="115" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
@@ -25178,16 +25178,16 @@
       <c r="H16" s="2"/>
     </row>
     <row r="17" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="94" t="s">
+      <c r="A17" s="122" t="s">
         <v>31</v>
       </c>
-      <c r="B17" s="95"/>
-      <c r="C17" s="95"/>
-      <c r="D17" s="95"/>
-      <c r="E17" s="96" t="s">
+      <c r="B17" s="123"/>
+      <c r="C17" s="123"/>
+      <c r="D17" s="123"/>
+      <c r="E17" s="124" t="s">
         <v>29</v>
       </c>
-      <c r="F17" s="97"/>
+      <c r="F17" s="125"/>
       <c r="G17" s="27" t="s">
         <v>74</v>
       </c>
@@ -25197,70 +25197,70 @@
       </c>
     </row>
     <row r="18" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="87" t="s">
+      <c r="A18" s="126" t="s">
         <v>32</v>
       </c>
-      <c r="B18" s="88"/>
-      <c r="C18" s="88"/>
-      <c r="D18" s="88"/>
-      <c r="E18" s="89" t="s">
+      <c r="B18" s="127"/>
+      <c r="C18" s="127"/>
+      <c r="D18" s="127"/>
+      <c r="E18" s="128" t="s">
         <v>29</v>
       </c>
-      <c r="F18" s="89"/>
+      <c r="F18" s="128"/>
       <c r="G18" s="25"/>
       <c r="H18" s="16"/>
     </row>
     <row r="19" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="87" t="s">
+      <c r="A19" s="126" t="s">
         <v>33</v>
       </c>
-      <c r="B19" s="88"/>
-      <c r="C19" s="88"/>
-      <c r="D19" s="88"/>
-      <c r="E19" s="89" t="s">
+      <c r="B19" s="127"/>
+      <c r="C19" s="127"/>
+      <c r="D19" s="127"/>
+      <c r="E19" s="128" t="s">
         <v>73</v>
       </c>
-      <c r="F19" s="89"/>
+      <c r="F19" s="128"/>
       <c r="G19" s="25"/>
       <c r="H19" s="16"/>
     </row>
     <row r="20" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="87" t="s">
+      <c r="A20" s="126" t="s">
         <v>34</v>
       </c>
-      <c r="B20" s="88"/>
-      <c r="C20" s="88"/>
-      <c r="D20" s="88"/>
-      <c r="E20" s="89" t="s">
+      <c r="B20" s="127"/>
+      <c r="C20" s="127"/>
+      <c r="D20" s="127"/>
+      <c r="E20" s="128" t="s">
         <v>29</v>
       </c>
-      <c r="F20" s="89"/>
+      <c r="F20" s="128"/>
       <c r="G20" s="25"/>
       <c r="H20" s="16"/>
     </row>
     <row r="21" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="87" t="s">
+      <c r="A21" s="126" t="s">
         <v>35</v>
       </c>
-      <c r="B21" s="88"/>
-      <c r="C21" s="88"/>
-      <c r="D21" s="88"/>
-      <c r="E21" s="89"/>
-      <c r="F21" s="89"/>
+      <c r="B21" s="127"/>
+      <c r="C21" s="127"/>
+      <c r="D21" s="127"/>
+      <c r="E21" s="128"/>
+      <c r="F21" s="128"/>
       <c r="G21" s="25"/>
       <c r="H21" s="16"/>
     </row>
     <row r="22" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="90" t="s">
+      <c r="A22" s="129" t="s">
         <v>36</v>
       </c>
-      <c r="B22" s="91"/>
-      <c r="C22" s="91"/>
-      <c r="D22" s="91"/>
-      <c r="E22" s="92" t="s">
+      <c r="B22" s="130"/>
+      <c r="C22" s="130"/>
+      <c r="D22" s="130"/>
+      <c r="E22" s="131" t="s">
         <v>30</v>
       </c>
-      <c r="F22" s="93"/>
+      <c r="F22" s="132"/>
       <c r="G22" s="26"/>
       <c r="H22" s="17"/>
     </row>
@@ -25302,79 +25302,114 @@
       <c r="H25" s="11"/>
     </row>
     <row r="26" spans="1:8" ht="60.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="78" t="s">
+      <c r="A26" s="133" t="s">
         <v>19</v>
       </c>
-      <c r="B26" s="79"/>
-      <c r="C26" s="79"/>
-      <c r="D26" s="80" t="s">
+      <c r="B26" s="134"/>
+      <c r="C26" s="134"/>
+      <c r="D26" s="135" t="s">
         <v>15</v>
       </c>
-      <c r="E26" s="80"/>
+      <c r="E26" s="135"/>
       <c r="F26" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="G26" s="80" t="s">
+      <c r="G26" s="135" t="s">
         <v>15</v>
       </c>
-      <c r="H26" s="81"/>
+      <c r="H26" s="136"/>
     </row>
     <row r="27" spans="1:8" ht="60.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="82" t="s">
+      <c r="A27" s="137" t="s">
         <v>20</v>
       </c>
-      <c r="B27" s="83"/>
-      <c r="C27" s="83"/>
-      <c r="D27" s="84" t="s">
+      <c r="B27" s="138"/>
+      <c r="C27" s="138"/>
+      <c r="D27" s="139" t="s">
         <v>15</v>
       </c>
-      <c r="E27" s="84"/>
+      <c r="E27" s="139"/>
       <c r="F27" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="G27" s="85" t="s">
+      <c r="G27" s="140" t="s">
         <v>37</v>
       </c>
-      <c r="H27" s="86"/>
+      <c r="H27" s="141"/>
     </row>
     <row r="28" spans="1:8" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="66" t="s">
+      <c r="A28" s="142" t="s">
         <v>14</v>
       </c>
-      <c r="B28" s="67"/>
-      <c r="C28" s="67"/>
-      <c r="D28" s="67"/>
-      <c r="E28" s="68"/>
-      <c r="F28" s="69" t="s">
+      <c r="B28" s="143"/>
+      <c r="C28" s="143"/>
+      <c r="D28" s="143"/>
+      <c r="E28" s="144"/>
+      <c r="F28" s="145" t="s">
         <v>7</v>
       </c>
-      <c r="G28" s="70"/>
-      <c r="H28" s="71"/>
+      <c r="G28" s="146"/>
+      <c r="H28" s="147"/>
     </row>
     <row r="29" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="72" t="str">
+      <c r="A29" s="148" t="str">
         <f>FormTitan!B19</f>
         <v>IQBAL NORDIYANA</v>
       </c>
-      <c r="B29" s="73"/>
-      <c r="C29" s="73"/>
-      <c r="D29" s="74">
+      <c r="B29" s="149"/>
+      <c r="C29" s="149"/>
+      <c r="D29" s="150">
         <f>FormTitan!B20</f>
         <v>45630</v>
       </c>
-      <c r="E29" s="75"/>
+      <c r="E29" s="151"/>
       <c r="F29" s="3"/>
-      <c r="G29" s="76"/>
-      <c r="H29" s="77"/>
+      <c r="G29" s="152"/>
+      <c r="H29" s="153"/>
     </row>
   </sheetData>
   <mergeCells count="54">
-    <mergeCell ref="F4:H4"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="D2:H2"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="D3:H3"/>
+    <mergeCell ref="A28:E28"/>
+    <mergeCell ref="F28:H28"/>
+    <mergeCell ref="A29:C29"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="A27:C27"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="A20:D20"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="A22:D22"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="A17:D17"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="A18:D18"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="A19:D19"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="B13:E13"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="B14:E14"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="B15:E15"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:E11"/>
+    <mergeCell ref="F10:H10"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="G9:H9"/>
     <mergeCell ref="E5:F5"/>
     <mergeCell ref="G5:H5"/>
     <mergeCell ref="A6:E6"/>
@@ -25382,47 +25417,12 @@
     <mergeCell ref="A7:B7"/>
     <mergeCell ref="C7:E7"/>
     <mergeCell ref="G7:H7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="B10:E11"/>
-    <mergeCell ref="F10:H10"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="B12:E12"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="B13:E13"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="B14:E14"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="B15:E15"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="A17:D17"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="A18:D18"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="A19:D19"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="A20:D20"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="A21:D21"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="A22:D22"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="A26:C26"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="A27:C27"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="A28:E28"/>
-    <mergeCell ref="F28:H28"/>
-    <mergeCell ref="A29:C29"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="F4:H4"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="D2:H2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="D3:H3"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
